--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8608268990399346</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04304134495199673</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06886615192319477</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06355802365987898</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01153479202996809</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01029119726423716</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0006342261460607693</v>
+        <v>0.0015685482777038</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000748352796267092</v>
+        <v>0.0007802631324649589</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001381406608090198</v>
+        <v>0.002999999999999975</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007429138444974082</v>
+        <v>0.0005947916666666615</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004157048576521993</v>
+        <v>0.006744504137574547</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007563804224368333</v>
+        <v>0.0007712830587031682</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007937922000870956</v>
+        <v>0.0015685482777038</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007870571846597263</v>
+        <v>0.0007802631324649589</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002687827773288944</v>
+        <v>0.002952782395162459</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001496705592534184</v>
+        <v>0.001560526264929918</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00297589341666199</v>
+        <v>0.006691938380149198</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001485827688994816</v>
+        <v>0.001545690428379787</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00899999999999998</v>
+        <v>0.01326605299137751</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001767541273584901</v>
+        <v>0.001542566117406336</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01534469371445274</v>
+        <v>0.002952782395162459</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001574114369319453</v>
+        <v>0.001560526264929918</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003937268235697546</v>
+        <v>0.004329651967265827</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002245058388801276</v>
+        <v>0.002340789397394877</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004465974843647358</v>
+        <v>0.009873619154249447</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002228741533492225</v>
+        <v>0.00231853564256968</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01099422147154544</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.0022691412673105</v>
+        <v>0.002217961448598133</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0223761439793379</v>
+        <v>0.004329651967265827</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002361171553979179</v>
+        <v>0.002340789397394877</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0030852017188134</v>
+        <v>0.005476106608903804</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002993411185068368</v>
+        <v>0.003121052529859836</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005634165306978231</v>
+        <v>0.01335685179113877</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002971655377989633</v>
+        <v>0.003091380856759573</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01377079360561231</v>
+        <v>0.02408495217120654</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003025521689747333</v>
+        <v>0.003085132234812673</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0278881016341187</v>
+        <v>0.005476106608903804</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003148228738638905</v>
+        <v>0.003121052529859836</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.004996250000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.006669095934966229</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.003901315662324795</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006762979224586553</v>
+        <v>0.01618689364423975</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003714569222487041</v>
+        <v>0.003864226070949467</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01628099163298879</v>
+        <v>0.02900230450095281</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003781902112184167</v>
+        <v>0.003856415293515841</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03100000000000003</v>
+        <v>0.006669095934966229</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00361877920560748</v>
+        <v>0.003901315662324795</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005979068327250647</v>
+        <v>0.008</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004490116777602552</v>
+        <v>0.004996250000000001</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007634931014404281</v>
+        <v>0.01890900206697482</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004457483066984449</v>
+        <v>0.00463707128513936</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01911429267480494</v>
+        <v>0.03306167335725851</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004538282534621</v>
+        <v>0.00462769835221901</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03500398048803188</v>
+        <v>0.008</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004722343107958357</v>
+        <v>0.004996250000000001</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006774056772453539</v>
+        <v>0.008425110296345094</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005238469573869644</v>
+        <v>0.005461841927254713</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008632535094363361</v>
+        <v>0.02176843441276649</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005200396911481857</v>
+        <v>0.005409916499329253</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02096017385219082</v>
+        <v>0.03635535735196715</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005294662957057833</v>
+        <v>0.005398981410922178</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03827585979707415</v>
+        <v>0.008425110296345094</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005509400292618084</v>
+        <v>0.005461841927254713</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007505472664710917</v>
+        <v>0.008873208726290549</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005986822370136736</v>
+        <v>0.006242105059719671</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.02421044803503733</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005620781249999996</v>
+        <v>0.006182761713519147</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02350811228627653</v>
+        <v>0.03997565509692241</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006051043379494666</v>
+        <v>0.006170264469625346</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04099291288640466</v>
+        <v>0.008873208726290549</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00629645747727781</v>
+        <v>0.006242105059719671</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009184831440166484</v>
+        <v>0.009450083723030141</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006735175166403828</v>
+        <v>0.00702236819218463</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009532212456159095</v>
+        <v>0.02608030028720978</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006686224600476674</v>
+        <v>0.00695560692770904</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02514758509819212</v>
+        <v>0.04386953926318837</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0068074238019315</v>
+        <v>0.007315860665677736</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04386953926318837</v>
+        <v>0.009450083723030141</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007315860665677736</v>
+        <v>0.00702236819218463</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008823648534963979</v>
+        <v>0.01016653339130502</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00748352796267092</v>
+        <v>0.007802631324649589</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009935909571884137</v>
+        <v>0.02770216564657824</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007429138444974083</v>
+        <v>0.007846198702478258</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02770216564657824</v>
+        <v>0.04477503693973867</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007772177960002048</v>
+        <v>0.007712830587031681</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04512789809272505</v>
+        <v>0.01016653339130502</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007870571846597263</v>
+        <v>0.007802631324649589</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008433439385247092</v>
+        <v>0.0105333558358564</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008231880758938012</v>
+        <v>0.008582894457114548</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01029063012019832</v>
+        <v>0.02815879942885072</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008172052289471491</v>
+        <v>0.008501297356088827</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02882115696947116</v>
+        <v>0.04651081704651555</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008320184646805168</v>
+        <v>0.008484113645734851</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04747589812483904</v>
+        <v>0.0105333558358564</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00865762903125699</v>
+        <v>0.008582894457114548</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01102571942715957</v>
+        <v>0.01096134916142546</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008980233555205103</v>
+        <v>0.009363157589579507</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0107302911030229</v>
+        <v>0.02926840562370481</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008914966133968898</v>
+        <v>0.009274142570278721</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02996427378878946</v>
+        <v>0.04771527538875686</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009076565069241999</v>
+        <v>0.009255396704438019</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04945583627595934</v>
+        <v>0.01096134916142546</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009444686215916714</v>
+        <v>0.009363157589579507</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009612004096845088</v>
+        <v>0.01153479202996809</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009728586351472194</v>
+        <v>0.01029119726423716</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01118880952227918</v>
+        <v>0.03075729655415263</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009657879978466307</v>
+        <v>0.01004698778446861</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03190061838376831</v>
+        <v>0.04928811778575332</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009832945491678832</v>
+        <v>0.01002667976314119</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05195511164967465</v>
+        <v>0.01153479202996809</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01023174340057644</v>
+        <v>0.01029119726423716</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01020380883044739</v>
+        <v>0.01174867922892661</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01047693914773929</v>
+        <v>0.01092368385450943</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01153479202996809</v>
+        <v>0.03192528342003159</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01029119726423716</v>
+        <v>0.01081983299865851</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03292446934708659</v>
+        <v>0.05142905005679554</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01058932591411567</v>
+        <v>0.01079796282184436</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05406112334957386</v>
+        <v>0.01174867922892661</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01101880058523617</v>
+        <v>0.01092368385450943</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01281264906411019</v>
+        <v>0.01213729152138743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01122529194400638</v>
+        <v>0.01170394698697438</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01197208427040414</v>
+        <v>0.03287217742117932</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01114370766746112</v>
+        <v>0.0115926782128484</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03473010527142306</v>
+        <v>0.05243777802117405</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0113457063365525</v>
+        <v>0.01156924588054752</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0563612704792455</v>
+        <v>0.01213729152138743</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01180585776989589</v>
+        <v>0.01170394698697438</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.01242694658975142</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.01248421011943934</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01249382895028574</v>
+        <v>0.03359778975743313</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01188662151195853</v>
+        <v>0.01236552342703829</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03631180474945678</v>
+        <v>0.05471400749817962</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01210208675898933</v>
+        <v>0.01234052893925069</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05884295214227842</v>
+        <v>0.01242694658975142</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01259291495455562</v>
+        <v>0.01248421011943934</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0121355998672811</v>
+        <v>0.0130171217898194</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01272199753654056</v>
+        <v>0.0132644732519043</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01305762501892191</v>
+        <v>0.03450193162863069</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01262953535645594</v>
+        <v>0.01313836864122819</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0378638463738665</v>
+        <v>0.05595744430710292</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01285846718142617</v>
+        <v>0.01311181199795386</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06069356744226129</v>
+        <v>0.0130171217898194</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01337997213921535</v>
+        <v>0.0132644732519043</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01288278221361328</v>
+        <v>0.0132072944773923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01347035033280766</v>
+        <v>0.01404473638436926</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01355604084014717</v>
+        <v>0.03578441423460943</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01337244920095335</v>
+        <v>0.01391121385541808</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03918050873733109</v>
+        <v>0.05756779426723446</v>
       </c>
       <c r="M83" t="n">
-        <v>0.013614847603863</v>
+        <v>0.01388309505665703</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0633005154827827</v>
+        <v>0.0132072944773923</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01416702932387507</v>
+        <v>0.01404473638436926</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01368068643395676</v>
+        <v>0.01359694200827098</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01421870312907475</v>
+        <v>0.01482499951683422</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01438164477779599</v>
+        <v>0.0369450487752068</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01411536304545076</v>
+        <v>0.01468405906960797</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04065607043252945</v>
+        <v>0.059044763197865</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01437122802629983</v>
+        <v>0.01465437811536019</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06525119536743162</v>
+        <v>0.01359694200827098</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0149540865085348</v>
+        <v>0.01482499951683422</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01451799813702675</v>
+        <v>0.01418554173825635</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01496705592534184</v>
+        <v>0.01560526264929918</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01492700519570291</v>
+        <v>0.03758364645026038</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01485827688994817</v>
+        <v>0.01545690428379787</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04198481005214047</v>
+        <v>0.06008805691828506</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01512760844873667</v>
+        <v>0.01542566117406336</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0673330061997966</v>
+        <v>0.01418554173825635</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01574114369319453</v>
+        <v>0.01560526264929918</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01638340293153841</v>
+        <v>0.01437257102314929</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01571540872160893</v>
+        <v>0.01638552578176414</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01548469045770237</v>
+        <v>0.03830001845960759</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01560119073444557</v>
+        <v>0.01622974949798776</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04276100618884304</v>
+        <v>0.06169738124778545</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0158839888711735</v>
+        <v>0.01619694423276653</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06933334708346633</v>
+        <v>0.01437257102314929</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01652820087785425</v>
+        <v>0.01638552578176414</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01826558642620691</v>
+        <v>0.01475750721875066</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01646376151787602</v>
+        <v>0.0171657889142291</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01634726892762889</v>
+        <v>0.03929397600308596</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01634410457894298</v>
+        <v>0.01700259471217765</v>
       </c>
       <c r="L87" t="n">
-        <v>0.043978937435316</v>
+        <v>0.06347244200565666</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01664036929361034</v>
+        <v>0.0169682272914697</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07113961712202971</v>
+        <v>0.01475750721875066</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01731525806251398</v>
+        <v>0.0171657889142291</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01915323422974743</v>
+        <v>0.01513982768086136</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01721211431414311</v>
+        <v>0.01794605204669406</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01690730896931697</v>
+        <v>0.04016533028053298</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01708701842344039</v>
+        <v>0.01777543992636755</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04553288238423822</v>
+        <v>0.06421294501118946</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01739674971604717</v>
+        <v>0.01773951035017287</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07303921541907521</v>
+        <v>0.01513982768086136</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01810231524717371</v>
+        <v>0.01794605204669406</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01803503195087514</v>
+        <v>0.01561900976528231</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01796046711041021</v>
+        <v>0.01872631517915901</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0175573789466011</v>
+        <v>0.04111389249178621</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0178299322679378</v>
+        <v>0.01854828514055744</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04631711962828863</v>
+        <v>0.06541859608367445</v>
       </c>
       <c r="M89" t="n">
-        <v>0.018153130138484</v>
+        <v>0.01851079340887604</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07501954107819175</v>
+        <v>0.01561900976528231</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01888937243183343</v>
+        <v>0.01872631517915901</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02089966519830524</v>
+        <v>0.01609453082781433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0187088199066773</v>
+        <v>0.01950657831162397</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01819004722331578</v>
+        <v>0.04183947383668302</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01857284611243521</v>
+        <v>0.01932113035474733</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04732592776014607</v>
+        <v>0.06718910104240217</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01890951056092083</v>
+        <v>0.01928207646757921</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07636799320296789</v>
+        <v>0.01609453082781433</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01967642961649316</v>
+        <v>0.01950657831162397</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02073581958075286</v>
+        <v>0.01636586822425835</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01945717270294439</v>
+        <v>0.02028684144408893</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01879788216329548</v>
+        <v>0.04284188551506099</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01931575995693261</v>
+        <v>0.02009397556893723</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04865358537248943</v>
+        <v>0.06862416570666335</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01966589098335766</v>
+        <v>0.02005335952628237</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07747197089699259</v>
+        <v>0.01636586822425835</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02046348680115288</v>
+        <v>0.02028684144408893</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02153218070693321</v>
+        <v>0.01683249931041522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02020552549921148</v>
+        <v>0.02106710457655389</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0193734521303747</v>
+        <v>0.04332093872675763</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02005867380143002</v>
+        <v>0.02086682078312712</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04949437105799753</v>
+        <v>0.06972349589574872</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0204222714057945</v>
+        <v>0.02082464258498554</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07891887326385433</v>
+        <v>0.01683249931041522</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02125054398581261</v>
+        <v>0.02106710457655389</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02327743418556146</v>
+        <v>0.01719390144208587</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02095387829547857</v>
+        <v>0.02184736770901885</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01980932548838794</v>
+        <v>0.04437644467161039</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02080158764592743</v>
+        <v>0.02163966599731701</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04974256340934935</v>
+        <v>0.07078679742894878</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02117865182823133</v>
+        <v>0.02159592564368871</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07989609940714193</v>
+        <v>0.01719390144208587</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02203760117047233</v>
+        <v>0.02184736770901885</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02296026562535278</v>
+        <v>0.01744955197507116</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02170223109174567</v>
+        <v>0.02262763084148381</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02029807060116971</v>
+        <v>0.04530821454945674</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02154450149042484</v>
+        <v>0.02241251121150691</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0507924410192237</v>
+        <v>0.07151377612555421</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02193503225066817</v>
+        <v>0.02236720870239188</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08089104843044403</v>
+        <v>0.01744955197507116</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02282465835513206</v>
+        <v>0.02262763084148381</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02256936063502233</v>
+        <v>0.01789892826517195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02245058388801276</v>
+        <v>0.02340789397394877</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02093225583255451</v>
+        <v>0.04581605956013424</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02228741533492225</v>
+        <v>0.0231853564256968</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05113828248029942</v>
+        <v>0.07270413780485568</v>
       </c>
       <c r="M95" t="n">
-        <v>0.022691412673105</v>
+        <v>0.02313849176109505</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08199111943734944</v>
+        <v>0.01789892826517195</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02361171553979179</v>
+        <v>0.02340789397394877</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02509340482328531</v>
+        <v>0.01824150766818917</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02319893668427985</v>
+        <v>0.02418815710641373</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02110444954637679</v>
+        <v>0.04619979090348036</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02303032917941965</v>
+        <v>0.02395820163988669</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05187436638525544</v>
+        <v>0.07365758828614388</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02344779309554184</v>
+        <v>0.02390977481979821</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08188371153144691</v>
+        <v>0.01824150766818917</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02439877272445152</v>
+        <v>0.02418815710641373</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02452108379885689</v>
+        <v>0.01847676753992368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02394728948054694</v>
+        <v>0.02496842023887869</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02140722010647106</v>
+        <v>0.0471592197793326</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02377324302391706</v>
+        <v>0.02473104685407659</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05219497132677064</v>
+        <v>0.07447383338870922</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02420417351797867</v>
+        <v>0.02468105787850138</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08285622381632496</v>
+        <v>0.01847676753992368</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02518582990911124</v>
+        <v>0.02496842023887869</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02584108317045223</v>
+        <v>0.01890418523617637</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02469564227681403</v>
+        <v>0.02574868337134364</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02163313587667183</v>
+        <v>0.04789415738752845</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02451615686841447</v>
+        <v>0.02550389206826648</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0521943758975239</v>
+        <v>0.07625257893184278</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0249605539404155</v>
+        <v>0.02545234093720455</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08289014040452886</v>
+        <v>0.01890418523617637</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02597288709377097</v>
+        <v>0.02574868337134364</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0250420885467865</v>
+        <v>0.01902323811274813</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02544399507308112</v>
+        <v>0.02652894650380861</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0217747652208136</v>
+        <v>0.04820441492790536</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02525907071291188</v>
+        <v>0.02627673728245638</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05206685869019409</v>
+        <v>0.07719353073483476</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02571693436285234</v>
+        <v>0.02622362399590772</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08201075007795522</v>
+        <v>0.01902323811274813</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02675994427843069</v>
+        <v>0.02652894650380861</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02411278553657489</v>
+        <v>0.01933340352543982</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02619234786934822</v>
+        <v>0.02730920963627356</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02192467650273085</v>
+        <v>0.04918980360030095</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02600198455740929</v>
+        <v>0.02704958249664626</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05220153067505326</v>
+        <v>0.07749639461697599</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02647331478528916</v>
+        <v>0.02699490705461089</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08202972111705159</v>
+        <v>0.01933340352543982</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02754700146309042</v>
+        <v>0.02730920963627356</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02408010669293231</v>
+        <v>0.01963415883005236</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02694070066561531</v>
+        <v>0.02808947276873852</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02178730186837395</v>
+        <v>0.04965013460455261</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0267448984019067</v>
+        <v>0.02782242771083616</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05219880857121453</v>
+        <v>0.07866087639755714</v>
       </c>
       <c r="M101" t="n">
-        <v>0.027229695207726</v>
+        <v>0.02776619011331406</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0806865721412573</v>
+        <v>0.01963415883005236</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02833405864775015</v>
+        <v>0.02808947276873852</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02498533934287137</v>
+        <v>0.0199249813823866</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0276890534618824</v>
+        <v>0.02886973590120348</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02167872351310206</v>
+        <v>0.05018521914049787</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02748781224640411</v>
+        <v>0.02859527292502605</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05177272941122565</v>
+        <v>0.0792866818958689</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02798607563016284</v>
+        <v>0.02853747317201722</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0795208217700118</v>
+        <v>0.0199249813823866</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02912111583240987</v>
+        <v>0.02886973590120348</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02383602754189807</v>
+        <v>0.02030534853824346</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02843740625814949</v>
+        <v>0.02964999903366844</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02160809655459599</v>
+        <v>0.0507948684079742</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02823072609090152</v>
+        <v>0.02936811813921594</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05103735625295772</v>
+        <v>0.08047351693120175</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02874245605259966</v>
+        <v>0.02930875623072039</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07807198862275444</v>
+        <v>0.02030534853824346</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0299081730170696</v>
+        <v>0.02964999903366844</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02463970970708255</v>
+        <v>0.02047473765342381</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02918575905441658</v>
+        <v>0.0304302621661334</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02148457371971495</v>
+        <v>0.05097889360681912</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02897363993539892</v>
+        <v>0.03014096335340584</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05040675215428195</v>
+        <v>0.08122108732284644</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0294988364750365</v>
+        <v>0.03008003928942356</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07697959131892479</v>
+        <v>0.02047473765342381</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03069523020172933</v>
+        <v>0.0304302621661334</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.025403924255495</v>
+        <v>0.02073262608372851</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02993411185068368</v>
+        <v>0.03121052529859836</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02101730773531811</v>
+        <v>0.05133710593687013</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02971655377989633</v>
+        <v>0.03091380856759574</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05029498017306944</v>
+        <v>0.08172909889009355</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03025521689747334</v>
+        <v>0.03085132234812673</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0755831484779621</v>
+        <v>0.02073262608372851</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03148228738638905</v>
+        <v>0.03121052529859836</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02313620960420556</v>
+        <v>0.0210784911849585</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03068246464695077</v>
+        <v>0.03199078843106332</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02071545132826463</v>
+        <v>0.05206931659796474</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03045946762439374</v>
+        <v>0.03168665378178562</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0492161033671914</v>
+        <v>0.08219725745223377</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03101159731991017</v>
+        <v>0.0316226054068299</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07412217871930588</v>
+        <v>0.0210784911849585</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03226934457104878</v>
+        <v>0.03199078843106332</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02484410417028441</v>
+        <v>0.02141181031291461</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03143081744321786</v>
+        <v>0.03277105156352828</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02058815722541374</v>
+        <v>0.05217533678994041</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03120238146889115</v>
+        <v>0.03245949899597552</v>
       </c>
       <c r="L107" t="n">
-        <v>0.048384184794519</v>
+        <v>0.08262526882855781</v>
       </c>
       <c r="M107" t="n">
-        <v>0.031767977742347</v>
+        <v>0.03239388846553307</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07263620066239551</v>
+        <v>0.02141181031291461</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03305640175570851</v>
+        <v>0.03277105156352828</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02353514637080169</v>
+        <v>0.02143206082339774</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03217917023948495</v>
+        <v>0.03355131469599323</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02024457815362458</v>
+        <v>0.05275497771263463</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03194529531338856</v>
+        <v>0.03323234421016542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0478132875129233</v>
+        <v>0.08381283883835622</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03252435816478384</v>
+        <v>0.03316517152423624</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0712647329266704</v>
+        <v>0.02143206082339774</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03384345894036823</v>
+        <v>0.03355131469599323</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02221687462282757</v>
+        <v>0.02163872007220879</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03292752303575205</v>
+        <v>0.03433157782845819</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01969386683975634</v>
+        <v>0.05310805056588494</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03268820915788596</v>
+        <v>0.03400518942435531</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04701747458027555</v>
+        <v>0.08385967330091965</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03328073858722067</v>
+        <v>0.0339364545829394</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06974729413156988</v>
+        <v>0.02163872007220879</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03463051612502796</v>
+        <v>0.03433157782845819</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02389682734343222</v>
+        <v>0.02183126541514865</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03367587583201914</v>
+        <v>0.03511184096092315</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01934517601066819</v>
+        <v>0.0536343665495288</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03343112300238337</v>
+        <v>0.0347780346385452</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04611080905444687</v>
+        <v>0.08426547803553869</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0340371190096575</v>
+        <v>0.03470773764164257</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06812340289653357</v>
+        <v>0.02183126541514865</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03541757330968769</v>
+        <v>0.03511184096092315</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02158254294968578</v>
+        <v>0.02220917420801818</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03442422862828623</v>
+        <v>0.03589210409338811</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01900765839321934</v>
+        <v>0.05373373686340371</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03417403684688078</v>
+        <v>0.03555087985273509</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0453073539933084</v>
+        <v>0.08542995886150412</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03479349943209433</v>
+        <v>0.03547902070034574</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06703257784100058</v>
+        <v>0.02220917420801818</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03620463049434741</v>
+        <v>0.03589210409338811</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02328155985865844</v>
+        <v>0.02227192380661827</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03517258142455332</v>
+        <v>0.03667236722585307</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01869046671426895</v>
+        <v>0.05410597270734718</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03491695069137819</v>
+        <v>0.03632372506692499</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04472117245473134</v>
+        <v>0.0851528215981065</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03554987985453117</v>
+        <v>0.0362503037590489</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06591433758441062</v>
+        <v>0.02227192380661827</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03699168767900714</v>
+        <v>0.03667236722585307</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02100141648742033</v>
+        <v>0.02241899156674983</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03592093422082041</v>
+        <v>0.03745263035831803</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01840275370067621</v>
+        <v>0.05425088528119668</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03565986453587559</v>
+        <v>0.03709657028111488</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04386632749658687</v>
+        <v>0.08553377206463653</v>
       </c>
       <c r="M113" t="n">
-        <v>0.036306260276968</v>
+        <v>0.03702158681775208</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06450820074620289</v>
+        <v>0.02241899156674983</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03777874486366686</v>
+        <v>0.03745263035831803</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02274965125304163</v>
+        <v>0.02254985484421369</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03666928701708751</v>
+        <v>0.03823289349078299</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01835367207930029</v>
+        <v>0.05426828578478973</v>
       </c>
       <c r="K114" t="n">
-        <v>0.036402778380373</v>
+        <v>0.03786941549530477</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04305688217674603</v>
+        <v>0.08577251608038472</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03706264069940483</v>
+        <v>0.03779286987645524</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06425368594581693</v>
+        <v>0.02254985484421369</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03856580204832658</v>
+        <v>0.03823289349078299</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0205338025725925</v>
+        <v>0.02256399099481081</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03741763981335459</v>
+        <v>0.03901315662324795</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01795237457700037</v>
+        <v>0.05455798541796386</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03714569222487041</v>
+        <v>0.03864226070949467</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04270689955308005</v>
+        <v>0.08676875946464185</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03781902112184167</v>
+        <v>0.03856415293515841</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06379031180269207</v>
+        <v>0.02256399099481081</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03935285923298631</v>
+        <v>0.03901315662324795</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02236140886314309</v>
+        <v>0.022760877374342</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03816599260962169</v>
+        <v>0.03979341975571291</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01790801392063565</v>
+        <v>0.05501979538055651</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03788860606936782</v>
+        <v>0.03941510592368456</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04193044268346011</v>
+        <v>0.08682220803669843</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0385754015442785</v>
+        <v>0.03933543599386158</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06373962511730186</v>
+        <v>0.022760877374342</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04013991641764604</v>
+        <v>0.03979341975571291</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02124000854176356</v>
+        <v>0.02283999133860819</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03891434540588878</v>
+        <v>0.04057368288817786</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0178297428370653</v>
+        <v>0.05505352687240514</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03863151991386523</v>
+        <v>0.04018795113787445</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04164157462575735</v>
+        <v>0.08693256761584528</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03933178196671533</v>
+        <v>0.04010671905256474</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06406118215072376</v>
+        <v>0.02283999133860819</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04092697360230577</v>
+        <v>0.04057368288817786</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0201771400255241</v>
+        <v>0.02290081024341027</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03966269820215587</v>
+        <v>0.04135394602064282</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01792173099648291</v>
+        <v>0.05485899109334735</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03937443375836264</v>
+        <v>0.04096079635206434</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04125435843784289</v>
+        <v>0.08669954402137303</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04008816238915217</v>
+        <v>0.04087800211126792</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0637099776552677</v>
+        <v>0.02290081024341027</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04171403078696549</v>
+        <v>0.04135394602064282</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02017463488827038</v>
+        <v>0.0229428114445491</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04041105099842296</v>
+        <v>0.04213420915310778</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01795343833584362</v>
+        <v>0.05523599924322059</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04011734760286004</v>
+        <v>0.04173364156625424</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04098285717758793</v>
+        <v>0.08692284307257214</v>
       </c>
       <c r="M119" t="n">
-        <v>0.040844542811589</v>
+        <v>0.04164928516997108</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06387777573591658</v>
+        <v>0.0229428114445491</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04250108797162522</v>
+        <v>0.04213420915310778</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02020707253187155</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04115940379469005</v>
+        <v>0.04291447228557274</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01781612622949225</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04086026144735746</v>
+        <v>0.04250648678044413</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04084113390286359</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04160092323402584</v>
+        <v>0.04242056822867425</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06485634049765349</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04328814515628494</v>
+        <v>0.04291447228557274</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02226857620267447</v>
+        <v>0.0229691948045907</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04190775659095715</v>
+        <v>0.0436947354180377</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01810750814313021</v>
+        <v>0.05510389212911004</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04160317529185486</v>
+        <v>0.04327933199463403</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0408366056027652</v>
+        <v>0.08753723238914735</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04235730365646267</v>
+        <v>0.04319185128737742</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06533743604546172</v>
+        <v>0.0229691948045907</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04407520234094467</v>
+        <v>0.0436947354180377</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02235702405442378</v>
+        <v>0.02306408035165178</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04265610938722424</v>
+        <v>0.04447499855050266</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01802529754245891</v>
+        <v>0.0552014279217411</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04234608913635227</v>
+        <v>0.04405217720882392</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04063706177938825</v>
+        <v>0.08703250596345846</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0431136840788995</v>
+        <v>0.04396313434608059</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06611282648432404</v>
+        <v>0.02306408035165178</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04486225952560439</v>
+        <v>0.04447499855050266</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02247029424086418</v>
+        <v>0.02285315809120142</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04340446218349133</v>
+        <v>0.04525526168296762</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01836720789317979</v>
+        <v>0.05519021795913673</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04308900298084967</v>
+        <v>0.04482502242301381</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04113029682533217</v>
+        <v>0.08750144573689722</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04387006450133633</v>
+        <v>0.04473441740478376</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06717427591922376</v>
+        <v>0.02285315809120142</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04564931671026412</v>
+        <v>0.04525526168296762</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02260626491574031</v>
+        <v>0.02293658482624343</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04415281497975843</v>
+        <v>0.04603552481543258</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01853095266099425</v>
+        <v>0.05487070435925254</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04383191682534709</v>
+        <v>0.04559786763720371</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0410093933941518</v>
+        <v>0.08724552569798827</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04462644492377316</v>
+        <v>0.04550570046348693</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0675135484551439</v>
+        <v>0.02293658482624343</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04643637389492385</v>
+        <v>0.04603552481543258</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02076281423279681</v>
+        <v>0.02281451735978157</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04490116777602551</v>
+        <v>0.04681578794789754</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01861424531160372</v>
+        <v>0.05494301939910617</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0445748306698445</v>
+        <v>0.0463707128513936</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04166743413940216</v>
+        <v>0.0874654554414811</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04538282534621</v>
+        <v>0.0462769835221901</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0685224081970674</v>
+        <v>0.02281451735978157</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04722343107958358</v>
+        <v>0.04681578794789754</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02293782034577834</v>
+        <v>0.02278711249481968</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04564952057229261</v>
+        <v>0.04759605108036249</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01881479931070962</v>
+        <v>0.05500729535571541</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0453177445143419</v>
+        <v>0.04714355806558349</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04179750171463814</v>
+        <v>0.08696194456212503</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04613920576864684</v>
+        <v>0.04704826658089326</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06959261924997751</v>
+        <v>0.02278711249481968</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0480104882642433</v>
+        <v>0.04759605108036249</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02112916140842958</v>
+        <v>0.02285452703436157</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0463978733685597</v>
+        <v>0.04837631421282745</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01893032812401337</v>
+        <v>0.05506366450609793</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04606065835883931</v>
+        <v>0.04791640327977339</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04229267877341475</v>
+        <v>0.0873357026546695</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04689558619108367</v>
+        <v>0.04781954963959643</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07021594571885731</v>
+        <v>0.02285452703436157</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04879754544890303</v>
+        <v>0.04837631421282745</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02133471557449517</v>
+        <v>0.022816917781411</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0471462261648268</v>
+        <v>0.04915657734529241</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01935854521721637</v>
+        <v>0.05501225912727148</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04680357220333672</v>
+        <v>0.04868924849396328</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04324604796928691</v>
+        <v>0.08668743931386397</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0476519666135205</v>
+        <v>0.0485908326982996</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07138415170868978</v>
+        <v>0.022816917781411</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04958460263356276</v>
+        <v>0.04915657734529241</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02255236099771975</v>
+        <v>0.02267444153897177</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04789457896109389</v>
+        <v>0.04993684047775737</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01939716405602007</v>
+        <v>0.0546532114962538</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04754648604783412</v>
+        <v>0.04946209370815317</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04365069195580951</v>
+        <v>0.08701786413445772</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04840834703595733</v>
+        <v>0.04936211575700276</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07288900132445802</v>
+        <v>0.02267444153897177</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05037165981822248</v>
+        <v>0.04993684047775737</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02277997583184801</v>
+        <v>0.02282725511004775</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04864293175736097</v>
+        <v>0.05071710361022233</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0197438981061259</v>
+        <v>0.05458665389006259</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04828939989233154</v>
+        <v>0.05023493892234307</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04439969338653754</v>
+        <v>0.08612768671120014</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04916472745839417</v>
+        <v>0.05013339881570594</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07352225867114509</v>
+        <v>0.02282725511004775</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05115871700288221</v>
+        <v>0.05071710361022233</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02201543823062457</v>
+        <v>0.02267551529764265</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04939128455362807</v>
+        <v>0.05149736674268729</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02009646083323523</v>
+        <v>0.0550127185857156</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04903231373682895</v>
+        <v>0.05100778413653296</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04498613491502598</v>
+        <v>0.08591761663884062</v>
       </c>
       <c r="M131" t="n">
-        <v>0.049921107880831</v>
+        <v>0.0509046818744091</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07527568785373412</v>
+        <v>0.02267551529764265</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05194577418754193</v>
+        <v>0.05149736674268729</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02225662634779409</v>
+        <v>0.02271937890476035</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05013963734989516</v>
+        <v>0.05227762987515225</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0201525657030495</v>
+        <v>0.05443153786023053</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04977522758132635</v>
+        <v>0.05178062935072286</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04560309919482972</v>
+        <v>0.08618836351212866</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05067748830326783</v>
+        <v>0.05167596493311227</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07584105297720817</v>
+        <v>0.02271937890476035</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05273283137220166</v>
+        <v>0.05227762987515225</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02250141833710127</v>
+        <v>0.0225590027344046</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05088799014616225</v>
+        <v>0.05305789300761721</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02040992618127013</v>
+        <v>0.0543432439906251</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05051814142582376</v>
+        <v>0.05255347456491275</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04664366887950369</v>
+        <v>0.08564063692581347</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05143386872570467</v>
+        <v>0.05244724799181544</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07701011814655029</v>
+        <v>0.0225590027344046</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05351988855686138</v>
+        <v>0.05305789300761721</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0227476923522907</v>
+        <v>0.02239454358957922</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05163634294242934</v>
+        <v>0.05383815614008217</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02076625573359857</v>
+        <v>0.05474796925391706</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05126105527032117</v>
+        <v>0.05332631977910265</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04710092662260287</v>
+        <v>0.08577514647464463</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0521902491481415</v>
+        <v>0.05321853105051861</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07847464746674354</v>
+        <v>0.02239454358957922</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05430694574152111</v>
+        <v>0.05383815614008217</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0249933265471071</v>
+        <v>0.02242615827328803</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05238469573869644</v>
+        <v>0.05461841927254713</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02101926782573621</v>
+        <v>0.05454584592712411</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05200396911481858</v>
+        <v>0.05409916499329253</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04796795507768223</v>
+        <v>0.08549260175337137</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05294662957057833</v>
+        <v>0.05398981410922177</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08002640504277114</v>
+        <v>0.02242615827328803</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05509400292618084</v>
+        <v>0.05461841927254713</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02423619907529507</v>
+        <v>0.02235400358853479</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05313304853496353</v>
+        <v>0.05539868240501209</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02136667592338445</v>
+        <v>0.05433700628726398</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05274688295931598</v>
+        <v>0.05487201020748243</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04893783689829664</v>
+        <v>0.08529371235674321</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05370300999301517</v>
+        <v>0.05476109716792495</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08115715497961601</v>
+        <v>0.02235400358853479</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05588106011084056</v>
+        <v>0.05539868240501209</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02347418809059931</v>
+        <v>0.02217823633832333</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05388140133123062</v>
+        <v>0.05617894553747704</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02140619349224475</v>
+        <v>0.05392158261135443</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05348979680381339</v>
+        <v>0.05564485542167232</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0496036547380011</v>
+        <v>0.08497918787950942</v>
       </c>
       <c r="M137" t="n">
-        <v>0.054459390415452</v>
+        <v>0.05553238022662811</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08225866138226123</v>
+        <v>0.02217823633832333</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05666811729550029</v>
+        <v>0.05617894553747704</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02370517174676443</v>
+        <v>0.02219901332565744</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05462975412749772</v>
+        <v>0.05695920866994199</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02163553399801851</v>
+        <v>0.05379970717641311</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0542327106483108</v>
+        <v>0.05641770063586221</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05005849125035056</v>
+        <v>0.08444973791641958</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05521577083788883</v>
+        <v>0.05630366328533128</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08272268835569002</v>
+        <v>0.02219901332565744</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05745517448016001</v>
+        <v>0.05695920866994199</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02392702819753512</v>
+        <v>0.02211649135354093</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0553781069237648</v>
+        <v>0.05773947180240696</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02205241090640717</v>
+        <v>0.05417151225945782</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05497562449280821</v>
+        <v>0.05719054585005211</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05099542908889995</v>
+        <v>0.08410607206222281</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05597215126032568</v>
+        <v>0.05707494634403445</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08364100000488539</v>
+        <v>0.02211649135354093</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05824223166481975</v>
+        <v>0.05773947180240696</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02413763559665603</v>
+        <v>0.02193082722497759</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05612645972003189</v>
+        <v>0.05851973493487192</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02205453768311212</v>
+        <v>0.05383713013750627</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05571853833730561</v>
+        <v>0.057963391064242</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05190755090720417</v>
+        <v>0.08394889991166865</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0567285316827625</v>
+        <v>0.05784622940273762</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08480536043483028</v>
+        <v>0.02193082722497759</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05902928884947947</v>
+        <v>0.05851973493487192</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02533487209787182</v>
+        <v>0.02194217774297125</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05687481251629899</v>
+        <v>0.05929999806733687</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0222396277938348</v>
+        <v>0.05379669308757615</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05646145218180303</v>
+        <v>0.05873623627843189</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05268793935881821</v>
+        <v>0.08327893105950657</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05748491210519933</v>
+        <v>0.05861751246144078</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08560753375050795</v>
+        <v>0.02194217774297125</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0598163460341392</v>
+        <v>0.05929999806733687</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02451661585492714</v>
+        <v>0.02175069971052566</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05762316531256608</v>
+        <v>0.06008026119980184</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02260539470427661</v>
+        <v>0.05335033338668518</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05720436602630043</v>
+        <v>0.05950908149262178</v>
       </c>
       <c r="L142" t="n">
-        <v>0.052829677097297</v>
+        <v>0.08249687510048581</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05824129252763617</v>
+        <v>0.05938879552014396</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08643928405690143</v>
+        <v>0.02175069971052566</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06060340321879892</v>
+        <v>0.06008026119980184</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02668074502156664</v>
+        <v>0.02175654993064469</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05837151810883317</v>
+        <v>0.0608605243322668</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02264955188013898</v>
+        <v>0.05359818331185112</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05794727987079784</v>
+        <v>0.06028192670681168</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0539258467761955</v>
+        <v>0.08230344162935588</v>
       </c>
       <c r="M143" t="n">
-        <v>0.058997672950073</v>
+        <v>0.06016007857884711</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08773907852637669</v>
+        <v>0.02175654993064469</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06139046040345866</v>
+        <v>0.0608605243322668</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02682513775153498</v>
+        <v>0.02155988520633206</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05911987090510026</v>
+        <v>0.06164078746473176</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02276981278712335</v>
+        <v>0.05304037514009169</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05869019371529525</v>
+        <v>0.06105477192100157</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05406953104906861</v>
+        <v>0.08199934024086603</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05975405337250983</v>
+        <v>0.06093136163755029</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08772727839026573</v>
+        <v>0.02155988520633206</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06217751758811838</v>
+        <v>0.06164078746473176</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02594767219857682</v>
+        <v>0.02146086234059164</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05986822370136736</v>
+        <v>0.06242105059719671</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0228638908909311</v>
+        <v>0.05317704114842461</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05943310755979266</v>
+        <v>0.06182761713519147</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05485381256947139</v>
+        <v>0.08188528052976585</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06051043379494667</v>
+        <v>0.06170264469625345</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08858826749291765</v>
+        <v>0.02146086234059164</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0629645747727781</v>
+        <v>0.06242105059719671</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0270462265164368</v>
+        <v>0.02145963813642721</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06061657649763444</v>
+        <v>0.06320131372966167</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02302949965726368</v>
+        <v>0.05310831361386759</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06017602140429007</v>
+        <v>0.06260046234938135</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05540433129315644</v>
+        <v>0.08146197209080447</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0612668142173835</v>
+        <v>0.06247392775495662</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08997099832177352</v>
+        <v>0.02145963813642721</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06375163195743783</v>
+        <v>0.06320131372966167</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.02135636939684254</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06136492929390153</v>
+        <v>0.06398157686212663</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02306958405993619</v>
+        <v>0.05253432481343834</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06091893524878747</v>
+        <v>0.06337330756357125</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05545133669436123</v>
+        <v>0.08073012451873152</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06202319463982033</v>
+        <v>0.0632452108136598</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09037079846247381</v>
+        <v>0.02135636939684254</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06453868914209755</v>
+        <v>0.06398157686212663</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02617820234876029</v>
+        <v>0.02115121292484148</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06211328209016863</v>
+        <v>0.06476183999459159</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02296896248966344</v>
+        <v>0.05245520702415468</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06166184909328489</v>
+        <v>0.06414615277776115</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05563684318314424</v>
+        <v>0.08029044740829622</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06277957506225718</v>
+        <v>0.06401649387236297</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09158299550065896</v>
+        <v>0.02115121292484148</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06532574632675728</v>
+        <v>0.06476183999459159</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0272368483114788</v>
+        <v>0.02104432552342782</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06286163488643573</v>
+        <v>0.06554210312705655</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0229631209463757</v>
+        <v>0.05227109252303422</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06240476293778229</v>
+        <v>0.06491899799195104</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05602664048798126</v>
+        <v>0.07964365035424814</v>
       </c>
       <c r="M149" t="n">
-        <v>0.063535955484694</v>
+        <v>0.06478777693106613</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09210291702196916</v>
+        <v>0.02104432552342782</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06611280351141702</v>
+        <v>0.06554210312705655</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02729460257085272</v>
+        <v>0.02103586399560532</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0636099876827028</v>
+        <v>0.06632236625952151</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02305137133032938</v>
+        <v>0.05188211358709471</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0631476767822797</v>
+        <v>0.06569184320614094</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05661877466565818</v>
+        <v>0.07929044295133653</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06429233590713083</v>
+        <v>0.0655590599897693</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09272589061204506</v>
+        <v>0.02103586399560532</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06689986069607673</v>
+        <v>0.06632236625952151</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02735142403554578</v>
+        <v>0.02082598514437785</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06435834047896991</v>
+        <v>0.06710262939198647</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0229340128353472</v>
+        <v>0.0519884024933539</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06389059062677711</v>
+        <v>0.06646468842033083</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0571112917729609</v>
+        <v>0.07933153479431077</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06504871632956767</v>
+        <v>0.06633034304847248</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09354724385652685</v>
+        <v>0.02082598514437785</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06768691788073647</v>
+        <v>0.06710262939198647</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02640727161422173</v>
+        <v>0.02081484577274914</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06510669327523699</v>
+        <v>0.06788289252445143</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02291134465525196</v>
+        <v>0.05149009151882952</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06463350447127451</v>
+        <v>0.06723753363452072</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05760223786667543</v>
+        <v>0.07826763547792037</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06580509675200449</v>
+        <v>0.06710162610717563</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09466230434105494</v>
+        <v>0.02081484577274914</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06847397506539618</v>
+        <v>0.06788289252445143</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0274621042155443</v>
+        <v>0.02080260268372305</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06585504607150409</v>
+        <v>0.06866315565691639</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02298366598386646</v>
+        <v>0.05128731294053926</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06537641831577193</v>
+        <v>0.06801037884871061</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05758965900358767</v>
+        <v>0.07799945459691449</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06656147717444134</v>
+        <v>0.06787290916587881</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09546639965126985</v>
+        <v>0.02080260268372305</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06926103225005592</v>
+        <v>0.06866315565691639</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0275158807481772</v>
+        <v>0.02058941268030334</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06660339886777118</v>
+        <v>0.06944341878938134</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02275127601501345</v>
+        <v>0.05128019903550088</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06611933216026933</v>
+        <v>0.06878322406290051</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05797160124048359</v>
+        <v>0.07762770174604278</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06731785759687817</v>
+        <v>0.06864419222458197</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09595485737281184</v>
+        <v>0.02058941268030334</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07004808943471563</v>
+        <v>0.06944341878938134</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02556856012078421</v>
+        <v>0.02037543256549383</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06735175166403827</v>
+        <v>0.0702236819218463</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02291447394251574</v>
+        <v>0.05106888208073213</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06686224600476674</v>
+        <v>0.0695560692770904</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05884611063414907</v>
+        <v>0.0769530865200545</v>
       </c>
       <c r="M155" t="n">
-        <v>0.068074238019315</v>
+        <v>0.06941547528328514</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09732300509132136</v>
+        <v>0.02037543256549383</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07083514661937537</v>
+        <v>0.0702236819218463</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02562010124202906</v>
+        <v>0.02026081914229833</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06810010446030537</v>
+        <v>0.07100394505431126</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02267355896019609</v>
+        <v>0.05075349435325061</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06760515984926414</v>
+        <v>0.0703289144912803</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05871123324137012</v>
+        <v>0.0761763185136991</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06883061844175184</v>
+        <v>0.0701867583419883</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09746617039243877</v>
+        <v>0.02026081914229833</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0716222038040351</v>
+        <v>0.07100394505431126</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02767046302057547</v>
+        <v>0.02034572921372065</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06884845725657246</v>
+        <v>0.07178420818677622</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02262883026187729</v>
+        <v>0.0507341681300742</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06834807369376156</v>
+        <v>0.07110175970547018</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05906501511893267</v>
+        <v>0.07589810732172597</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06958699886418866</v>
+        <v>0.07095804140069148</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09877968086180444</v>
+        <v>0.02034572921372065</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07240926098869482</v>
+        <v>0.07178420818677622</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02671960436508718</v>
+        <v>0.02003031958276452</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06959681005283955</v>
+        <v>0.07256447131924118</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02278058704138211</v>
+        <v>0.05061103568822051</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06909098753825897</v>
+        <v>0.07187460491966008</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05940550232362257</v>
+        <v>0.07551916253888441</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0703433792866255</v>
+        <v>0.07172932445939464</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0992588640850588</v>
+        <v>0.02003031958276452</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07319631817335455</v>
+        <v>0.07256447131924118</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02776748418422793</v>
+        <v>0.02001474705243383</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07034516284910663</v>
+        <v>0.07334473445170614</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02272912849253335</v>
+        <v>0.05028422930470733</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06983390138275637</v>
+        <v>0.07264745013384998</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06023074091222588</v>
+        <v>0.07514019375992387</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07109975970906234</v>
+        <v>0.07250060751809781</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09989904764784224</v>
+        <v>0.02001474705243383</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07398337535801428</v>
+        <v>0.07334473445170614</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02681406138666146</v>
+        <v>0.01999916842573234</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07109351564537374</v>
+        <v>0.0741249975841711</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02247475380915376</v>
+        <v>0.04985388125655235</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07057681522725379</v>
+        <v>0.07342029534803987</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0601387769415285</v>
+        <v>0.07476191057959375</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07185614013149917</v>
+        <v>0.07327189057680097</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1003955591357951</v>
+        <v>0.01999916842573234</v>
       </c>
       <c r="O160" t="n">
-        <v>0.074770432542674</v>
+        <v>0.0741249975841711</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02785929488105151</v>
+        <v>0.01988374050566385</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07184186844164082</v>
+        <v>0.07490526071663606</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02251776218506615</v>
+        <v>0.0498201238207733</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07131972907175119</v>
+        <v>0.07419314056222977</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0604276564683163</v>
+        <v>0.07428502259264341</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07261252055393599</v>
+        <v>0.07404317363550415</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1012437261345578</v>
+        <v>0.01988374050566385</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07555748972733371</v>
+        <v>0.07490526071663606</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02790314357606181</v>
+        <v>0.01956862009523218</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07259022123790791</v>
+        <v>0.07568552384910102</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0225584528140933</v>
+        <v>0.04938308927438789</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0720626429162486</v>
+        <v>0.07496598577641966</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06089542554937533</v>
+        <v>0.07379875405857689</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07336890097637283</v>
+        <v>0.07481445669420732</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1017388762297707</v>
+        <v>0.01956862009523218</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07634454691199345</v>
+        <v>0.07568552384910102</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02594556638035609</v>
+        <v>0.01945396399744111</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07333857403417501</v>
+        <v>0.07646578698156598</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02239712489005798</v>
+        <v>0.04924290989441393</v>
       </c>
       <c r="K163" t="n">
-        <v>0.072805556760746</v>
+        <v>0.07573883099060955</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06134013024149143</v>
+        <v>0.0732819453816721</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07412528139880967</v>
+        <v>0.07558573975291048</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1014763370070744</v>
+        <v>0.01945396399744111</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07713160409665316</v>
+        <v>0.07646578698156598</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02798652220259808</v>
+        <v>0.01933992901529447</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0740869268304421</v>
+        <v>0.07724605011403093</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02243407760678295</v>
+        <v>0.04919971795786904</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07354847060524342</v>
+        <v>0.07651167620479944</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06125981660145061</v>
+        <v>0.07273512348808098</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0748816618212465</v>
+        <v>0.07635702281161366</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1025514360521089</v>
+        <v>0.01933992901529447</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0779186612813129</v>
+        <v>0.07724605011403093</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02602596995145155</v>
+        <v>0.01942667195179602</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07483527962670919</v>
+        <v>0.07802631324649589</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02226961015809102</v>
+        <v>0.04875364574177102</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07429138444974083</v>
+        <v>0.07728452141898934</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06135253068603877</v>
+        <v>0.07185936565695783</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07563804224368334</v>
+        <v>0.07712830587031683</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1024595009505149</v>
+        <v>0.01942667195179602</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07870571846597263</v>
+        <v>0.07802631324649589</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0280638685355802</v>
+        <v>0.0193143496099496</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07558363242297628</v>
+        <v>0.07880657637896085</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02210402173780496</v>
+        <v>0.04840482552313752</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07503429829423823</v>
+        <v>0.07805736663317923</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06171631855204188</v>
+        <v>0.07135574916745713</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07639442266612016</v>
+        <v>0.07789958892901999</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1027958592879327</v>
+        <v>0.0193143496099496</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07949277565063236</v>
+        <v>0.07880657637896085</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02710017686364779</v>
+        <v>0.01910311879275899</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07633198521924338</v>
+        <v>0.07958683951142581</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02213761153974755</v>
+        <v>0.04815338957898629</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07577721213873563</v>
+        <v>0.07883021184736912</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06154922625624587</v>
+        <v>0.07092535129873329</v>
       </c>
       <c r="M167" t="n">
-        <v>0.077150803088557</v>
+        <v>0.07867087198772316</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1030558386500026</v>
+        <v>0.01910311879275899</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08027983283529208</v>
+        <v>0.07958683951142581</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02813485384431807</v>
+        <v>0.01899313630322798</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07708033801551047</v>
+        <v>0.08036710264389077</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02207067875774157</v>
+        <v>0.04809947018633509</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07652012598323306</v>
+        <v>0.07960305706155901</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06164929985543666</v>
+        <v>0.07056924932994074</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07790718351099384</v>
+        <v>0.07944215504642634</v>
       </c>
       <c r="N168" t="n">
-        <v>0.102534766622365</v>
+        <v>0.01899313630322798</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08106689001995181</v>
+        <v>0.08036710264389077</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02816785838625473</v>
+        <v>0.01878455894436039</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07782869081177755</v>
+        <v>0.08114736577635573</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02200352258560982</v>
+        <v>0.04754319962220166</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07726303982773046</v>
+        <v>0.08037590227574891</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06201458540640015</v>
+        <v>0.0695885205402339</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07866356393343066</v>
+        <v>0.08021343810512949</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1028183978625414</v>
+        <v>0.01878455894436039</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08185394720461153</v>
+        <v>0.08114736577635573</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02719914939812153</v>
+        <v>0.01887754351916006</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07857704360804466</v>
+        <v>0.08192762890882069</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02203644221717505</v>
+        <v>0.04728471016360361</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07800595367222786</v>
+        <v>0.08114874748993879</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06184312896592239</v>
+        <v>0.06858424220876735</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07941994435586751</v>
+        <v>0.08098472116383267</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1026644328991467</v>
+        <v>0.01887754351916006</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08264100438927126</v>
+        <v>0.08192762890882069</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02622868578858224</v>
+        <v>0.01867224683063071</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07932539640431174</v>
+        <v>0.08270789204128565</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02186973684626006</v>
+        <v>0.04702413408755879</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07874886751672527</v>
+        <v>0.08192159270412869</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06202691581289388</v>
+        <v>0.06805749161469532</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08017632477830433</v>
+        <v>0.08175600422253583</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1026757827768563</v>
+        <v>0.01867224683063071</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08342806157393098</v>
+        <v>0.08270789204128565</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02825642646630055</v>
+        <v>0.0185686186783091</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08007374920057884</v>
+        <v>0.08348815517375061</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02190370566668762</v>
+        <v>0.04686160367108486</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07949178136122269</v>
+        <v>0.08269443791831858</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06175208773867577</v>
+        <v>0.06700934603717223</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08093270520074117</v>
+        <v>0.082527287281239</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1023609809309118</v>
+        <v>0.0185686186783091</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08421511875859071</v>
+        <v>0.08348815517375061</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0262823303399402</v>
+        <v>0.01856515635358316</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08082210199684592</v>
+        <v>0.08426841830621556</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02163864787228049</v>
+        <v>0.04659725119119956</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08023469520572009</v>
+        <v>0.08346728313250848</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06152114296579594</v>
+        <v>0.06664088275535263</v>
       </c>
       <c r="M173" t="n">
-        <v>0.081689085623178</v>
+        <v>0.08329857033994216</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1016285607965549</v>
+        <v>0.01856515635358316</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08500217594325044</v>
+        <v>0.08426841830621556</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02730635631816496</v>
+        <v>0.01846142341572139</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08157045479311302</v>
+        <v>0.08504868143868052</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02177486265686152</v>
+        <v>0.04623120892492064</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08097760905021749</v>
+        <v>0.08424012834669836</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06183726599875955</v>
+        <v>0.06605317904839086</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08244546604561483</v>
+        <v>0.08406985339864534</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1012870558090272</v>
+        <v>0.01846142341572139</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08578923312791016</v>
+        <v>0.08504868143868052</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02632846330963854</v>
+        <v>0.01815728994460331</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08231880758938011</v>
+        <v>0.08582894457114548</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02171264921425342</v>
+        <v>0.04616360914926576</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08172052289471492</v>
+        <v>0.08501297356088826</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06120364134207182</v>
+        <v>0.06524731219544144</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08320184646805168</v>
+        <v>0.0848411364573485</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1004449994035704</v>
+        <v>0.01815728994460331</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08657629031256989</v>
+        <v>0.08582894457114548</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02734861022302468</v>
+        <v>0.0182526260201084</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08306716038564721</v>
+        <v>0.08660920770361044</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02155230673827899</v>
+        <v>0.04568679176646998</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08246343673921232</v>
+        <v>0.08578581877507815</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06092345350023806</v>
+        <v>0.06432435947565868</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0839582268904885</v>
+        <v>0.08561241951605167</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09901092501542597</v>
+        <v>0.0182526260201084</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08736334749722963</v>
+        <v>0.08660920770361044</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02636675596698711</v>
+        <v>0.01804730172211613</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0838155131819143</v>
+        <v>0.0873894708360754</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02149413442276103</v>
+        <v>0.04557413935221744</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08320635058370972</v>
+        <v>0.08655866398926805</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06059988697776345</v>
+        <v>0.06298539816819709</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08471460731292534</v>
+        <v>0.08638370257475485</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09829336607983552</v>
+        <v>0.01804730172211613</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08815040468188934</v>
+        <v>0.0873894708360754</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0283828594501896</v>
+        <v>0.01804118713050604</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08456386597818139</v>
+        <v>0.08816973396854036</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0214384314615223</v>
+        <v>0.04502586375842735</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08394926442820713</v>
+        <v>0.08733150920345795</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06053612627915325</v>
+        <v>0.06243150555221105</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08547098773536217</v>
+        <v>0.08715498563345801</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09740085603204068</v>
+        <v>0.01804118713050604</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08893746186654908</v>
+        <v>0.08816973396854036</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02839687958129585</v>
+        <v>0.01793415232515756</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08531221877444849</v>
+        <v>0.08894999710100532</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02138549704838559</v>
+        <v>0.04464472984774379</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08469217827270455</v>
+        <v>0.08810435441764784</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06003535590891265</v>
+        <v>0.06196375890685502</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08622736815779901</v>
+        <v>0.08792626869216118</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09614192830728324</v>
+        <v>0.01793415232515756</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08972451905120879</v>
+        <v>0.08894999710100532</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02740877526896963</v>
+        <v>0.01762606738595023</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08606057157071556</v>
+        <v>0.08973026023347028</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02133563037717368</v>
+        <v>0.04443350248281094</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08543509211720195</v>
+        <v>0.08887719963183772</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0594007603715469</v>
+        <v>0.0603832355112835</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08698374858023583</v>
+        <v>0.08869755175086434</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09522511634080455</v>
+        <v>0.01762606738595023</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09051157623586853</v>
+        <v>0.08973026023347028</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02741850542187464</v>
+        <v>0.01751680239276353</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08680892436698266</v>
+        <v>0.09051052336593524</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02118885072452865</v>
+        <v>0.04429494652627283</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08617800596169935</v>
+        <v>0.08965004484602762</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05913552417156126</v>
+        <v>0.05959101264465072</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08774012900267267</v>
+        <v>0.08946883480956752</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09445895356784639</v>
+        <v>0.01751680239276353</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09129863342052824</v>
+        <v>0.09051052336593524</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02642602894867462</v>
+        <v>0.01740622742547693</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08755727716324975</v>
+        <v>0.09129078649840019</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02114347850460782</v>
+        <v>0.04383182684077364</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08692091980619676</v>
+        <v>0.09042289006021752</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05864283181346092</v>
+        <v>0.05928816758611127</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0884965094251095</v>
+        <v>0.09024011786827069</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09325197342365033</v>
+        <v>0.01740622742547693</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09208569060518798</v>
+        <v>0.09129078649840019</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02743130475803334</v>
+        <v>0.01749421256396994</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08830562995951685</v>
+        <v>0.09207104963086515</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02129911104117674</v>
+        <v>0.04294690828895739</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08766383365069418</v>
+        <v>0.09119573527440741</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05792586780175113</v>
+        <v>0.05827577761481945</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08925288984754633</v>
+        <v>0.09101140092697385</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09201270934345795</v>
+        <v>0.01749421256396994</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09287274778984771</v>
+        <v>0.09207104963086515</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02743429175861452</v>
+        <v>0.01718062788812205</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08905398275578394</v>
+        <v>0.09285131276333011</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02105566279657616</v>
+        <v>0.04254295573346828</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08840674749519158</v>
+        <v>0.09196858048859731</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05728781664093716</v>
+        <v>0.05705492000992984</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09000927026998318</v>
+        <v>0.09178268398567702</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0905496947625109</v>
+        <v>0.01718062788812205</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09365980497450743</v>
+        <v>0.09285131276333011</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02643433283078197</v>
+        <v>0.01706534347781274</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08980233555205103</v>
+        <v>0.09363157589579507</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02121304823314678</v>
+        <v>0.04202273403695034</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08914966133968899</v>
+        <v>0.09274142570278719</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0567318628355242</v>
+        <v>0.0560266720505968</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09076565069242</v>
+        <v>0.09255396704438019</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08867146311605079</v>
+        <v>0.01706534347781274</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09444686215916716</v>
+        <v>0.09363157589579507</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0264148093155473</v>
+        <v>0.01694822941292151</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09055068834831813</v>
+        <v>0.09441183902826003</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0211711818132293</v>
+        <v>0.04138900806204771</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0898925751841864</v>
+        <v>0.09351427091697709</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05656119089001749</v>
+        <v>0.0547921110159747</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09152203111485684</v>
+        <v>0.09332525010308335</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08758654783931924</v>
+        <v>0.01694822941292151</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09523391934382688</v>
+        <v>0.09441183902826003</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02636964963486795</v>
+        <v>0.01692915577332786</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09129904114458522</v>
+        <v>0.09519210216072499</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02102997799916451</v>
+        <v>0.04104454267140456</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0906354890286838</v>
+        <v>0.09428711613116698</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05607898530892222</v>
+        <v>0.05385231418521802</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09227841153729367</v>
+        <v>0.09409653316178652</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08660348236755777</v>
+        <v>0.01692915577332786</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09602097652848661</v>
+        <v>0.09519210216072499</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02630067980871759</v>
+        <v>0.01690799263891124</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0920473939408523</v>
+        <v>0.09597236529318995</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02088935125329308</v>
+        <v>0.04059210272766486</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09137840287318122</v>
+        <v>0.09505996134535688</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05528843059674368</v>
+        <v>0.05290835883748118</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0930347919597305</v>
+        <v>0.09486781622048969</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08533080013600813</v>
+        <v>0.01690799263891124</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09680803371314634</v>
+        <v>0.09597236529318995</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02820972585706989</v>
+        <v>0.0166846100895512</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09279574673711939</v>
+        <v>0.09675262842565491</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02084921603795577</v>
+        <v>0.03993445309347285</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09212131671767862</v>
+        <v>0.09583280655954678</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05489271125798709</v>
+        <v>0.05256132225191873</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09379117238216735</v>
+        <v>0.09563909927919285</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08417703457991194</v>
+        <v>0.0166846100895512</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09759509089780606</v>
+        <v>0.09675262842565491</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02609861379989844</v>
+        <v>0.01645887820512718</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09354409953338649</v>
+        <v>0.09753289155811987</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02100948681549328</v>
+        <v>0.03957435863147254</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09286423056217603</v>
+        <v>0.09660565177373667</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05399501179715771</v>
+        <v>0.05131228170768481</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09454755280460417</v>
+        <v>0.09641038233789602</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08285071913451059</v>
+        <v>0.01645887820512718</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09838214808246579</v>
+        <v>0.09753289155811987</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02596916965717695</v>
+        <v>0.01653066706551871</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09429245232965359</v>
+        <v>0.09831315469058483</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02087007804824634</v>
+        <v>0.03851458420430809</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09360714440667343</v>
+        <v>0.09737849698792655</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05339851671876072</v>
+        <v>0.05006231448393406</v>
       </c>
       <c r="M191" t="n">
-        <v>0.095303933227041</v>
+        <v>0.0971816653965992</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08186038723504596</v>
+        <v>0.01653066706551871</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09916920526712551</v>
+        <v>0.09831315469058483</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02582321944887905</v>
+        <v>0.01619984675060523</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09504080512592067</v>
+        <v>0.09909341782304978</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02093090419855566</v>
+        <v>0.03835789467462355</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09435005825117085</v>
+        <v>0.09815134220211645</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05290641052730136</v>
+        <v>0.04941249785982094</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09606031364947784</v>
+        <v>0.09795294845530236</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0806145723167595</v>
+        <v>0.01619984675060523</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09995626245178524</v>
+        <v>0.09909341782304978</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02666258919497837</v>
+        <v>0.01626628734026631</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09578915792218777</v>
+        <v>0.09987368095551474</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02079187972876195</v>
+        <v>0.03750705490506306</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09509297209566825</v>
+        <v>0.09892418741630635</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05232187772728486</v>
+        <v>0.04816390911449964</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09681669407191466</v>
+        <v>0.09872423151400553</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07962180781489292</v>
+        <v>0.01626628734026631</v>
       </c>
       <c r="O193" t="n">
-        <v>0.100743319636445</v>
+        <v>0.09987368095551474</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02648910491544863</v>
+        <v>0.01592985891438134</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09653751071845486</v>
+        <v>0.1006539440879797</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02065291910120598</v>
+        <v>0.03726482975827083</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09583588594016566</v>
+        <v>0.09969703263049624</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05184810282321653</v>
+        <v>0.04771762552712483</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0975730744943515</v>
+        <v>0.09949551457270871</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0778906271646877</v>
+        <v>0.01592985891438134</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1015303768211047</v>
+        <v>0.1006539440879797</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02730459263026342</v>
+        <v>0.01589043155282992</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09728586351472195</v>
+        <v>0.1014342072204447</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02081393677822846</v>
+        <v>0.0365334911302749</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09657879978466308</v>
+        <v>0.1004698778446861</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05118827031960144</v>
+        <v>0.04637472437685092</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09832945491678834</v>
+        <v>0.1002667976314119</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07732956380138561</v>
+        <v>0.01589043155282992</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1023174340057644</v>
+        <v>0.1014342072204447</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02511087835939641</v>
+        <v>0.01564787533549143</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09803421631098903</v>
+        <v>0.1022144703529096</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02077484722217009</v>
+        <v>0.03589114299715601</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09732171362916048</v>
+        <v>0.101242723058876</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05034556472094501</v>
+        <v>0.0453362829428321</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09908583533922517</v>
+        <v>0.101038080690115</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07674715116022823</v>
+        <v>0.01564787533549143</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1031044911904241</v>
+        <v>0.1022144703529096</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02490978812282126</v>
+        <v>0.01550206034224545</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09878256910725614</v>
+        <v>0.1029947334853746</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02073556489537159</v>
+        <v>0.03572623396233887</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09806462747365789</v>
+        <v>0.1020155682730659</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05012317053175233</v>
+        <v>0.04490337850422316</v>
       </c>
       <c r="M197" t="n">
-        <v>0.099842215761662</v>
+        <v>0.1018093637488182</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07605192267645705</v>
+        <v>0.01550206034224545</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1038915483750839</v>
+        <v>0.1029947334853746</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02670314794051163</v>
+        <v>0.01555285665297144</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09953092190352324</v>
+        <v>0.1037749966178395</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02049600426017371</v>
+        <v>0.03494074612395359</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09880754131815529</v>
+        <v>0.1027884134872558</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04932427225652872</v>
+        <v>0.04376799139534976</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1005985961840988</v>
+        <v>0.1025806468075214</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07485241178531382</v>
+        <v>0.01555285665297144</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1046786055597436</v>
+        <v>0.1037749966178395</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02649278383244117</v>
+        <v>0.01540013434754887</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1002792746997903</v>
+        <v>0.1045552597503045</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02045607977891716</v>
+        <v>0.03453666158013044</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09955045516265271</v>
+        <v>0.1035612587014457</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04925205439977934</v>
+        <v>0.04318026374057726</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1013549766065357</v>
+        <v>0.1033519298662245</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07395715192204005</v>
+        <v>0.01540013434754887</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1054656627444033</v>
+        <v>0.1045552597503045</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02528052181858353</v>
+        <v>0.01524376350585725</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1010276274960574</v>
+        <v>0.1053355228827694</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02041570591394265</v>
+        <v>0.03361596242899964</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1002933690071501</v>
+        <v>0.1043341039156356</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04890970146600945</v>
+        <v>0.04163858634444156</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1021113570289725</v>
+        <v>0.1041232129249277</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07377467652187747</v>
+        <v>0.01524376350585725</v>
       </c>
       <c r="O200" t="n">
-        <v>0.106252719929063</v>
+        <v>0.1053355228827694</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02406818791891233</v>
+        <v>0.01498361420777608</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1017759802923245</v>
+        <v>0.1061157860152344</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02057479712759094</v>
+        <v>0.03318063076869129</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1010362828516475</v>
+        <v>0.1051069491298255</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04830039795972432</v>
+        <v>0.04075027459227193</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1028677374514093</v>
+        <v>0.1048944959836309</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0739135190200676</v>
+        <v>0.01498361420777608</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1070397771137228</v>
+        <v>0.1061157860152344</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02585760815340129</v>
+        <v>0.01491955653318484</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1025243330885916</v>
+        <v>0.1068960491476994</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02053326788220271</v>
+        <v>0.03243264869733575</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1017791966961449</v>
+        <v>0.1058797943440154</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04792732838542915</v>
+        <v>0.03992264386939731</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1036241178738462</v>
+        <v>0.105665779042334</v>
       </c>
       <c r="N202" t="n">
-        <v>0.073182212851852</v>
+        <v>0.01491955653318484</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1078268342983825</v>
+        <v>0.1068960491476994</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02565060854202402</v>
+        <v>0.01474978197270053</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1032726858848587</v>
+        <v>0.1076763122801643</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02029103264011871</v>
+        <v>0.03187399831306306</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1025221105406423</v>
+        <v>0.1066526395582053</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04729367724762917</v>
+        <v>0.03866300956114699</v>
       </c>
       <c r="M203" t="n">
-        <v>0.104380498296283</v>
+        <v>0.1064370621010372</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07278929145247243</v>
+        <v>0.01474978197270053</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1086138914830422</v>
+        <v>0.1076763122801643</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02344901510475416</v>
+        <v>0.01435666790153545</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1040210386811258</v>
+        <v>0.1084565754126293</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02044800586367966</v>
+        <v>0.03090666171400352</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1032650243851397</v>
+        <v>0.1074254847723952</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04730262905082963</v>
+        <v>0.03697868705285007</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1051368787187198</v>
+        <v>0.1072083451597404</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07338783540085914</v>
+        <v>0.01435666790153545</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1094009486677019</v>
+        <v>0.1084565754126293</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02425465386156541</v>
+        <v>0.01423868548494114</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1047693914773929</v>
+        <v>0.1092368385450943</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02020410201522627</v>
+        <v>0.03033262099828732</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1040079382296372</v>
+        <v>0.1081983299865851</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04695736829953576</v>
+        <v>0.03597699172983565</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1058932591411567</v>
+        <v>0.1079796282184435</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07348805734206276</v>
+        <v>0.01423868548494114</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1101880058523617</v>
+        <v>0.1092368385450943</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02506935083243137</v>
+        <v>0.01399981650829184</v>
       </c>
       <c r="G206" t="n">
-        <v>0.10551774427366</v>
+        <v>0.1100171016775592</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02035923555709927</v>
+        <v>0.02985385826404469</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1047508520741346</v>
+        <v>0.108971175200775</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04676107949825276</v>
+        <v>0.03456523897743297</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1066496395635935</v>
+        <v>0.1087509112771467</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07328870700052303</v>
+        <v>0.01399981650829184</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1109750630370214</v>
+        <v>0.1100171016775592</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02489493203732574</v>
+        <v>0.01374404275696176</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1062660970699271</v>
+        <v>0.1107973648100242</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02011332095163937</v>
+        <v>0.02887235560940574</v>
       </c>
       <c r="K207" t="n">
-        <v>0.105493765918632</v>
+        <v>0.1097440204149649</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04681694715148588</v>
+        <v>0.03345074418097105</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1074060199860303</v>
+        <v>0.1095221943358499</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07289001452586397</v>
+        <v>0.01374404275696176</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1117621202216811</v>
+        <v>0.1107973648100242</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02273322349622215</v>
+        <v>0.01357534601632511</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1070144498661942</v>
+        <v>0.1115776279424891</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02016627266118734</v>
+        <v>0.02829009513250078</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1062366797631294</v>
+        <v>0.1105168656291547</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04682815576374036</v>
+        <v>0.03264082272577917</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1081624004084672</v>
+        <v>0.1102934773945531</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07359221006770933</v>
+        <v>0.01357534601632511</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1125491774063409</v>
+        <v>0.1115776279424891</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02358605122909425</v>
+        <v>0.01329770807175612</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1077628026624612</v>
+        <v>0.1123578910749541</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02021800514808385</v>
+        <v>0.02790905893145995</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1069795936076268</v>
+        <v>0.1112897108433446</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04649788981197323</v>
+        <v>0.03084278999718643</v>
       </c>
       <c r="M209" t="n">
-        <v>0.108918780830904</v>
+        <v>0.1110647604532562</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07349552377568308</v>
+        <v>0.01329770807175612</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1133362345910006</v>
+        <v>0.1123578910749541</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0224552412559157</v>
+        <v>0.01301511070862897</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1085111554587283</v>
+        <v>0.113138154207419</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01996843287466964</v>
+        <v>0.02723122910441353</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1077225074521242</v>
+        <v>0.1120625560575345</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04669793388568946</v>
+        <v>0.02976396138052195</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1096751612533408</v>
+        <v>0.1118360435119594</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07350018579940898</v>
+        <v>0.01301511070862897</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1141232917756603</v>
+        <v>0.113138154207419</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02234261959666015</v>
+        <v>0.0127315357123179</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1092595082549954</v>
+        <v>0.113918417339884</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02011747030328545</v>
+        <v>0.02625858774949164</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1084654212966216</v>
+        <v>0.1128354012717244</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04639824190266154</v>
+        <v>0.0290116522611148</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1104315416757777</v>
+        <v>0.1126073265706626</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07280642628851097</v>
+        <v>0.0127315357123179</v>
       </c>
       <c r="O211" t="n">
-        <v>0.11491034896032</v>
+        <v>0.113918417339884</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02325001227130127</v>
+        <v>0.01235096486819712</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1100078610512625</v>
+        <v>0.114698680472349</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02006503189627198</v>
+        <v>0.02539311696482449</v>
       </c>
       <c r="K212" t="n">
-        <v>0.109208335141119</v>
+        <v>0.1136082464859143</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04649907755697771</v>
+        <v>0.02779317802429432</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1111879220982145</v>
+        <v>0.1133786096293657</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07341447539261298</v>
+        <v>0.01235096486819712</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1156974061449798</v>
+        <v>0.114698680472349</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02317924529981268</v>
+        <v>0.01217737996164084</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1107562138475296</v>
+        <v>0.1154789436048139</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02001103211596997</v>
+        <v>0.02503679884854235</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1099512489856164</v>
+        <v>0.1143810917001042</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04630070454272617</v>
+        <v>0.02691585405538954</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1119443025206514</v>
+        <v>0.1141498926880689</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07322456326133875</v>
+        <v>0.01217737996164084</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1164844633296395</v>
+        <v>0.1154789436048139</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0231214010348892</v>
+        <v>0.01181476277802326</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1115045666437967</v>
+        <v>0.1162592067372789</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0198556421021252</v>
+        <v>0.02419161549877533</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1106941628301138</v>
+        <v>0.1151539369142941</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04630338655399516</v>
+        <v>0.02578699573972959</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1127006829430882</v>
+        <v>0.1149211757467721</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07313692004431221</v>
+        <v>0.01181476277802326</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1172715205142992</v>
+        <v>0.1162592067372789</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02406423974258003</v>
+        <v>0.01166709510271862</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1122529194400638</v>
+        <v>0.1170394698697438</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01969915247032406</v>
+        <v>0.02385954901365372</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1114370766746112</v>
+        <v>0.115926782128484</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0464073872848729</v>
+        <v>0.02471391846264354</v>
       </c>
       <c r="M215" t="n">
-        <v>0.113457063365525</v>
+        <v>0.1156924588054752</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07315177589115729</v>
+        <v>0.01166709510271862</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1180585776989589</v>
+        <v>0.1170394698697438</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02400775499337502</v>
+        <v>0.01123835872110112</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1130012722363309</v>
+        <v>0.1178197330022088</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01984157035675947</v>
+        <v>0.02314258149130768</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1121799905191087</v>
+        <v>0.1166996273426739</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04651297042944769</v>
+        <v>0.02380393760946076</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1142134437879618</v>
+        <v>0.1164637418641784</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07366936095149784</v>
+        <v>0.01123835872110112</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1188456348836187</v>
+        <v>0.1178197330022088</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02295196650880321</v>
+        <v>0.01123253541854496</v>
       </c>
       <c r="G217" t="n">
-        <v>0.113749625032598</v>
+        <v>0.1185999961346737</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01978290204721861</v>
+        <v>0.02274269502986745</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1129229043636061</v>
+        <v>0.1174724725568638</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04652039968180768</v>
+        <v>0.02276436856551023</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1149698242103987</v>
+        <v>0.1172350249228816</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07308990537495769</v>
+        <v>0.01123253541854496</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1196326920682784</v>
+        <v>0.1185999961346737</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02389689401039354</v>
+        <v>0.01105360698042437</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1144979778288651</v>
+        <v>0.1193802592671387</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01972315382748865</v>
+        <v>0.02216187172746317</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1136658182081035</v>
+        <v>0.1182453177710537</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0463299387360411</v>
+        <v>0.02200252671612113</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1157262046328355</v>
+        <v>0.1180063079815847</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07321363931116071</v>
+        <v>0.01105360698042437</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1204197492529381</v>
+        <v>0.1193802592671387</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02284255721967506</v>
+        <v>0.01090555519211357</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1152463306251322</v>
+        <v>0.1201605223996037</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01946233198335678</v>
+        <v>0.02140209368222512</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1144087320526009</v>
+        <v>0.1190181629852436</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04674185128623626</v>
+        <v>0.02112572744662256</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1164825850552723</v>
+        <v>0.1187775910402879</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0731407929097308</v>
+        <v>0.01090555519211357</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1212068064375978</v>
+        <v>0.1201605223996037</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02378897585817679</v>
+        <v>0.01068881906312802</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1159946834213993</v>
+        <v>0.1209407855320686</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01950044280061017</v>
+        <v>0.02056534299228344</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1151516458970983</v>
+        <v>0.1197910081994335</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04665640102648128</v>
+        <v>0.02074057578565536</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1172389654777092</v>
+        <v>0.1195488740989911</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07297159632029182</v>
+        <v>0.01068881906312802</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1219938636222576</v>
+        <v>0.1209407855320686</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02373616964742773</v>
+        <v>0.0106788316610936</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1167430362176663</v>
+        <v>0.1217210486645336</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01953749256503599</v>
+        <v>0.02015360175576841</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1158945597415957</v>
+        <v>0.1205638534136234</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04677385165086448</v>
+        <v>0.02069455455107438</v>
       </c>
       <c r="M221" t="n">
-        <v>0.117995345900146</v>
+        <v>0.1203201571576942</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07310627969246769</v>
+        <v>0.0106788316610936</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1227809208069173</v>
+        <v>0.1217210486645336</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02368415830895688</v>
+        <v>0.01057016487681033</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1174913890139334</v>
+        <v>0.1225013117969985</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01937348756242141</v>
+        <v>0.02006885207081016</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1166374735860931</v>
+        <v>0.1213366986278132</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04689446685347404</v>
+        <v>0.01945184803328215</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1187517263225828</v>
+        <v>0.1210914402163974</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07334507317588218</v>
+        <v>0.01057016487681033</v>
       </c>
       <c r="O222" t="n">
-        <v>0.123567977991577</v>
+        <v>0.1225013117969985</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02363296156429324</v>
+        <v>0.01046287555181788</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1182397418102005</v>
+        <v>0.1232815749294635</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0192084340785536</v>
+        <v>0.01961307603553891</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1173803874305905</v>
+        <v>0.1221095438420031</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0466185103283982</v>
+        <v>0.01931289095754496</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1195081067450197</v>
+        <v>0.1218627232751006</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0737882069201593</v>
+        <v>0.01046287555181788</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1243550351762368</v>
+        <v>0.1232815749294635</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02258259913496585</v>
+        <v>0.01025702052765596</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1189880946064676</v>
+        <v>0.1240618380619285</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01914233839921976</v>
+        <v>0.01918825574808486</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1181233012750879</v>
+        <v>0.122882389056193</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0466462457697252</v>
+        <v>0.01877811804912877</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1202644871674565</v>
+        <v>0.1226340063338037</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07393591107492281</v>
+        <v>0.01025702052765596</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1251420923608965</v>
+        <v>0.1240618380619285</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02353309074250367</v>
+        <v>0.01005265664586426</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1197364474027347</v>
+        <v>0.1248421011943934</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01907520681020707</v>
+        <v>0.01849637330657825</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1188662151195853</v>
+        <v>0.1236552342703829</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04657793687154324</v>
+        <v>0.01784796403329952</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1210208675898933</v>
+        <v>0.1234052893925069</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07318841578979662</v>
+        <v>0.01005265664586426</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1259291495455562</v>
+        <v>0.1248421011943934</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02248445610843574</v>
+        <v>0.01014984074798248</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1204848001990018</v>
+        <v>0.1256223643268584</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01900704559730264</v>
+        <v>0.01793941080914929</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1196091289640827</v>
+        <v>0.1244280794845728</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04691384732794063</v>
+        <v>0.01772286363532344</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1217772480123302</v>
+        <v>0.1241765724512101</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07384595121440463</v>
+        <v>0.01014984074798248</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1267162067302159</v>
+        <v>0.1256223643268584</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02243671495429108</v>
+        <v>0.009948629675550318</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1212331529952689</v>
+        <v>0.1264026274593233</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01893786104629369</v>
+        <v>0.01801922212806906</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1203520428085801</v>
+        <v>0.1252009246987627</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04655424083300552</v>
+        <v>0.01740325158046657</v>
       </c>
       <c r="M227" t="n">
-        <v>0.122533628434767</v>
+        <v>0.1249478555099132</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07360874749837065</v>
+        <v>0.009948629675550318</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1275032639148757</v>
+        <v>0.1264026274593233</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02238988700159868</v>
+        <v>0.009849080270107474</v>
       </c>
       <c r="G228" t="n">
-        <v>0.121981505791536</v>
+        <v>0.1271828905917883</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01906765944296743</v>
+        <v>0.01751525802518558</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1210949566530776</v>
+        <v>0.1259737699129526</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04699938108082616</v>
+        <v>0.01708956259399486</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1232900088572038</v>
+        <v>0.1257191385686164</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07377703479131864</v>
+        <v>0.009849080270107474</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1282903210995354</v>
+        <v>0.1271828905917883</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02134399197188756</v>
+        <v>0.009851249373193649</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1227298585878031</v>
+        <v>0.1279631537242533</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01889644707311096</v>
+        <v>0.01751185689544854</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1218378704975749</v>
+        <v>0.1267466151271425</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04684953176549078</v>
+        <v>0.01608223140117454</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1240463892796407</v>
+        <v>0.1264904216273196</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07345104324287238</v>
+        <v>0.009851249373193649</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1290773782841951</v>
+        <v>0.1279631537242533</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02129904958668669</v>
+        <v>0.009555193826348528</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1234782113840702</v>
+        <v>0.1287434168567182</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01892423022251151</v>
+        <v>0.01670945622110595</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1225807843420724</v>
+        <v>0.1275194603413324</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0468049565810876</v>
+        <v>0.01548169272727162</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1248027697020775</v>
+        <v>0.1272617046860228</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07393100300265582</v>
+        <v>0.009555193826348528</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1298644354688548</v>
+        <v>0.1287434168567182</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02325507956752514</v>
+        <v>0.009560970471111811</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1242265641803373</v>
+        <v>0.1295236799891832</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01875101517695621</v>
+        <v>0.016808493484406</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1233236981865698</v>
+        <v>0.1282923055555223</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04676591922170489</v>
+        <v>0.01518838129755201</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1255591501245144</v>
+        <v>0.1280329877447259</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07371714422029285</v>
+        <v>0.009560970471111811</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1306514926535146</v>
+        <v>0.1295236799891832</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02221210163593187</v>
+        <v>0.009368636149023203</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1249749169766043</v>
+        <v>0.1303039431216481</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01857680822223227</v>
+        <v>0.01660940616759665</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1240666120310672</v>
+        <v>0.1290651507697122</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04713268338143087</v>
+        <v>0.01470273183728205</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1263155305469512</v>
+        <v>0.1288042708034291</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07430969704540724</v>
+        <v>0.009368636149023203</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1314385498381743</v>
+        <v>0.1303039431216481</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02117013551343592</v>
+        <v>0.009278247701622395</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1257232697728715</v>
+        <v>0.1310842062541131</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01850161564412685</v>
+        <v>0.01581263175292597</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1248095258755646</v>
+        <v>0.1298379959839021</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04700551275435372</v>
+        <v>0.01382517907172748</v>
       </c>
       <c r="M233" t="n">
-        <v>0.127071910969388</v>
+        <v>0.1295755538621323</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07430889162762283</v>
+        <v>0.009278247701622395</v>
       </c>
       <c r="O233" t="n">
-        <v>0.132225607022834</v>
+        <v>0.1310842062541131</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02112920092156628</v>
+        <v>0.009389861970449088</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1264716225691385</v>
+        <v>0.1318644693865781</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01842544372842712</v>
+        <v>0.01561860772264212</v>
       </c>
       <c r="K234" t="n">
-        <v>0.125552439720062</v>
+        <v>0.130610841198092</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04728467103456171</v>
+        <v>0.01415615772615469</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1278282913918248</v>
+        <v>0.1303468369208354</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07451495811656372</v>
+        <v>0.009389861970449088</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1330126642074937</v>
+        <v>0.1318644693865781</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02108931758185194</v>
+        <v>0.009303535797042982</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1272199753654056</v>
+        <v>0.132644732519043</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01844829876092029</v>
+        <v>0.01522777155899308</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1262953535645594</v>
+        <v>0.1313836864122819</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04757042191614308</v>
+        <v>0.01329610252582952</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1285846718142617</v>
+        <v>0.1311181199795386</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07442812666185356</v>
+        <v>0.009303535797042982</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1337997213921535</v>
+        <v>0.132644732519043</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02305050521582196</v>
+        <v>0.009219326022943765</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1279683281616727</v>
+        <v>0.133424995651508</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01827018702739347</v>
+        <v>0.01534056074422696</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1270382674090568</v>
+        <v>0.1321565316264718</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04746302909318603</v>
+        <v>0.01254544819601822</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1293410522366985</v>
+        <v>0.1318894030382418</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0745486274131163</v>
+        <v>0.009219326022943765</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1345867785768132</v>
+        <v>0.133424995651508</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02101278354500529</v>
+        <v>0.008937289489691143</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1287166809579398</v>
+        <v>0.1342052587839729</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01829111481363388</v>
+        <v>0.01465741276059176</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1277811812535542</v>
+        <v>0.1329293768406617</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04726275625977883</v>
+        <v>0.01270462946198664</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1300974326591353</v>
+        <v>0.132660686096945</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07507669051997584</v>
+        <v>0.008937289489691143</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1353738357614729</v>
+        <v>0.1342052587839729</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.022976172290931</v>
+        <v>0.009057483038824803</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1294650337542069</v>
+        <v>0.1349855219164379</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01831108840542869</v>
+        <v>0.01457876509033562</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1285240950980516</v>
+        <v>0.1337022220548515</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04776986711000969</v>
+        <v>0.01187408104900101</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1308538130815722</v>
+        <v>0.1334319691556481</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07461254613205609</v>
+        <v>0.009057483038824803</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1361608929461327</v>
+        <v>0.1349855219164379</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02194069117512804</v>
+        <v>0.008979963511884452</v>
       </c>
       <c r="G239" t="n">
-        <v>0.130213386550474</v>
+        <v>0.1357657850489029</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01823011408856506</v>
+        <v>0.01420505521570653</v>
       </c>
       <c r="K239" t="n">
-        <v>0.129267008942549</v>
+        <v>0.1344750672690414</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0476846253379668</v>
+        <v>0.01115423768232726</v>
       </c>
       <c r="M239" t="n">
-        <v>0.131610193504009</v>
+        <v>0.1342032522143513</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07505642439898075</v>
+        <v>0.008979963511884452</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1369479501307924</v>
+        <v>0.1357657850489029</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02090635991912546</v>
+        <v>0.008704787750409775</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1309617393467411</v>
+        <v>0.1365460481813678</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01794819814883017</v>
+        <v>0.01423672061895268</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1300099227870464</v>
+        <v>0.1352479124832313</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04790729463773841</v>
+        <v>0.01114553408723157</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1323665739264458</v>
+        <v>0.1349745352730544</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07550855547037388</v>
+        <v>0.008704787750409775</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1377350073154521</v>
+        <v>0.1365460481813678</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02087319824445227</v>
+        <v>0.008632012595940486</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1317100921430082</v>
+        <v>0.1373263113138328</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0178653468720112</v>
+        <v>0.01397419878232201</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1307528366315439</v>
+        <v>0.1360207576974212</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0481381387034128</v>
+        <v>0.01104840498898008</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1331229543488827</v>
+        <v>0.1357458183317576</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07536916949585926</v>
+        <v>0.008632012595940486</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1385220645001118</v>
+        <v>0.1373263113138328</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02284122587263743</v>
+        <v>0.008761694890016276</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1324584449392753</v>
+        <v>0.1381065744462977</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01778156654389533</v>
+        <v>0.0133179271880626</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1314957504760413</v>
+        <v>0.1367936029116111</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04827742122907816</v>
+        <v>0.009963285112838505</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1338793347713195</v>
+        <v>0.1365171013904608</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0754384966250608</v>
+        <v>0.008761694890016276</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1393091216847716</v>
+        <v>0.1381065744462977</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02081046252521</v>
+        <v>0.00849389147417684</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1332067977355424</v>
+        <v>0.1388868375787627</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0176968634502697</v>
+        <v>0.01346834331842262</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1322386643205387</v>
+        <v>0.137566448125801</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0483254059088227</v>
+        <v>0.01009060918407328</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1346357151937563</v>
+        <v>0.1372883844491639</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07581676700760237</v>
+        <v>0.00849389147417684</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1400961788694313</v>
+        <v>0.1388868375787627</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02078092792369895</v>
+        <v>0.008628659189961876</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1339551505318095</v>
+        <v>0.1396671007112276</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01781124387692154</v>
+        <v>0.01292588465564998</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1329815781650361</v>
+        <v>0.1383392933399909</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04828235643673467</v>
+        <v>0.01003081192795041</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1353920956161932</v>
+        <v>0.1380596675078671</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07580421079310773</v>
+        <v>0.008628659189961876</v>
       </c>
       <c r="O244" t="n">
-        <v>0.140883236054091</v>
+        <v>0.1396671007112276</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02075264178963333</v>
+        <v>0.00846605487891107</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1347035033280765</v>
+        <v>0.1404473638436926</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01772471410963798</v>
+        <v>0.01279098868199291</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1337244920095335</v>
+        <v>0.1391121385541808</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04844853650690234</v>
+        <v>0.009284328069735726</v>
       </c>
       <c r="M245" t="n">
-        <v>0.13614847603863</v>
+        <v>0.1388309505665703</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07620105813120098</v>
+        <v>0.00846605487891107</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1416702932387507</v>
+        <v>0.1404473638436926</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0227256238445421</v>
+        <v>0.008306135382564146</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1354518561243436</v>
+        <v>0.1412276269761576</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01753728043420619</v>
+        <v>0.0126640928796993</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1344674058540309</v>
+        <v>0.1398849837683707</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04902420981341388</v>
+        <v>0.009151592334695591</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1369048564610668</v>
+        <v>0.1396022336252734</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07610753917150576</v>
+        <v>0.008306135382564146</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1424573504234105</v>
+        <v>0.1412276269761576</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02269989380995432</v>
+        <v>0.008448957542460778</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1362002089206107</v>
+        <v>0.1420078901086225</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01734894913641338</v>
+        <v>0.01264563473101737</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1352103196985283</v>
+        <v>0.1406578289825606</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04890964005035756</v>
+        <v>0.008633039448095847</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1376612368835037</v>
+        <v>0.1403735166839766</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07622388406364611</v>
+        <v>0.008448957542460778</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1432444076080702</v>
+        <v>0.1420078901086225</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02167547140739896</v>
+        <v>0.008294578200140665</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1369485617168778</v>
+        <v>0.1427881532410875</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01745972650204669</v>
+        <v>0.01223605171819514</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1359532335430257</v>
+        <v>0.1414306741967505</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04920509091182157</v>
+        <v>0.008529104135202636</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1384176173059405</v>
+        <v>0.1411447997426798</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07625032295724576</v>
+        <v>0.008294578200140665</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1440314647927299</v>
+        <v>0.1427881532410875</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02165237635840504</v>
+        <v>0.008243054197143516</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1376969145131449</v>
+        <v>0.1435684163735524</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01716961881689333</v>
+        <v>0.01173578132348063</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1366961473875231</v>
+        <v>0.1422035194109404</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04961082609189418</v>
+        <v>0.00794022112128201</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1391739977283773</v>
+        <v>0.141916082801383</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07688708600192873</v>
+        <v>0.008243054197143516</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1448185219773896</v>
+        <v>0.1435684163735524</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02163062838450156</v>
+        <v>0.008094442375009024</v>
       </c>
       <c r="G250" t="n">
-        <v>0.138445267309412</v>
+        <v>0.1443486795060174</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01707863236674044</v>
+        <v>0.01194526102912194</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1374390612320205</v>
+        <v>0.1429763646251303</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04982710928466358</v>
+        <v>0.008066825131600175</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1399303781508142</v>
+        <v>0.1426873658600861</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07693440334731882</v>
+        <v>0.008094442375009024</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1456055791620494</v>
+        <v>0.1443486795060174</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02261024720721756</v>
+        <v>0.00824879957527689</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1391936201056791</v>
+        <v>0.1451289426384824</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01708677343737521</v>
+        <v>0.01156492831736713</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1381819750765179</v>
+        <v>0.1437492098393202</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04955420418421805</v>
+        <v>0.007109350891422894</v>
       </c>
       <c r="M251" t="n">
-        <v>0.140686758573251</v>
+        <v>0.1434586489187893</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07769250514303988</v>
+        <v>0.00824879957527689</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1463926363467091</v>
+        <v>0.1451289426384824</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02259125254808201</v>
+        <v>0.008206182639486796</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1399419729019462</v>
+        <v>0.1459092057709473</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01689404831458481</v>
+        <v>0.01119522067046427</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1389248889210153</v>
+        <v>0.1445220550535101</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05009237448464579</v>
+        <v>0.007368233126016477</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1414431389956878</v>
+        <v>0.1442299319774925</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07786162153871584</v>
+        <v>0.008206182639486796</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1471796935313688</v>
+        <v>0.1459092057709473</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02157366412862394</v>
+        <v>0.008166648409178447</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1406903256982133</v>
+        <v>0.1466894689034123</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01690046328415643</v>
+        <v>0.01123657557066143</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1396678027655127</v>
+        <v>0.1452949002677</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05014188388003502</v>
+        <v>0.007043906560647017</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1421995194181247</v>
+        <v>0.1450012150361956</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0775419826839705</v>
+        <v>0.008166648409178447</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1479667507160286</v>
+        <v>0.1466894689034123</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02155750167037237</v>
+        <v>0.008030253725891556</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1414386784944804</v>
+        <v>0.1474697320358772</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01680602463187722</v>
+        <v>0.01098943050020665</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1404107166100102</v>
+        <v>0.1460677454818899</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05040299606447399</v>
+        <v>0.006936805920580325</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1429558998405615</v>
+        <v>0.1457724980948988</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07813381872842784</v>
+        <v>0.008030253725891556</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1487538079006883</v>
+        <v>0.1474697320358772</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02054278489485625</v>
+        <v>0.007897055431165798</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1421870312907475</v>
+        <v>0.1482499951683422</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01671073864353437</v>
+        <v>0.01105422294134803</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1411536304545076</v>
+        <v>0.1468405906960797</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05097597473205093</v>
+        <v>0.006447365931082805</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1437122802629983</v>
+        <v>0.1465437811536019</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07873735982171165</v>
+        <v>0.007897055431165798</v>
       </c>
       <c r="O255" t="n">
-        <v>0.149540865085348</v>
+        <v>0.1482499951683422</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02252953352360467</v>
+        <v>0.007967110366540874</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1429353840870146</v>
+        <v>0.1490302583008072</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01671461160491505</v>
+        <v>0.01073139037633361</v>
       </c>
       <c r="K256" t="n">
-        <v>0.141896544299005</v>
+        <v>0.1476134359102696</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05106108357685404</v>
+        <v>0.006476021317420144</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1444686606854352</v>
+        <v>0.1473150642123051</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07925283611344575</v>
+        <v>0.007967110366540874</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1503279222700077</v>
+        <v>0.1490302583008072</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02251776727814659</v>
+        <v>0.00804047537355649</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1436837368832816</v>
+        <v>0.1498105214332721</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01641764980180642</v>
+        <v>0.01062137028741145</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1426394581435024</v>
+        <v>0.1483862811244595</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0513585862929716</v>
+        <v>0.006023206804858738</v>
       </c>
       <c r="M257" t="n">
-        <v>0.145225041107872</v>
+        <v>0.1480863472710083</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07898047775325417</v>
+        <v>0.00804047537355649</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1511149794546674</v>
+        <v>0.1498105214332721</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02050750588001101</v>
+        <v>0.008017207293752347</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1444320896795487</v>
+        <v>0.1505907845657371</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01641985951999567</v>
+        <v>0.01042460015682964</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1433823719879998</v>
+        <v>0.1491591263386494</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0514687465744918</v>
+        <v>0.006289357118664463</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1459814215303089</v>
+        <v>0.1488576303297115</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07942051489076063</v>
+        <v>0.008017207293752347</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1519020366393272</v>
+        <v>0.1505907845657371</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02049876905072699</v>
+        <v>0.007897362968668123</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1451804424758158</v>
+        <v>0.151371047698202</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01622124704526999</v>
+        <v>0.01084151746683626</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1441252858324972</v>
+        <v>0.1499319715528393</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05209182811550286</v>
+        <v>0.006474906984103468</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1467378019527457</v>
+        <v>0.1496289133884146</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07977317767558911</v>
+        <v>0.007897362968668123</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1526890938239869</v>
+        <v>0.151371047698202</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02049157651182348</v>
+        <v>0.007880999239843534</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1459287952720829</v>
+        <v>0.152151310830667</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01632181866341653</v>
+        <v>0.01047255969967933</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1448681996769946</v>
+        <v>0.1507048167670292</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05212809461009307</v>
+        <v>0.006080291126441761</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1474941823751825</v>
+        <v>0.1504001964471178</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08013869625736347</v>
+        <v>0.007880999239843534</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1534761510086466</v>
+        <v>0.152151310830667</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02148594798482949</v>
+        <v>0.007768172948818271</v>
       </c>
       <c r="G261" t="n">
-        <v>0.14667714806835</v>
+        <v>0.152931573963132</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01612158066022247</v>
+        <v>0.01051816433760694</v>
       </c>
       <c r="K261" t="n">
-        <v>0.145611113521492</v>
+        <v>0.1514776619812191</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05247780975235058</v>
+        <v>0.006305944270945441</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1482505627976193</v>
+        <v>0.151171479505821</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08091730078570752</v>
+        <v>0.007768172948818271</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1542632081933063</v>
+        <v>0.152931573963132</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02248190319127407</v>
+        <v>0.007958940937132022</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1474255008646171</v>
+        <v>0.1537118370955969</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01592053932147498</v>
+        <v>0.01037876886286715</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1463540273659894</v>
+        <v>0.152250507195409</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05314123723636369</v>
+        <v>0.006052301142880523</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1490069432200562</v>
+        <v>0.1519427625645241</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08120922141024517</v>
+        <v>0.007958940937132022</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1550502653779661</v>
+        <v>0.1537118370955969</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02247946185268623</v>
+        <v>0.007953360046324499</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1481738536608842</v>
+        <v>0.1544921002280619</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01601870093296125</v>
+        <v>0.01015481075770802</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1470969412104868</v>
+        <v>0.1530233524095989</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05371864075622063</v>
+        <v>0.006019796467513217</v>
       </c>
       <c r="M263" t="n">
-        <v>0.149763323642493</v>
+        <v>0.1527140456232273</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08141468828060028</v>
+        <v>0.007953360046324499</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1558373225626258</v>
+        <v>0.1544921002280619</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02047864369059494</v>
+        <v>0.007951487117935391</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1489222064571513</v>
+        <v>0.1552723633605268</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01571607178046844</v>
+        <v>0.01024672750437763</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1478398550549842</v>
+        <v>0.1537961976237888</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05361028400600956</v>
+        <v>0.005808864970109351</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1505197040649298</v>
+        <v>0.1534853286819305</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08193393154639672</v>
+        <v>0.007951487117935391</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1566243797472855</v>
+        <v>0.1552723633605268</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8608268990399346</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04304134495199673</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06886615192319477</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08582480697119804</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01153479202996809</v>
+        <v>0.03582480697119803</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01029119726423716</v>
+        <v>0.02044215998480787</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0015685482777038</v>
+        <v>0.0006494901327584804</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007802631324649589</v>
+        <v>0.0006102238382303826</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002999999999999975</v>
+        <v>0.00129866321037829</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005947916666666615</v>
+        <v>0.0007802631324649589</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006744504137574547</v>
+        <v>0.003649651631060818</v>
       </c>
       <c r="M66" s="170" t="n">
+        <v>0.0007753148379811145</v>
+      </c>
+      <c r="N66" s="171" t="n">
+        <v>0.006457692404809035</v>
+      </c>
+      <c r="O66" s="172" t="n">
         <v>0.0007712830587031682</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.0015685482777038</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.0007802631324649589</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002952782395162459</v>
+        <v>0.001333433741143177</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001560526264929918</v>
+        <v>0.001220447676460765</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006691938380149198</v>
+        <v>0.002723289045574</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001545690428379787</v>
+        <v>0.001560526264929918</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01326605299137751</v>
+        <v>0.007355033566317226</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001542566117406336</v>
+        <v>0.001550629675962229</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002952782395162459</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001560526264929918</v>
+        <v>0.001517552570093459</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004329651967265827</v>
+        <v>0.002050763846474346</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002340789397394877</v>
+        <v>0.001830671514691148</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009873619154249447</v>
+        <v>0.004245326644146799</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00231853564256968</v>
+        <v>0.002340789397394877</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01900000000000002</v>
+        <v>0.01199999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002217961448598133</v>
+        <v>0.00262960526315789</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004329651967265827</v>
+        <v>0.01774375260394234</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002340789397394877</v>
+        <v>0.002313849176109505</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005476106608903804</v>
+        <v>0.002800413470072233</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003121052529859836</v>
+        <v>0.00244089535292153</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01335685179113877</v>
+        <v>0.005336225144656377</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003091380856759573</v>
+        <v>0.003121052529859836</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02408495217120654</v>
+        <v>0.01340190307968284</v>
       </c>
       <c r="M69" s="170" t="n">
+        <v>0.003101259351924458</v>
+      </c>
+      <c r="N69" s="171" t="n">
+        <v>0.02306936566194717</v>
+      </c>
+      <c r="O69" s="172" t="n">
         <v>0.003085132234812673</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.005476106608903804</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.003121052529859836</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.01612839897873102</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006669095934966229</v>
+        <v>0.00358131563325708</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003901315662324795</v>
+        <v>0.003051119191151913</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01618689364423975</v>
+        <v>0.006267433685662405</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003864226070949467</v>
+        <v>0.003901315662324795</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02900230450095281</v>
+        <v>0.01584348143233982</v>
       </c>
       <c r="M70" s="170" t="n">
+        <v>0.003876574189905572</v>
+      </c>
+      <c r="N70" s="171" t="n">
+        <v>0.02773135574755542</v>
+      </c>
+      <c r="O70" s="172" t="n">
         <v>0.003856415293515841</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.006669095934966229</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.003901315662324795</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008</v>
+        <v>0.004392403357349146</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.003661343029382296</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01890900206697482</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00463707128513936</v>
+        <v>0.00437171875</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03306167335725851</v>
+        <v>0.01834654381984141</v>
       </c>
       <c r="M71" s="170" t="n">
+        <v>0.004651889027886687</v>
+      </c>
+      <c r="N71" s="171" t="n">
+        <v>0.03271216139810468</v>
+      </c>
+      <c r="O71" s="172" t="n">
         <v>0.00462769835221901</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.004996250000000001</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008425110296345094</v>
+        <v>0.005232609663668668</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005461841927254713</v>
+        <v>0.004271566867612678</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02176843441276649</v>
+        <v>0.007984317911650878</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005409916499329253</v>
+        <v>0.005461841927254713</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03635535735196715</v>
+        <v>0.02058287595103894</v>
       </c>
       <c r="M72" s="170" t="n">
+        <v>0.005427203865867802</v>
+      </c>
+      <c r="N72" s="171" t="n">
+        <v>0.0362942211509325</v>
+      </c>
+      <c r="O72" s="172" t="n">
         <v>0.005398981410922178</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.008425110296345094</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.005461841927254713</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008873208726290549</v>
+        <v>0.006100867573535895</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006242105059719671</v>
+        <v>0.004881790705843061</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02421044803503733</v>
+        <v>0.008783363232960452</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006182761713519147</v>
+        <v>0.006242105059719671</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03997565509692241</v>
+        <v>0.02252426353478351</v>
       </c>
       <c r="M73" s="170" t="n">
+        <v>0.006202518703848916</v>
+      </c>
+      <c r="N73" s="171" t="n">
+        <v>0.03955997354337648</v>
+      </c>
+      <c r="O73" s="172" t="n">
         <v>0.006170264469625346</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.008873208726290549</v>
-      </c>
-      <c r="O73" s="172" t="n">
-        <v>0.006242105059719671</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009450083723030141</v>
+        <v>0.0069961101082711</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00702236819218463</v>
+        <v>0.005492014544073443</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02608030028720978</v>
+        <v>0.009422472741952029</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00695560692770904</v>
+        <v>0.00702236819218463</v>
       </c>
       <c r="L74" s="172" t="n">
+        <v>0.02424249227992639</v>
+      </c>
+      <c r="M74" s="170" t="n">
+        <v>0.006977833541830031</v>
+      </c>
+      <c r="N74" s="171" t="n">
         <v>0.04386953926318837</v>
       </c>
-      <c r="M74" s="170" t="n">
+      <c r="O74" s="172" t="n">
         <v>0.007315860665677736</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.009450083723030141</v>
-      </c>
-      <c r="O74" s="172" t="n">
-        <v>0.00702236819218463</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01016653339130502</v>
+        <v>0.007917270289194506</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007802631324649589</v>
+        <v>0.006102238382303826</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02770216564657824</v>
+        <v>0.00990549689118593</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007846198702478258</v>
+        <v>0.007802631324649589</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04477503693973867</v>
+        <v>0.02620934789531881</v>
       </c>
       <c r="M75" s="170" t="n">
+        <v>0.007753148379811145</v>
+      </c>
+      <c r="N75" s="171" t="n">
+        <v>0.04479086197808446</v>
+      </c>
+      <c r="O75" s="172" t="n">
         <v>0.007712830587031681</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.01016653339130502</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.007802631324649589</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0105333558358564</v>
+        <v>0.008863281137626369</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008582894457114548</v>
+        <v>0.006712462220534209</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02815879942885072</v>
+        <v>0.01043628613322248</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008501297356088827</v>
+        <v>0.008582894457114548</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04651081704651555</v>
+        <v>0.02770216564657824</v>
       </c>
       <c r="M76" s="170" t="n">
+        <v>0.008672114355370707</v>
+      </c>
+      <c r="N76" s="171" t="n">
+        <v>0.04615539841373129</v>
+      </c>
+      <c r="O76" s="172" t="n">
         <v>0.008484113645734851</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.0105333558358564</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.008582894457114548</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01096134916142546</v>
+        <v>0.009833075674886942</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007322686058764592</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01081869092062203</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009363157589579507</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02926840562370481</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009274142570278721</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04771527538875686</v>
+        <v>0.02827793326533193</v>
       </c>
       <c r="M77" t="n">
+        <v>0.009303778055773374</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0476860569359005</v>
+      </c>
+      <c r="O77" t="n">
         <v>0.009255396704438019</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.01096134916142546</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.009363157589579507</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01082558692229647</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.007932909896994973</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01153479202996809</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01029119726423716</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03075729655415263</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01004698778446861</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04928811778575332</v>
+        <v>0.0292400840014447</v>
       </c>
       <c r="M78" t="n">
+        <v>0.01007909289375449</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.04988262946752109</v>
+      </c>
+      <c r="O78" t="n">
         <v>0.01002667976314119</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.01153479202996809</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.01029119726423716</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01174867922892661</v>
+        <v>0.01183974790117521</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008543133735225356</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0118664425464796</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01092368385450943</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03192528342003159</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01081983299865851</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05142905005679554</v>
+        <v>0.03048771130368763</v>
       </c>
       <c r="M79" t="n">
+        <v>0.0108544077317356</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.05084490793152191</v>
+      </c>
+      <c r="O79" t="n">
         <v>0.01079796282184436</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.01174867922892661</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.01092368385450943</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01213729152138743</v>
+        <v>0.01287449163284338</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009153357573455739</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01207508560954192</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01170394698697438</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03287217742117932</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.0115926782128484</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05243777802117405</v>
+        <v>0.03162034937121827</v>
       </c>
       <c r="M80" t="n">
+        <v>0.01162972256971672</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.05307268425083206</v>
+      </c>
+      <c r="O80" t="n">
         <v>0.01156924588054752</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.01213729152138743</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01170394698697438</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01242694658975142</v>
+        <v>0.01392875113862128</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009763581411686121</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01268276270856565</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01248421011943934</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03359778975743313</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01236552342703829</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05471400749817962</v>
+        <v>0.0325375324031941</v>
       </c>
       <c r="M81" t="n">
+        <v>0.01240503740769783</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.05456575034838029</v>
+      </c>
+      <c r="O81" t="n">
         <v>0.01234052893925069</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.01242694658975142</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01248421011943934</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0130171217898194</v>
+        <v>0.01500145943982911</v>
       </c>
       <c r="G82" t="n">
+        <v>0.0103738052499165</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01308902703032595</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.0132644732519043</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03450193162863069</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01313836864122819</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05595744430710292</v>
+        <v>0.03333879459877262</v>
       </c>
       <c r="M82" t="n">
+        <v>0.01318035224567895</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.05562389814709573</v>
+      </c>
+      <c r="O82" t="n">
         <v>0.01311181199795386</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0130171217898194</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.0132644732519043</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0132072944773923</v>
+        <v>0.01609154955778715</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01098402908814689</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01329343176159793</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01404473638436926</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03578441423460943</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01391121385541808</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05756779426723446</v>
+        <v>0.03422367015711136</v>
       </c>
       <c r="M83" t="n">
+        <v>0.01395566708366006</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.05784691956990734</v>
+      </c>
+      <c r="O83" t="n">
         <v>0.01388309505665703</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.0132072944773923</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.01404473638436926</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01359694200827098</v>
+        <v>0.01719795451381564</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01159425292637727</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01389553008915675</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01482499951683422</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.0369450487752068</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01468405906960797</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.059044763197865</v>
+        <v>0.03539169327736791</v>
       </c>
       <c r="M84" t="n">
+        <v>0.01473098192164118</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.05923460653974399</v>
+      </c>
+      <c r="O84" t="n">
         <v>0.01465437811536019</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.01359694200827098</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.01482499951683422</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01418554173825635</v>
+        <v>0.01831960732923483</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01220447676460765</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01409487519977749</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01560526264929918</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03758364645026038</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01545690428379787</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06008805691828506</v>
+        <v>0.03644239815869971</v>
       </c>
       <c r="M85" t="n">
+        <v>0.01550629675962229</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.06068675097953469</v>
+      </c>
+      <c r="O85" t="n">
         <v>0.01542566117406336</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.01418554173825635</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.01560526264929918</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01437257102314929</v>
+        <v>0.01945544102536495</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01281470060283803</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01459102028023532</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01638552578176414</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03830001845960759</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01622974949798776</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.06169738124778545</v>
+        <v>0.03717531900026427</v>
       </c>
       <c r="M86" t="n">
+        <v>0.01628161159760341</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.06230314481220828</v>
+      </c>
+      <c r="O86" t="n">
         <v>0.01619694423276653</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.01437257102314929</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.01638552578176414</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01475750721875066</v>
+        <v>0.02060438862352629</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01342492444106842</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01498351851730531</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.0171657889142291</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03929397600308596</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01700259471217765</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06347244200565666</v>
+        <v>0.03828999000121922</v>
       </c>
       <c r="M87" t="n">
+        <v>0.01705692643558452</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.06298357996069387</v>
+      </c>
+      <c r="O87" t="n">
         <v>0.0169682272914697</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.01475750721875066</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.0171657889142291</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01513982768086136</v>
+        <v>0.02176538314503907</v>
       </c>
       <c r="G88" t="n">
+        <v>0.0140351482792988</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01537192309776264</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01794605204669406</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04016533028053298</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01777543992636755</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.06421294501118946</v>
+        <v>0.03898594536072197</v>
       </c>
       <c r="M88" t="n">
+        <v>0.01783224127356563</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.06482784834792032</v>
+      </c>
+      <c r="O88" t="n">
         <v>0.01773951035017287</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.01513982768086136</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.01794605204669406</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01561900976528231</v>
+        <v>0.02293735761122353</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01464537211752918</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0158557872083824</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01872631517915901</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04111389249178621</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01854828514055744</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06541859608367445</v>
+        <v>0.04026271927793013</v>
       </c>
       <c r="M89" t="n">
+        <v>0.01860755611154675</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.06613574189681654</v>
+      </c>
+      <c r="O89" t="n">
         <v>0.01851079340887604</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.01561900976528231</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.01872631517915901</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01609453082781433</v>
+        <v>0.02411924504339994</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01525559595575956</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01623466403593976</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01950657831162397</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04183947383668302</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01932113035474733</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.06718910104240217</v>
+        <v>0.04091984595200113</v>
       </c>
       <c r="M90" t="n">
+        <v>0.01938287094952786</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.06750705253031164</v>
+      </c>
+      <c r="O90" t="n">
         <v>0.01928207646757921</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.01609453082781433</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.01950657831162397</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01636586822425835</v>
+        <v>0.02582480697119804</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01612839897873102</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0165081067672098</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02028684144408893</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04284188551506099</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02009397556893723</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06862416570666335</v>
+        <v>0.04145685958209255</v>
       </c>
       <c r="M91" t="n">
+        <v>0.02015818578750898</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0684415721713344</v>
+      </c>
+      <c r="O91" t="n">
         <v>0.02005335952628237</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.01636586822425835</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.02028684144408893</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01683249931041522</v>
+        <v>0.02654617572991642</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01647604363222033</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01697566858896767</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02106710457655389</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04332093872675763</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02086682078312712</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06972349589574872</v>
+        <v>0.0423732943673619</v>
       </c>
       <c r="M92" t="n">
+        <v>0.02093350062549009</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.07003909274281395</v>
+      </c>
+      <c r="O92" t="n">
         <v>0.02082464258498554</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.01683249931041522</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.02106710457655389</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01719390144208587</v>
+        <v>0.02796649246173796</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01708626747045071</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01713690268798851</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02184736770901885</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04437644467161039</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02163966599731701</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.07078679742894878</v>
+        <v>0.04326868450696669</v>
       </c>
       <c r="M93" t="n">
+        <v>0.02170881546347121</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.07109940616767912</v>
+      </c>
+      <c r="O93" t="n">
         <v>0.02159592564368871</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.01719390144208587</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.02184736770901885</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01744955197507116</v>
+        <v>0.02951273628965336</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0176964913086811</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0175913622510474</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02262763084148381</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04530821454945674</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02241251121150691</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.07151377612555421</v>
+        <v>0.04394256420006443</v>
       </c>
       <c r="M94" t="n">
+        <v>0.02248413030145232</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.07182230436885889</v>
+      </c>
+      <c r="O94" t="n">
         <v>0.02236720870239188</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.01744955197507116</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.02262763084148381</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01789892826517195</v>
+        <v>0.03110271237216037</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01830671514691148</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01793860046491952</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02340789397394877</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04581605956013424</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.0231853564256968</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.07270413780485568</v>
+        <v>0.04509446764581268</v>
       </c>
       <c r="M95" t="n">
+        <v>0.02325944513943343</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.07290757926928226</v>
+      </c>
+      <c r="O95" t="n">
         <v>0.02313849176109505</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.01789892826517195</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.02340789397394877</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01824150766818917</v>
+        <v>0.03265422586775665</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01891693898514186</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01837817051637997</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02418815710641373</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04619979090348036</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02395820163988669</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.07365758828614388</v>
+        <v>0.04572392904336894</v>
       </c>
       <c r="M96" t="n">
+        <v>0.02403475997741455</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.07375502279187812</v>
+      </c>
+      <c r="O96" t="n">
         <v>0.02390977481979821</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.01824150766818917</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.02418815710641373</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01847676753992368</v>
+        <v>0.03408508193493993</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01952716282337224</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01850962559220386</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02496842023887869</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0471592197793326</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02473104685407659</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.07447383338870922</v>
+        <v>0.04623048259189072</v>
       </c>
       <c r="M97" t="n">
+        <v>0.02481007481539567</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.07526442685957546</v>
+      </c>
+      <c r="O97" t="n">
         <v>0.02468105787850138</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.01847676753992368</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.02496842023887869</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01890418523617637</v>
+        <v>0.03582480697119803</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02044215998480787</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01903251887916635</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02574868337134364</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04789415738752845</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02550389206826648</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.07625257893184278</v>
+        <v>0.04721366249053555</v>
       </c>
       <c r="M98" t="n">
+        <v>0.02558538965337678</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.07633558339530322</v>
+      </c>
+      <c r="O98" t="n">
         <v>0.02545234093720455</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.01890418523617637</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.02574868337134364</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01902323811274813</v>
+        <v>0.03629583883512782</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02074761049983301</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01914640356404256</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02652894650380861</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04820441492790536</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02627673728245638</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07719353073483476</v>
+        <v>0.04777300293846096</v>
       </c>
       <c r="M99" t="n">
+        <v>0.02636070449135789</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.07656828432199031</v>
+      </c>
+      <c r="O99" t="n">
         <v>0.02622362399590772</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.01902323811274813</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.02652894650380861</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01933340352543982</v>
+        <v>0.0372193058633584</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02135783433806339</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01955083283360759</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02730920963627356</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04918980360030095</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02704958249664626</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07749639461697599</v>
+        <v>0.04830803813482445</v>
       </c>
       <c r="M100" t="n">
+        <v>0.02713601932933901</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.07776232156256585</v>
+      </c>
+      <c r="O100" t="n">
         <v>0.02699490705461089</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.01933340352543982</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.02730920963627356</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01963415883005236</v>
+        <v>0.03811730000419481</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02196805817629377</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0197453598746366</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02808947276873852</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04965013460455261</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02782242771083616</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07866087639755714</v>
+        <v>0.04861830227878353</v>
       </c>
       <c r="M101" t="n">
+        <v>0.02791133416732012</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.07881748703995856</v>
+      </c>
+      <c r="O101" t="n">
         <v>0.02776619011331406</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.01963415883005236</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.02808947276873852</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0199249813823866</v>
+        <v>0.03898732781676851</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02257828201452415</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02012953787390469</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02886973590120348</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05018521914049787</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02859527292502605</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.0792866818958689</v>
+        <v>0.04960332956949579</v>
       </c>
       <c r="M102" t="n">
+        <v>0.02868664900530124</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.07973357267709758</v>
+      </c>
+      <c r="O102" t="n">
         <v>0.02853747317201722</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.0199249813823866</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.02886973590120348</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02030534853824346</v>
+        <v>0.03982689586021088</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02318850585275454</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02050292001818702</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02964999903366844</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0507948684079742</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02936811813921594</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.08047351693120175</v>
+        <v>0.04976265420611867</v>
       </c>
       <c r="M103" t="n">
+        <v>0.02946196384328235</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.08061037039691182</v>
+      </c>
+      <c r="O103" t="n">
         <v>0.02930875623072039</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.02030534853824346</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.02964999903366844</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02047473765342381</v>
+        <v>0.04063351069365338</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02379872969098492</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02076505949425865</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.0304302621661334</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05097889360681912</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03014096335340584</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.08122108732284644</v>
+        <v>0.0507958103878097</v>
       </c>
       <c r="M104" t="n">
+        <v>0.03023727868126346</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.08064767212233004</v>
+      </c>
+      <c r="O104" t="n">
         <v>0.03008003928942356</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.02047473765342381</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.0304302621661334</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02073262608372851</v>
+        <v>0.0414046788762274</v>
       </c>
       <c r="G105" t="n">
+        <v>0.0244089535292153</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02101550948889479</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03121052529859836</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.05133710593687013</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03091380856759574</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.08172909889009355</v>
+        <v>0.05110233231372646</v>
       </c>
       <c r="M105" t="n">
+        <v>0.03101259351924458</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.08134526977628148</v>
+      </c>
+      <c r="O105" t="n">
         <v>0.03085132234812673</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.02073262608372851</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.03121052529859836</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0210784911849585</v>
+        <v>0.04213790696706438</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02501917736744569</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02125382318887051</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03199078843106332</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05206931659796474</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03168665378178562</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.08219725745223377</v>
+        <v>0.05128175418302647</v>
       </c>
       <c r="M106" t="n">
+        <v>0.03178790835722569</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.08200295528169499</v>
+      </c>
+      <c r="O106" t="n">
         <v>0.0316226054068299</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.0210784911849585</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.03199078843106332</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02141181031291461</v>
+        <v>0.04283070152529573</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02562940120567607</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02137955378096096</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03277105156352828</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05217533678994041</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03245949899597552</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.08262526882855781</v>
+        <v>0.05193361019486717</v>
       </c>
       <c r="M107" t="n">
+        <v>0.03256322319520681</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.08322052056149964</v>
+      </c>
+      <c r="O107" t="n">
         <v>0.03239388846553307</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.02141181031291461</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.03277105156352828</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02143206082339774</v>
+        <v>0.0434805691100529</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02623962504390645</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02169225445194127</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03355131469599323</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05275497771263463</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03323234421016542</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.08381283883835622</v>
+        <v>0.05265743454840616</v>
       </c>
       <c r="M108" t="n">
+        <v>0.03333853803318793</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.08319775753862407</v>
+      </c>
+      <c r="O108" t="n">
         <v>0.03316517152423624</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.02143206082339774</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.03355131469599323</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02163872007220879</v>
+        <v>0.04408501628046726</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02684984888213683</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02179147838858654</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03433157782845819</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05310805056588494</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03400518942435531</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.08385967330091965</v>
+        <v>0.05255276144280091</v>
       </c>
       <c r="M109" t="n">
+        <v>0.03411385287116904</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0837344581359975</v>
+      </c>
+      <c r="O109" t="n">
         <v>0.0339364545829394</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.02163872007220879</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.03433157782845819</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02183126541514865</v>
+        <v>0.04464154959567029</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02746007272036722</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02207677877767193</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03511184096092315</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.0536343665495288</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.0347780346385452</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.08426547803553869</v>
+        <v>0.05301912507720891</v>
       </c>
       <c r="M110" t="n">
+        <v>0.03488916770915015</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.08503041427654878</v>
+      </c>
+      <c r="O110" t="n">
         <v>0.03470773764164257</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.02183126541514865</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.03511184096092315</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02220917420801818</v>
+        <v>0.04514767561479336</v>
       </c>
       <c r="G111" t="n">
+        <v>0.0280702965585976</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02204770880597252</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03589210409338811</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05373373686340371</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03555087985273509</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.08542995886150412</v>
+        <v>0.05325605965078781</v>
       </c>
       <c r="M111" t="n">
+        <v>0.03566448254713126</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.08518541788320688</v>
+      </c>
+      <c r="O111" t="n">
         <v>0.03547902070034574</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.02220917420801818</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.03589210409338811</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02227192380661827</v>
+        <v>0.04560090089696795</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02868052039682798</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0223038216602635</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03667236722585307</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05410597270734718</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03632372506692499</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.0851528215981065</v>
+        <v>0.05386309936269501</v>
       </c>
       <c r="M112" t="n">
+        <v>0.03643979738511238</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.08529926087890083</v>
+      </c>
+      <c r="O112" t="n">
         <v>0.0362503037590489</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.02227192380661827</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.03667236722585307</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02241899156674983</v>
+        <v>0.04599873200132542</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02929074423505837</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02234467052731995</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03745263035831803</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05425088528119668</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03709657028111488</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.08553377206463653</v>
+        <v>0.0542397784120881</v>
       </c>
       <c r="M113" t="n">
+        <v>0.0372151122230935</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.08597173518655948</v>
+      </c>
+      <c r="O113" t="n">
         <v>0.03702158681775208</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.02241899156674983</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.03745263035831803</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02254985484421369</v>
+        <v>0.04633867548699726</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02990096807328875</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02246980859391701</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03823289349078299</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05426828578478973</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03786941549530477</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.08577251608038472</v>
+        <v>0.05448563099812456</v>
       </c>
       <c r="M114" t="n">
+        <v>0.03799042706107461</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.08610263272911184</v>
+      </c>
+      <c r="O114" t="n">
         <v>0.03779286987645524</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.02254985484421369</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.03823289349078299</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02256399099481081</v>
+        <v>0.04662109169207616</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03051119191151913</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02267878904682982</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03901315662324795</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05455798541796386</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03864226070949467</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.08676875946464185</v>
+        <v>0.05470019131996193</v>
       </c>
       <c r="M115" t="n">
+        <v>0.03876574189905573</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.08669174542948682</v>
+      </c>
+      <c r="O115" t="n">
         <v>0.03856415293515841</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.02256399099481081</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.03901315662324795</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.022760877374342</v>
+        <v>0.04688591463399754</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03112141574974951</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02287116507283347</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03979341975571291</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05501979538055651</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03941510592368456</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.08682220803669843</v>
+        <v>0.05478299357675767</v>
       </c>
       <c r="M116" t="n">
+        <v>0.03954105673703684</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.08693886521061339</v>
+      </c>
+      <c r="O116" t="n">
         <v>0.03933543599386158</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.022760877374342</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.03979341975571291</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02283999133860819</v>
+        <v>0.04714667919307115</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03173163958797989</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02284648985870312</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04057368288817786</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05505352687240514</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04018795113787445</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.08693256761584528</v>
+        <v>0.05513357196766944</v>
       </c>
       <c r="M117" t="n">
+        <v>0.04031637157501795</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.08684378399542053</v>
+      </c>
+      <c r="O117" t="n">
         <v>0.04010671905256474</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.02283999133860819</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.04057368288817786</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02290081024341027</v>
+        <v>0.04740332634046717</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03234186342621028</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02290431659121389</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04135394602064282</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05485899109334735</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04096079635206434</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08669954402137303</v>
+        <v>0.05515146069185464</v>
       </c>
       <c r="M118" t="n">
+        <v>0.04109168641299907</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.08700629370683721</v>
+      </c>
+      <c r="O118" t="n">
         <v>0.04087800211126792</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.02290081024341027</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.04135394602064282</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0229428114445491</v>
+        <v>0.04765579704735581</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03295208726444066</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.0230441984571409</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04213420915310778</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05523599924322059</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04173364156625424</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.08692284307257214</v>
+        <v>0.0549361939484708</v>
       </c>
       <c r="M119" t="n">
+        <v>0.04186700125098018</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.08752618626779229</v>
+      </c>
+      <c r="O119" t="n">
         <v>0.04164928516997108</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0229428114445491</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.04213420915310778</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.04790403228490722</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03356231110267104</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02306958405993619</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04291447228557274</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.05540433129315644</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04250648678044413</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.0426423160889613</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.08773907852637669</v>
       </c>
-      <c r="M120" t="n">
+      <c r="O120" t="n">
         <v>0.04242056822867425</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02306958405993619</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.04291447228557274</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0229691948045907</v>
+        <v>0.04814797302429161</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03417253494090142</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02286909914329013</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0436947354180377</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05510389212911004</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04327933199463403</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.08753723238914735</v>
+        <v>0.05490433100185937</v>
       </c>
       <c r="M121" t="n">
+        <v>0.04341763092694242</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.08693728763003372</v>
+      </c>
+      <c r="O121" t="n">
         <v>0.04319185128737742</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.0229691948045907</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.0436947354180377</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02306408035165178</v>
+        <v>0.04838756023667917</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03478275877913181</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02296273878248885</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04447499855050266</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.0552014279217411</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04405217720882392</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08703250596345846</v>
+        <v>0.05519283816162163</v>
       </c>
       <c r="M122" t="n">
+        <v>0.04419294576492352</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.08702761453253088</v>
+      </c>
+      <c r="O122" t="n">
         <v>0.04396313434608059</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.02306408035165178</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.04447499855050266</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02285315809120142</v>
+        <v>0.04862273489324009</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03539298261736219</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.0230491875303319</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04525526168296762</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05519021795913673</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04482502242301381</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.08750144573689722</v>
+        <v>0.05505908474267204</v>
       </c>
       <c r="M123" t="n">
+        <v>0.04496826060290464</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.08737377863583767</v>
+      </c>
+      <c r="O123" t="n">
         <v>0.04473441740478376</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.02285315809120142</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.04525526168296762</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02293658482624343</v>
+        <v>0.04885343796514454</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03600320645559257</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02302867637674168</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04603552481543258</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05487070435925254</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04559786763720371</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.08724552569798827</v>
+        <v>0.05490381111037307</v>
       </c>
       <c r="M124" t="n">
+        <v>0.04574357544088575</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.08737760781229847</v>
+      </c>
+      <c r="O124" t="n">
         <v>0.04550570046348693</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.02293658482624343</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.04603552481543258</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02281451735978157</v>
+        <v>0.04907961042356274</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03661343029382295</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02300143631164051</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04681578794789754</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05494301939910617</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.0463707128513936</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.0874654554414811</v>
+        <v>0.05482775763008724</v>
       </c>
       <c r="M125" t="n">
+        <v>0.04651889027886687</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.087041035431483</v>
+      </c>
+      <c r="O125" t="n">
         <v>0.0462769835221901</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.02281451735978157</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.04681578794789754</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02278711249481968</v>
+        <v>0.04930119323966486</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03722365413205334</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02276769832495074</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04759605108036249</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05500729535571541</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04714355806558349</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.08696194456212503</v>
+        <v>0.0547316646671771</v>
       </c>
       <c r="M126" t="n">
+        <v>0.04729420511684799</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.08676599486296138</v>
+      </c>
+      <c r="O126" t="n">
         <v>0.04704826658089326</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.02278711249481968</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.04759605108036249</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02285452703436157</v>
+        <v>0.04951812738462109</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03783387797028372</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02292769340659473</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04837631421282745</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05506366450609793</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04791640327977339</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.0873357026546695</v>
+        <v>0.05491627258700518</v>
       </c>
       <c r="M127" t="n">
+        <v>0.0480695199548291</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.08625441947630341</v>
+      </c>
+      <c r="O127" t="n">
         <v>0.04781954963959643</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02285452703436157</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.04837631421282745</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.022816917781411</v>
+        <v>0.04973035382960162</v>
       </c>
       <c r="G128" t="n">
+        <v>0.0384441018085141</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02288165254649484</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04915657734529241</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05501225912727148</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04868924849396328</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.08668743931386397</v>
+        <v>0.0548823217549339</v>
       </c>
       <c r="M128" t="n">
+        <v>0.04884483479281022</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.08630824264107906</v>
+      </c>
+      <c r="O128" t="n">
         <v>0.0485908326982996</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.022816917781411</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.04915657734529241</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02267444153897177</v>
+        <v>0.04993781354577664</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03905432564674449</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02272980673457338</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04993684047775737</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.0546532114962538</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04946209370815317</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.08701786413445772</v>
+        <v>0.05443055253632589</v>
       </c>
       <c r="M129" t="n">
+        <v>0.04962014963079133</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.08572939772685817</v>
+      </c>
+      <c r="O129" t="n">
         <v>0.04936211575700276</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.02267444153897177</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.04993684047775737</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02282725511004775</v>
+        <v>0.05014044750431632</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03966454948497487</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02257238696075274</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05071710361022233</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05458665389006259</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05023493892234307</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.08612768671120014</v>
+        <v>0.05456170529654358</v>
       </c>
       <c r="M130" t="n">
+        <v>0.05039546446877244</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.08601981810321074</v>
+      </c>
+      <c r="O130" t="n">
         <v>0.05013339881570594</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.02282725511004775</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.05071710361022233</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02267551529764265</v>
+        <v>0.05033819667639088</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04027477332320525</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02270962421495527</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05149736674268729</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.0550127185857156</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05100778413653296</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.08591761663884062</v>
+        <v>0.05417652040094956</v>
       </c>
       <c r="M131" t="n">
+        <v>0.05117077930675356</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.08528143713970665</v>
+      </c>
+      <c r="O131" t="n">
         <v>0.0509046818744091</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.02267551529764265</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.05149736674268729</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02271937890476035</v>
+        <v>0.05053100203317051</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04088499716143564</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02254174948710329</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05227762987515225</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.05443153786023053</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05178062935072286</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.08618836351212866</v>
+        <v>0.05367573821490629</v>
       </c>
       <c r="M132" t="n">
+        <v>0.05194609414473467</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.08471618820591581</v>
+      </c>
+      <c r="O132" t="n">
         <v>0.05167596493311227</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.02271937890476035</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.05227762987515225</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0225590027344046</v>
+        <v>0.05071880454582537</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04149522099966602</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02256899376711918</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05305789300761721</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.0543432439906251</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05255347456491275</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.08564063692581347</v>
+        <v>0.05356009910377632</v>
       </c>
       <c r="M133" t="n">
+        <v>0.05272140898271578</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.08482600467140805</v>
+      </c>
+      <c r="O133" t="n">
         <v>0.05244724799181544</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.0225590027344046</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.05305789300761721</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02239454358957922</v>
+        <v>0.05090154518552566</v>
       </c>
       <c r="G134" t="n">
+        <v>0.0421054448378964</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02239158804492526</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05383815614008217</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05474796925391706</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05332631977910265</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08577514647464463</v>
+        <v>0.05343034343292216</v>
       </c>
       <c r="M134" t="n">
+        <v>0.0534967238206969</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.08431281990575351</v>
+      </c>
+      <c r="O134" t="n">
         <v>0.05321853105051861</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.02239454358957922</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.05383815614008217</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02242615827328803</v>
+        <v>0.05107916492344159</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04271566867612678</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02240976331044391</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05461841927254713</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05454584592712411</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05409916499329253</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.08549260175337137</v>
+        <v>0.05308721156770629</v>
       </c>
       <c r="M135" t="n">
+        <v>0.05427203865867802</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.08417856727852197</v>
+      </c>
+      <c r="O135" t="n">
         <v>0.05398981410922177</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.02242615827328803</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.05461841927254713</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02235400358853479</v>
+        <v>0.05125160473074331</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04332589251435717</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02232375055359744</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05539868240501209</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05433700628726398</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05487201020748243</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.08529371235674321</v>
+        <v>0.0532314438734913</v>
       </c>
       <c r="M136" t="n">
+        <v>0.05504735349665912</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.08322518015928321</v>
+      </c>
+      <c r="O136" t="n">
         <v>0.05476109716792495</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.02235400358853479</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.05539868240501209</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02217823633832333</v>
+        <v>0.05141880557860103</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04393611635258755</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02213378076430823</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05617894553747704</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05392158261135443</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05564485542167232</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.08497918787950942</v>
+        <v>0.05286378071563966</v>
       </c>
       <c r="M137" t="n">
+        <v>0.05582266833464024</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.08255459191760739</v>
+      </c>
+      <c r="O137" t="n">
         <v>0.05553238022662811</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.02217823633832333</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.05617894553747704</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02219901332565744</v>
+        <v>0.05158070843818496</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04454634019081793</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02204008493249862</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05695920866994199</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05379970717641311</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05641770063586221</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.08444973791641958</v>
+        <v>0.05238496245951391</v>
       </c>
       <c r="M138" t="n">
+        <v>0.05659798317262136</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.08236873592306426</v>
+      </c>
+      <c r="O138" t="n">
         <v>0.05630366328533128</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.02219901332565744</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.05695920866994199</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02211649135354093</v>
+        <v>0.05173725428066524</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04515656402904831</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02194289404809097</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05773947180240696</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05417151225945782</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05719054585005211</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.08410607206222281</v>
+        <v>0.0520957294704765</v>
       </c>
       <c r="M139" t="n">
+        <v>0.05737329801060248</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.08206954554522383</v>
+      </c>
+      <c r="O139" t="n">
         <v>0.05707494634403445</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.02211649135354093</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.05773947180240696</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02193082722497759</v>
+        <v>0.0518883840772121</v>
       </c>
       <c r="G140" t="n">
+        <v>0.0457667878672787</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02194243910100761</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05851973493487192</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.05383713013750627</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.057963391064242</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.08394889991166865</v>
+        <v>0.05169682211389001</v>
       </c>
       <c r="M140" t="n">
+        <v>0.05814861284858358</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.08175895415365597</v>
+      </c>
+      <c r="O140" t="n">
         <v>0.05784622940273762</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.02193082722497759</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.05851973493487192</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02194217774297125</v>
+        <v>0.0520340387989957</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04637701170550908</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02163895108117089</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05929999806733687</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05379669308757615</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05873623627843189</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.08327893105950657</v>
+        <v>0.05168898075511696</v>
       </c>
       <c r="M141" t="n">
+        <v>0.0589239276865647</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.08083889511793058</v>
+      </c>
+      <c r="O141" t="n">
         <v>0.05861751246144078</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.02194217774297125</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.05929999806733687</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02175069971052566</v>
+        <v>0.05217415941718626</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04698723554373946</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0215326609785032</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06008026119980184</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05335033338668518</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05950908149262178</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.08249687510048581</v>
+        <v>0.05147294575951986</v>
       </c>
       <c r="M142" t="n">
+        <v>0.05969924252454582</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.08001130180761756</v>
+      </c>
+      <c r="O142" t="n">
         <v>0.05938879552014396</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.02175069971052566</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.06008026119980184</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02175654993064469</v>
+        <v>0.05230868690295393</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04759745938196985</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02162379978292683</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.0608605243322668</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05359818331185112</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06028192670681168</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.08230344162935588</v>
+        <v>0.05074945749246118</v>
       </c>
       <c r="M143" t="n">
+        <v>0.06047455736252692</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.07987810759228697</v>
+      </c>
+      <c r="O143" t="n">
         <v>0.06016007857884711</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.02175654993064469</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.0608605243322668</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02155988520633206</v>
+        <v>0.05243756222746895</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04820768322020023</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02141259848436416</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06164078746473176</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.05304037514009169</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06105477192100157</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.08199934024086603</v>
+        <v>0.05061925631930347</v>
       </c>
       <c r="M144" t="n">
+        <v>0.06124987220050804</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.07934124584150853</v>
+      </c>
+      <c r="O144" t="n">
         <v>0.06093136163755029</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.02155988520633206</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.06164078746473176</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02146086234059164</v>
+        <v>0.05256072636190146</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04881790705843061</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02129928807273757</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06242105059719671</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.05317704114842461</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06182761713519147</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.08188528052976585</v>
+        <v>0.05008308260540928</v>
       </c>
       <c r="M145" t="n">
+        <v>0.06202518703848916</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.07900264992485234</v>
+      </c>
+      <c r="O145" t="n">
         <v>0.06170264469625345</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.02146086234059164</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.06242105059719671</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02145963813642721</v>
+        <v>0.05267812027742168</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04942813089666099</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02108409953796934</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06320131372966167</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05310831361386759</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06260046234938135</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.08146197209080447</v>
+        <v>0.05014167671614111</v>
       </c>
       <c r="M146" t="n">
+        <v>0.06280050187647028</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.07816425321188808</v>
+      </c>
+      <c r="O146" t="n">
         <v>0.06247392775495662</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.02145963813642721</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.06320131372966167</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02135636939684254</v>
+        <v>0.05278968494519978</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05003835473489137</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02096726386998188</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06398157686212663</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05253432481343834</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06337330756357125</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.08073012451873152</v>
+        <v>0.04939577901686143</v>
       </c>
       <c r="M147" t="n">
+        <v>0.06357581671445138</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.07762798907218582</v>
+      </c>
+      <c r="O147" t="n">
         <v>0.0632452108136598</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.02135636939684254</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.06398157686212663</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02115121292484148</v>
+        <v>0.05289536133640595</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05064857857312175</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02104901205869751</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06476183999459159</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.05245520702415468</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06414615277776115</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.08029044740829622</v>
+        <v>0.04894612987293281</v>
       </c>
       <c r="M148" t="n">
+        <v>0.06435113155243251</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.07709579087531554</v>
+      </c>
+      <c r="O148" t="n">
         <v>0.06401649387236297</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.02115121292484148</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.06476183999459159</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02104432552342782</v>
+        <v>0.05299509042221039</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05125880241135214</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02092957509403859</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06554210312705655</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.05227109252303422</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06491899799195104</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.07964365035424814</v>
+        <v>0.04909346964971772</v>
       </c>
       <c r="M149" t="n">
+        <v>0.06512644639041362</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.07666959199084705</v>
+      </c>
+      <c r="O149" t="n">
         <v>0.06478777693106613</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.02104432552342782</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.06554210312705655</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02103586399560532</v>
+        <v>0.05308881317378327</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05186902624958252</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02080918396592746</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06632236625952151</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05188211358709471</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06569184320614094</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.07929044295133653</v>
+        <v>0.04863853871257875</v>
       </c>
       <c r="M150" t="n">
+        <v>0.06590176122839472</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.07655132578835028</v>
+      </c>
+      <c r="O150" t="n">
         <v>0.0655590599897693</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.02103586399560532</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.06632236625952151</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02082598514437785</v>
+        <v>0.0531764705622948</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0524792500878129</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02048806966428646</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06710262939198647</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.0519884024933539</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06646468842033083</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07933153479431077</v>
+        <v>0.04818207742687836</v>
       </c>
       <c r="M151" t="n">
+        <v>0.06667707606637585</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.0758429256373952</v>
+      </c>
+      <c r="O151" t="n">
         <v>0.06633034304847248</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.02082598514437785</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.06710262939198647</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02081484577274914</v>
+        <v>0.05325800355891517</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05308947392604329</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02046646317903797</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06788289252445143</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05149009151882952</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06723753363452072</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.07826763547792037</v>
+        <v>0.04772482615797904</v>
       </c>
       <c r="M152" t="n">
+        <v>0.06745239090435697</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.07504632490755159</v>
+      </c>
+      <c r="O152" t="n">
         <v>0.06710162610717563</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.02081484577274914</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.06788289252445143</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02080260268372305</v>
+        <v>0.05333335313481456</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05369969776427367</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02044459550010432</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06866315565691639</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05128731294053926</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06801037884871061</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.07799945459691449</v>
+        <v>0.04736752527124338</v>
       </c>
       <c r="M153" t="n">
+        <v>0.06822770574233808</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.07426345696838949</v>
+      </c>
+      <c r="O153" t="n">
         <v>0.06787290916587881</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.02080260268372305</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.06866315565691639</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02058941268030334</v>
+        <v>0.05340246026116315</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05430992160250405</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02012269761740786</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06944341878938134</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.05128019903550088</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06878322406290051</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.07762770174604278</v>
+        <v>0.04701091513203387</v>
       </c>
       <c r="M154" t="n">
+        <v>0.06900302058031919</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.07389625518947884</v>
+      </c>
+      <c r="O154" t="n">
         <v>0.06864419222458197</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.02058941268030334</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.06944341878938134</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02037543256549383</v>
+        <v>0.05346526590913114</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05492014544073444</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02010100052087095</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.0702236819218463</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05106888208073213</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.0695560692770904</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.0769530865200545</v>
+        <v>0.046855736105713</v>
       </c>
       <c r="M155" t="n">
+        <v>0.06977833541830031</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.07344665294038943</v>
+      </c>
+      <c r="O155" t="n">
         <v>0.06941547528328514</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.02037543256549383</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.0702236819218463</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02026081914229833</v>
+        <v>0.05352171104988871</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05553036927896482</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01987973520041592</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07100394505431126</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05075349435325061</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.0703289144912803</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.0761763185136991</v>
+        <v>0.04610272855764327</v>
       </c>
       <c r="M156" t="n">
+        <v>0.07055365025628142</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.0729165835906912</v>
+      </c>
+      <c r="O156" t="n">
         <v>0.0701867583419883</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.02026081914229833</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.07100394505431126</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02034572921372065</v>
+        <v>0.05357173665460607</v>
       </c>
       <c r="G157" t="n">
+        <v>0.0561405931171952</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.01985913264596514</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07178420818677622</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.0507341681300742</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07110175970547018</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.07589810732172597</v>
+        <v>0.04575263285318729</v>
       </c>
       <c r="M157" t="n">
+        <v>0.07132896509426252</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.07290798050995417</v>
+      </c>
+      <c r="O157" t="n">
         <v>0.07095804140069148</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.02034572921372065</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.07178420818677622</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02003031958276452</v>
+        <v>0.05361528369445336</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05675081695542559</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01973516034954333</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07256447131924118</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05061103568822051</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07187460491966008</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.07551916253888441</v>
+        <v>0.04539548242277497</v>
       </c>
       <c r="M158" t="n">
+        <v>0.07210427993224365</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.0723178990530941</v>
+      </c>
+      <c r="O158" t="n">
         <v>0.07172932445939464</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.02003031958276452</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.07256447131924118</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02001474705243383</v>
+        <v>0.05365229314060083</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05736104079365597</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01960104859058846</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07334473445170614</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.05028422930470733</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07264745013384998</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.07514019375992387</v>
+        <v>0.04551403321106953</v>
       </c>
       <c r="M159" t="n">
+        <v>0.07287959477022476</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.07213827804906764</v>
+      </c>
+      <c r="O159" t="n">
         <v>0.07250060751809781</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.02001474705243383</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.07334473445170614</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01999916842573234</v>
+        <v>0.05368270596421864</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05797126463188635</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.01955721570176452</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.0741249975841711</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04985388125655235</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07342029534803987</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.07476191057959375</v>
+        <v>0.04460920878911748</v>
       </c>
       <c r="M160" t="n">
+        <v>0.07365490960820588</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.07136807782540444</v>
+      </c>
+      <c r="O160" t="n">
         <v>0.07327189057680097</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.01999916842573234</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.0741249975841711</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01988374050566385</v>
+        <v>0.05370646313647697</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05858148847011674</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01930419570825438</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07490526071663606</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.0498201238207733</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07419314056222977</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.07428502259264341</v>
+        <v>0.04438224149631448</v>
       </c>
       <c r="M161" t="n">
+        <v>0.07443022444618699</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.07170639208933732</v>
+      </c>
+      <c r="O161" t="n">
         <v>0.07404317363550415</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.01988374050566385</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.07490526071663606</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01956862009523218</v>
+        <v>0.05372350562854603</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05919171230834711</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01914252263524091</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07568552384910102</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04938308927438789</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07496598577641966</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.07379875405857689</v>
+        <v>0.04393436367205633</v>
       </c>
       <c r="M162" t="n">
+        <v>0.07520553928416811</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.07085231454809915</v>
+      </c>
+      <c r="O162" t="n">
         <v>0.07481445669420732</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.01956862009523218</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.07568552384910102</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01945396399744111</v>
+        <v>0.053733774411596</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05980193614657749</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.01907273050790705</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07646578698156598</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04924290989441393</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07573883099060955</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.0732819453816721</v>
+        <v>0.04346680765573868</v>
       </c>
       <c r="M163" t="n">
+        <v>0.07598085412214922</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.07110493890892289</v>
+      </c>
+      <c r="O163" t="n">
         <v>0.07558573975291048</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.01945396399744111</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.07646578698156598</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01933992901529447</v>
+        <v>0.05373721045679706</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06041215998480787</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01869535335143566</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07724605011403093</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04919971795786904</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07651167620479944</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.07273512348808098</v>
+        <v>0.04288080578675729</v>
       </c>
       <c r="M164" t="n">
+        <v>0.07675616896013034</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.07016335887904157</v>
+      </c>
+      <c r="O164" t="n">
         <v>0.07635702281161366</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.01933992901529447</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.07724605011403093</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01942667195179602</v>
+        <v>0.05373721045679703</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06041215998480787</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01851092519100961</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07802631324649589</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04875364574177102</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07728452141898934</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.07185936565695783</v>
+        <v>0.04277759040450793</v>
       </c>
       <c r="M165" t="n">
+        <v>0.07753148379811145</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.07032666816568794</v>
+      </c>
+      <c r="O165" t="n">
         <v>0.07712830587031683</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.01942667195179602</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.07802631324649589</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0193143496099496</v>
+        <v>0.05282609859126713</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06041189145634386</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01841998005181182</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07880657637896085</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04840482552313752</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07805736663317923</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.07135574916745713</v>
+        <v>0.04205839384838622</v>
       </c>
       <c r="M166" t="n">
+        <v>0.07830679863609256</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.06949396047609507</v>
+      </c>
+      <c r="O166" t="n">
         <v>0.07789958892901999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.0193143496099496</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.07880657637896085</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01910311879275899</v>
+        <v>0.0519252310815872</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06041162292787985</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01812305195902517</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07958683951142581</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04815338957898629</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07883021184736912</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.07092535129873329</v>
+        <v>0.04142444845778798</v>
       </c>
       <c r="M167" t="n">
+        <v>0.07908211347407368</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.06896432951749581</v>
+      </c>
+      <c r="O167" t="n">
         <v>0.07867087198772316</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.01910311879275899</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.07958683951142581</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01899313630322798</v>
+        <v>0.05103509847929447</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06041135439941582</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.01792067493783255</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08036710264389077</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04809947018633509</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07960305706155901</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.07056924932994074</v>
+        <v>0.04107698657210887</v>
       </c>
       <c r="M168" t="n">
+        <v>0.07985742831205479</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.06883686899712316</v>
+      </c>
+      <c r="O168" t="n">
         <v>0.07944215504642634</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.01899313630322798</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.08036710264389077</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01878455894436039</v>
+        <v>0.05015619133604212</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06041108587095181</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01771338301341684</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08114736577635573</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04754319962220166</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08037590227574891</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.0695885205402339</v>
+        <v>0.0402172405307446</v>
       </c>
       <c r="M169" t="n">
+        <v>0.08063274315003591</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.0691106726222101</v>
+      </c>
+      <c r="O169" t="n">
         <v>0.08021343810512949</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.01878455894436039</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.08114736577635573</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01887754351916006</v>
+        <v>0.04928900020336683</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06041081734248779</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01750171021096093</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08192762890882069</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04728471016360361</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08114874748993879</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06858424220876735</v>
+        <v>0.03984644267309093</v>
       </c>
       <c r="M170" t="n">
+        <v>0.08140805798801702</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.06878483409998937</v>
+      </c>
+      <c r="O170" t="n">
         <v>0.08098472116383267</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.01887754351916006</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.08192762890882069</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01867224683063071</v>
+        <v>0.04843401563284427</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06041054881402377</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01748619055564772</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08270789204128565</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04702413408755879</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08192159270412869</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06805749161469532</v>
+        <v>0.03896582533854362</v>
       </c>
       <c r="M171" t="n">
+        <v>0.08218337282599814</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.06785844713769418</v>
+      </c>
+      <c r="O171" t="n">
         <v>0.08175600422253583</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.01867224683063071</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.08270789204128565</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0185686186783091</v>
+        <v>0.04759172817601377</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06041028028555975</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0172673580726601</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08348815517375061</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04686160367108486</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08269443791831858</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.06700934603717223</v>
+        <v>0.03847662086649828</v>
       </c>
       <c r="M172" t="n">
+        <v>0.08295868766397925</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.0678306054425572</v>
+      </c>
+      <c r="O172" t="n">
         <v>0.082527287281239</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.0185686186783091</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.08348815517375061</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01856515635358316</v>
+        <v>0.04676262838452431</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06041001175709573</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01684574678718095</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08426841830621556</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04659725119119956</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08346728313250848</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.06664088275535263</v>
+        <v>0.03828006159635075</v>
       </c>
       <c r="M173" t="n">
+        <v>0.08373400250196036</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.06780040272181154</v>
+      </c>
+      <c r="O173" t="n">
         <v>0.08329857033994216</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.01856515635358316</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.08426841830621556</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01846142341572139</v>
+        <v>0.04594720680991465</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06040974322863172</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01682189072439315</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08504868143868052</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04623120892492064</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08424012834669836</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.06605317904839086</v>
+        <v>0.0373773798674967</v>
       </c>
       <c r="M174" t="n">
+        <v>0.08450931733994148</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.06736693268269001</v>
+      </c>
+      <c r="O174" t="n">
         <v>0.08406985339864534</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.01846142341572139</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.08504868143868052</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01815728994460331</v>
+        <v>0.04514595400376045</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06040947470016771</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01639632390947962</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08582894457114548</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04616360914926576</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08501297356088826</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.06524731219544144</v>
+        <v>0.03666980801933187</v>
       </c>
       <c r="M175" t="n">
+        <v>0.08528463217792259</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.06672928903242564</v>
+      </c>
+      <c r="O175" t="n">
         <v>0.0848411364573485</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.01815728994460331</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.08582894457114548</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0182526260201084</v>
+        <v>0.04435936051760348</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06040920617170368</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01636958036762323</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08660920770361044</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04568679176646998</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08578581877507815</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.06432435947565868</v>
+        <v>0.03645857839125191</v>
       </c>
       <c r="M176" t="n">
+        <v>0.08605994701590371</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.06658656547825126</v>
+      </c>
+      <c r="O176" t="n">
         <v>0.08561241951605167</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.0182526260201084</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.08660920770361044</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01804730172211613</v>
+        <v>0.04358791690308791</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06040893764323967</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01614219412400689</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.0873894708360754</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04557413935221744</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08655866398926805</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.06298539816819709</v>
+        <v>0.03534492332265268</v>
       </c>
       <c r="M177" t="n">
+        <v>0.08683526185388483</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.06623785572739993</v>
+      </c>
+      <c r="O177" t="n">
         <v>0.08638370257475485</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.01804730172211613</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.0873894708360754</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01804118713050604</v>
+        <v>0.04283211371175486</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06040866911477565</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01581469920381343</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08816973396854036</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04502586375842735</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08733150920345795</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.06243150555221105</v>
+        <v>0.03493007515292978</v>
       </c>
       <c r="M178" t="n">
+        <v>0.08761057669186594</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.06558225348710439</v>
+      </c>
+      <c r="O178" t="n">
         <v>0.08715498563345801</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.01804118713050604</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.08816973396854036</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01793415232515756</v>
+        <v>0.04209244149518001</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06040840058631164</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01558762963222579</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08894999710100532</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04464472984774379</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08810435441764784</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.06196375890685502</v>
+        <v>0.03421526622147894</v>
       </c>
       <c r="M179" t="n">
+        <v>0.08838589152984705</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.06541885246459778</v>
+      </c>
+      <c r="O179" t="n">
         <v>0.08792626869216118</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.01793415232515756</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.08894999710100532</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01762606738595023</v>
+        <v>0.0413693908049079</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06040813205784761</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01546151943442688</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08973026023347028</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04443350248281094</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08887719963183772</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.0603832355112835</v>
+        <v>0.03400172886769598</v>
       </c>
       <c r="M180" t="n">
+        <v>0.08916120636782816</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.06534674636711296</v>
+      </c>
+      <c r="O180" t="n">
         <v>0.08869755175086434</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.01762606738595023</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.08973026023347028</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01751680239276353</v>
+        <v>0.0406634521925772</v>
       </c>
       <c r="G181" t="n">
+        <v>0.0604078635293836</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01513690263559953</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09051052336593524</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04429494652627283</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08965004484602762</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05959101264465072</v>
+        <v>0.03289069543097653</v>
       </c>
       <c r="M181" t="n">
+        <v>0.08993652120580928</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.06496502890188288</v>
+      </c>
+      <c r="O181" t="n">
         <v>0.08946883480956752</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.01751680239276353</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.09051052336593524</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01740622742547693</v>
+        <v>0.03997511620973174</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06040759500091958</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01481431326092664</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09129078649840019</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.04383182684077364</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09042289006021752</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05928816758611127</v>
+        <v>0.03248339825071636</v>
       </c>
       <c r="M182" t="n">
+        <v>0.09071183604379039</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.06437279377614041</v>
+      </c>
+      <c r="O182" t="n">
         <v>0.09024011786827069</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.01740622742547693</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.09129078649840019</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01749421256396994</v>
+        <v>0.0393048734079472</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06040732647245557</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01479428533559113</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09207104963086515</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.04294690828895739</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09119573527440741</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05827577761481945</v>
+        <v>0.03218106966631115</v>
       </c>
       <c r="M183" t="n">
+        <v>0.09148715088177151</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.06346913469711851</v>
+      </c>
+      <c r="O183" t="n">
         <v>0.09101140092697385</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.01749421256396994</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.09207104963086515</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01718062788812205</v>
+        <v>0.0386532143387713</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06040705794399154</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01437735288477589</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09285131276333011</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04254295573346828</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09196858048859731</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05705492000992984</v>
+        <v>0.0312849420171567</v>
       </c>
       <c r="M184" t="n">
+        <v>0.09226246571975263</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.06305314537205009</v>
+      </c>
+      <c r="O184" t="n">
         <v>0.09178268398567702</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.01718062788812205</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.09285131276333011</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01706534347781274</v>
+        <v>0.03802062955383647</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06040678941552752</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01436404993366379</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09363157589579507</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04202273403695034</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09274142570278719</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.0560266720505968</v>
+        <v>0.03049624764264863</v>
       </c>
       <c r="M185" t="n">
+        <v>0.09303778055773373</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.06272391950816814</v>
+      </c>
+      <c r="O185" t="n">
         <v>0.09255396704438019</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.01706534347781274</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.09363157589579507</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01694822941292151</v>
+        <v>0.03740760960468959</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06040652088706351</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01415491050743772</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09441183902826003</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04138900806204771</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09351427091697709</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.0547921110159747</v>
+        <v>0.03021621888218276</v>
       </c>
       <c r="M186" t="n">
+        <v>0.09381309539571485</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.06278055081270562</v>
+      </c>
+      <c r="O186" t="n">
         <v>0.09332525010308335</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.01694822941292151</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.09441183902826003</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01692915577332786</v>
+        <v>0.03681464504290635</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0604062523585995</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01385046863128056</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09519210216072499</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04104454267140456</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09428711613116698</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05385231418521802</v>
+        <v>0.02954608807515471</v>
       </c>
       <c r="M187" t="n">
+        <v>0.09458841023369598</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.06162213299289526</v>
+      </c>
+      <c r="O187" t="n">
         <v>0.09409653316178652</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.01692915577332786</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0.09519210216072499</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01690799263891124</v>
+        <v>0.03624222642003799</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06040598383013547</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01375125833037523</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09597236529318995</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04059210272766486</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09505996134535688</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05290835883748118</v>
+        <v>0.02878708756096032</v>
       </c>
       <c r="M188" t="n">
+        <v>0.09536372507167708</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.06134775975597029</v>
+      </c>
+      <c r="O188" t="n">
         <v>0.09486781622048969</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.01690799263891124</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0.09597236529318995</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0166846100895512</v>
+        <v>0.03569084428770999</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06040571530167146</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0134578136299046</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09675262842565491</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03993445309347285</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09583280655954678</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.05256132225191873</v>
+        <v>0.02864044967899521</v>
       </c>
       <c r="M189" t="n">
+        <v>0.09613903990965819</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.0610565248091634</v>
+      </c>
+      <c r="O189" t="n">
         <v>0.09563909927919285</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.0166846100895512</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0.09675262842565491</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01645887820512718</v>
+        <v>0.03515898611187181</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06040544677320744</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01337066855505155</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09753289155811987</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03957435863147254</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09660565177373667</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.05131228170768481</v>
+        <v>0.02800740676865515</v>
       </c>
       <c r="M190" t="n">
+        <v>0.09691435474763932</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.06054752185970769</v>
+      </c>
+      <c r="O190" t="n">
         <v>0.09641038233789602</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.01645887820512718</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0.09753289155811987</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01653066706551871</v>
+        <v>0.03463512393049494</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06040517824474343</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.013190357130999</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09831315469058483</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03851458420430809</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09737849698792655</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05006231448393406</v>
+        <v>0.02758919116933589</v>
       </c>
       <c r="M191" t="n">
+        <v>0.09768966958562043</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.05971984461483593</v>
+      </c>
+      <c r="O191" t="n">
         <v>0.0971816653965992</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0.01653066706551871</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0.09831315469058483</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01619984675060523</v>
+        <v>0.03411774520953222</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0604049097162794</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0128174133829298</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09909341782304978</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03835789467462355</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09815134220211645</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.04941249785982094</v>
+        <v>0.02678703522043305</v>
       </c>
       <c r="M192" t="n">
+        <v>0.09846498442360153</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.05987258678178126</v>
+      </c>
+      <c r="O192" t="n">
         <v>0.09795294845530236</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.01619984675060523</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0.09909341782304978</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01626628734026631</v>
+        <v>0.03360734050060433</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06040464118781539</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01274927099497737</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09987368095551474</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03750705490506306</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09892418741630635</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.04816390911449964</v>
+        <v>0.02628976464234514</v>
       </c>
       <c r="M193" t="n">
+        <v>0.09924029926158266</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.05878239275037089</v>
+      </c>
+      <c r="O193" t="n">
         <v>0.09872423151400553</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.01626628734026631</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0.09987368095551474</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01592985891438134</v>
+        <v>0.03310440035526429</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06040437265935137</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01258227919741031</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1006539440879797</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03726482975827083</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09969703263049624</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.04771762552712483</v>
+        <v>0.02568327815672802</v>
       </c>
       <c r="M194" t="n">
+        <v>0.1000156140995638</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.05802348510410982</v>
+      </c>
+      <c r="O194" t="n">
         <v>0.09949551457270871</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0.01592985891438134</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0.1006539440879797</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01589043155282992</v>
+        <v>0.0326094153250878</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06040410413088736</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01231643205484022</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1014342072204447</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.0365334911302749</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1004698778446861</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.04637472437685092</v>
+        <v>0.02516853269553712</v>
       </c>
       <c r="M195" t="n">
+        <v>0.1007909289375449</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.05789946885798058</v>
+      </c>
+      <c r="O195" t="n">
         <v>0.1002667976314119</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0.01589043155282992</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0.1014342072204447</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01564787533549143</v>
+        <v>0.0321228759616295</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06040383560242333</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0122517343972422</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1022144703529096</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03589114299715601</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.101242723058876</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.0453362829428321</v>
+        <v>0.02504652287267009</v>
       </c>
       <c r="M196" t="n">
+        <v>0.101566243775526</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.05681402776761463</v>
+      </c>
+      <c r="O196" t="n">
         <v>0.101038080690115</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.01564787533549143</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.1022144703529096</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01550206034224545</v>
+        <v>0.03164527281650747</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06040356707395932</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01218819105459139</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1029947334853746</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03572623396233887</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1020155682730659</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04490337850422316</v>
+        <v>0.02431824330202467</v>
       </c>
       <c r="M197" t="n">
+        <v>0.1023415586135071</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.05587084558864358</v>
+      </c>
+      <c r="O197" t="n">
         <v>0.1018093637488182</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.01550206034224545</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0.1029947334853746</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01555285665297144</v>
+        <v>0.03117709644127601</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0604032985454953</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01182580685686291</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1037749966178395</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03494074612395359</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1027884134872558</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04376799139534976</v>
+        <v>0.02368468859749853</v>
       </c>
       <c r="M198" t="n">
+        <v>0.1031168734514882</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.05507360607669876</v>
+      </c>
+      <c r="O198" t="n">
         <v>0.1025806468075214</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.01555285665297144</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0.1037749966178395</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01540013434754887</v>
+        <v>0.03071883738751079</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06040303001703129</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01166458663403187</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1045552597503045</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03453666158013044</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1035612587014457</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.04318026374057726</v>
+        <v>0.02334685337298947</v>
       </c>
       <c r="M199" t="n">
+        <v>0.1038921882894693</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.05392599298741174</v>
+      </c>
+      <c r="O199" t="n">
         <v>0.1033519298662245</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0.01540013434754887</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0.1045552597503045</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01524376350585725</v>
+        <v>0.03027098620676825</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06040276148856726</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.0117045352160734</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1053355228827694</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03361596242899964</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1043341039156356</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.04163858634444156</v>
+        <v>0.02300573224239513</v>
       </c>
       <c r="M200" t="n">
+        <v>0.1046675031274505</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.05323169007641387</v>
+      </c>
+      <c r="O200" t="n">
         <v>0.1041232129249277</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.01524376350585725</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.1053355228827694</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01498361420777608</v>
+        <v>0.02983403345066305</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06040249296010325</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01144565743296262</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1061157860152344</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03318063076869129</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1051069491298255</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.04075027459227193</v>
+        <v>0.0223623198196132</v>
       </c>
       <c r="M201" t="n">
+        <v>0.1054428179654316</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.05189438109933681</v>
+      </c>
+      <c r="O201" t="n">
         <v>0.1048944959836309</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0.01498361420777608</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0.1061157860152344</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01491955653318484</v>
+        <v>0.02940846967075112</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06040222443163924</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01138795811467463</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1068960491476994</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03243264869733575</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1058797943440154</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.03992264386939731</v>
+        <v>0.0216176107185414</v>
       </c>
       <c r="M202" t="n">
+        <v>0.1062181328034127</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.05121774981181176</v>
+      </c>
+      <c r="O202" t="n">
         <v>0.105665779042334</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0.01491955653318484</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.1068960491476994</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01474978197270053</v>
+        <v>0.02899478541860816</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06040195590317522</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01123144209118458</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1076763122801643</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03187399831306306</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1066526395582053</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.03866300956114699</v>
+        <v>0.02137259955307749</v>
       </c>
       <c r="M203" t="n">
+        <v>0.1069934476413938</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.04960547996947035</v>
+      </c>
+      <c r="O203" t="n">
         <v>0.1064370621010372</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.01474978197270053</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.1076763122801643</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01435666790153545</v>
+        <v>0.02859347124579267</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0604016873747112</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.0110761141924676</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1084565754126293</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03090666171400352</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1074254847723952</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.03697868705285007</v>
+        <v>0.0204282809371191</v>
       </c>
       <c r="M204" t="n">
+        <v>0.1077687624793749</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.04906125532794409</v>
+      </c>
+      <c r="O204" t="n">
         <v>0.1072083451597404</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.01435666790153545</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0.1084565754126293</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01423868548494114</v>
+        <v>0.02820501770391524</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06040141884624718</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01092197924849877</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1092368385450943</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03033262099828732</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1081983299865851</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03597699172983565</v>
+        <v>0.01998564948456402</v>
       </c>
       <c r="M205" t="n">
+        <v>0.108544077317356</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.04708875964286435</v>
+      </c>
+      <c r="O205" t="n">
         <v>0.1079796282184435</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0.01423868548494114</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0.1092368385450943</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01399981650829184</v>
+        <v>0.02782991534453379</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06040115031778317</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01066904208925323</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1100171016775592</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02985385826404469</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.108971175200775</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03456523897743297</v>
+        <v>0.01924569980930985</v>
       </c>
       <c r="M206" t="n">
+        <v>0.1093193921553371</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.04629167666986267</v>
+      </c>
+      <c r="O206" t="n">
         <v>0.1087509112771467</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0.01399981650829184</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0.1100171016775592</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01374404275696176</v>
+        <v>0.02746865471922406</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06040088178931915</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01041730754470611</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1107973648100242</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02887235560940574</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1097440204149649</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.03345074418097105</v>
+        <v>0.01880942652525439</v>
       </c>
       <c r="M207" t="n">
+        <v>0.1100947069933182</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.0447736901645705</v>
+      </c>
+      <c r="O207" t="n">
         <v>0.1095221943358499</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.01374404275696176</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0.1107973648100242</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01357534601632511</v>
+        <v>0.02712172637954689</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06040061326085513</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01036678044483253</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1115776279424891</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02829009513250078</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1105168656291547</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03264082272577917</v>
+        <v>0.01827782424629529</v>
       </c>
       <c r="M208" t="n">
+        <v>0.1108700218312994</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.04383848388261924</v>
+      </c>
+      <c r="O208" t="n">
         <v>0.1102934773945531</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.01357534601632511</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.1115776279424891</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01329770807175612</v>
+        <v>0.02678962087710818</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06040034473239111</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01031746561960761</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1123578910749541</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02790905893145995</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1112897108433446</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03084278999718643</v>
+        <v>0.01785188758633033</v>
       </c>
       <c r="M209" t="n">
+        <v>0.1116453366692805</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.04228974157964055</v>
+      </c>
+      <c r="O209" t="n">
         <v>0.1110647604532562</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0.01329770807175612</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.1123578910749541</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01301511070862897</v>
+        <v>0.02647282876346822</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06040007620392709</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.009969367899006466</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.113138154207419</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02723122910441353</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1120625560575345</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.02976396138052195</v>
+        <v>0.0176326111592571</v>
       </c>
       <c r="M210" t="n">
+        <v>0.1124206515072616</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.04103114701126559</v>
+      </c>
+      <c r="O210" t="n">
         <v>0.1118360435119594</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.01301511070862897</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0.113138154207419</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0127315357123179</v>
+        <v>0.02617184059020262</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06039980767546308</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.009822492113004212</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.113918417339884</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02625858774949164</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1128354012717244</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.0290116522611148</v>
+        <v>0.01672098957897342</v>
       </c>
       <c r="M211" t="n">
+        <v>0.1131959663452427</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.03986638393312608</v>
+      </c>
+      <c r="O211" t="n">
         <v>0.1126073265706626</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0.0127315357123179</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0.113918417339884</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01235096486819712</v>
+        <v>0.02588714690887511</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06039953914699905</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.00967684309157598</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.114698680472349</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02539311696482449</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1136082464859143</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.02779317802429432</v>
+        <v>0.0164180174593769</v>
       </c>
       <c r="M212" t="n">
+        <v>0.1139712811832238</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.03899913610085343</v>
+      </c>
+      <c r="O212" t="n">
         <v>0.1133786096293657</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0.01235096486819712</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.114698680472349</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01217737996164084</v>
+        <v>0.02561923827108608</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06039927061853504</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.009732425664696884</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1154789436048139</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.02503679884854235</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1143810917001042</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.02691585405538954</v>
+        <v>0.01592468941436537</v>
       </c>
       <c r="M213" t="n">
+        <v>0.114746596021205</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.03783308727007911</v>
+      </c>
+      <c r="O213" t="n">
         <v>0.1141498926880689</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0.01217737996164084</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0.1154789436048139</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01181476277802326</v>
+        <v>0.02536860522839852</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06039900209007103</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.009489244662342057</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1162592067372789</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02419161549877533</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1151539369142941</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.02578699573972959</v>
+        <v>0.01514200005783639</v>
       </c>
       <c r="M214" t="n">
+        <v>0.1155219108591861</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.03587192119643445</v>
+      </c>
+      <c r="O214" t="n">
         <v>0.1149211757467721</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.01181476277802326</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.1162592067372789</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01166709510271862</v>
+        <v>0.02536860522839852</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06039900209007103</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.009347304914486605</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1170394698697438</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02385954901365372</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.115926782128484</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02471391846264354</v>
+        <v>0.01467094400368779</v>
       </c>
       <c r="M215" t="n">
+        <v>0.1162972256971672</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.03511932163555115</v>
+      </c>
+      <c r="O215" t="n">
         <v>0.1156924588054752</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0.01166709510271862</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.1170394698697438</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01123835872110112</v>
+        <v>0.02471878395624764</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06026977262178218</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.009206611251105667</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1178197330022088</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02314258149130768</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1166996273426739</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02380393760946076</v>
+        <v>0.0145125158658172</v>
       </c>
       <c r="M216" t="n">
+        <v>0.1170725405351483</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.03417897234306061</v>
+      </c>
+      <c r="O216" t="n">
         <v>0.1164637418641784</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0.01123835872110112</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0.1178197330022088</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01123253541854496</v>
+        <v>0.02407622955017216</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06014054315349333</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.008967168502174355</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1185999961346737</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02274269502986745</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1174724725568638</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02276436856551023</v>
+        <v>0.01416771025812238</v>
       </c>
       <c r="M217" t="n">
+        <v>0.1178478553731294</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.03235455707459417</v>
+      </c>
+      <c r="O217" t="n">
         <v>0.1172350249228816</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.01123253541854496</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0.1185999961346737</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01105360698042437</v>
+        <v>0.0234412815497193</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06001131368520447</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.00902898149766778</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1193802592671387</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02216187172746317</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1182453177710537</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02200252671612113</v>
+        <v>0.01353752179450099</v>
       </c>
       <c r="M218" t="n">
+        <v>0.1186231702111105</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.03134975958578334</v>
+      </c>
+      <c r="O218" t="n">
         <v>0.1180063079815847</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.01105360698042437</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.1193802592671387</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01090555519211357</v>
+        <v>0.02281427949443644</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05988208421691562</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.008692055067561079</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1201605223996037</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02140209368222512</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1190181629852436</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02112572744662256</v>
+        <v>0.01292294508885075</v>
       </c>
       <c r="M219" t="n">
+        <v>0.1193984850490916</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.03026826363225976</v>
+      </c>
+      <c r="O219" t="n">
         <v>0.1187775910402879</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0.01090555519211357</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0.1201605223996037</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01068881906312802</v>
+        <v>0.02219556292387072</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05975285474862677</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.008556394041829361</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1209407855320686</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02056534299228344</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1197910081994335</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02074057578565536</v>
+        <v>0.01262497475506938</v>
       </c>
       <c r="M220" t="n">
+        <v>0.1201737998870727</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.02871375296965478</v>
+      </c>
+      <c r="O220" t="n">
         <v>0.1195488740989911</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0.01068881906312802</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0.1209407855320686</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0106788316610936</v>
+        <v>0.02158547137756944</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05962362528033792</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.008522003250447753</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1217210486645336</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02015360175576841</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1205638534136234</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02069455455107438</v>
+        <v>0.01224460540705458</v>
       </c>
       <c r="M221" t="n">
+        <v>0.1209491147250538</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.02768991135359977</v>
+      </c>
+      <c r="O221" t="n">
         <v>0.1203201571576942</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.0106788316610936</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.1217210486645336</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01057016487681033</v>
+        <v>0.02098434439507974</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05949439581204906</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.008388887523391376</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1225013117969985</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02006885207081016</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1213366986278132</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.01945184803328215</v>
+        <v>0.01188283165870405</v>
       </c>
       <c r="M222" t="n">
+        <v>0.121724429563035</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.02670042253972632</v>
+      </c>
+      <c r="O222" t="n">
         <v>0.1210914402163974</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.01057016487681033</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.1225013117969985</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01046287555181788</v>
+        <v>0.02039252151594901</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05936516634376021</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.008157051690635346</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1232815749294635</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.01961307603553891</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1221095438420031</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.01931289095754496</v>
+        <v>0.01144064812391554</v>
       </c>
       <c r="M223" t="n">
+        <v>0.1224997444010161</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.02594897028366588</v>
+      </c>
+      <c r="O223" t="n">
         <v>0.1218627232751006</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0.01046287555181788</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.1232815749294635</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01025702052765596</v>
+        <v>0.01981034227972441</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05923593687547136</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.008226500582154801</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1240618380619285</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01918825574808486</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.122882389056193</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.01877811804912877</v>
+        <v>0.01121904941658669</v>
       </c>
       <c r="M224" t="n">
+        <v>0.1232750592389972</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.02453923834104998</v>
+      </c>
+      <c r="O224" t="n">
         <v>0.1226340063338037</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0.01025702052765596</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.1240618380619285</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01005265664586426</v>
+        <v>0.01923814622595321</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05910670740718251</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.007897239027924836</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1248421011943934</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.01849637330657825</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1236552342703829</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.01784796403329952</v>
+        <v>0.01111903015061527</v>
       </c>
       <c r="M225" t="n">
+        <v>0.1240503740769783</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.02347491046750988</v>
+      </c>
+      <c r="O225" t="n">
         <v>0.1234052893925069</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.01005265664586426</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.1248421011943934</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01014984074798248</v>
+        <v>0.01867627289418265</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05897747793889366</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.007969271857920596</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1256223643268584</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.01793941080914929</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1244280794845728</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.01772286363532344</v>
+        <v>0.01054158493989893</v>
       </c>
       <c r="M226" t="n">
+        <v>0.1248256889149594</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.02255967041867729</v>
+      </c>
+      <c r="O226" t="n">
         <v>0.1241765724512101</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.01014984074798248</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.1256223643268584</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.009948629675550318</v>
+        <v>0.01812506182395995</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05884824847060482</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.007842603902117183</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1264026274593233</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.01801922212806906</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1252009246987627</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.01740325158046657</v>
+        <v>0.0107877083983354</v>
       </c>
       <c r="M227" t="n">
+        <v>0.1256010037529406</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.0220972019501835</v>
+      </c>
+      <c r="O227" t="n">
         <v>0.1249478555099132</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0.009948629675550318</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.1264026274593233</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.009849080270107474</v>
+        <v>0.01758485255483235</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05871901900231596</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.007617239990489723</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1271828905917883</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.01751525802518558</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1259737699129526</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.01708956259399486</v>
+        <v>0.01025839513982241</v>
       </c>
       <c r="M228" t="n">
+        <v>0.1263763185909217</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.02089118881766017</v>
+      </c>
+      <c r="O228" t="n">
         <v>0.1257191385686164</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0.009849080270107474</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.1271828905917883</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.009851249373193649</v>
+        <v>0.01705598462634716</v>
       </c>
       <c r="G229" t="n">
+        <v>0.0585897895340271</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.007393184953013353</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1279631537242533</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.01751185689544854</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1267466151271425</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.01608223140117454</v>
+        <v>0.009854639778257623</v>
       </c>
       <c r="M229" t="n">
+        <v>0.1271516334289028</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.02084531477673857</v>
+      </c>
+      <c r="O229" t="n">
         <v>0.1264904216273196</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.009851249373193649</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.1279631537242533</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.009555193826348528</v>
+        <v>0.01653879757805158</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05846056006573826</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.007370440659953473</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1287434168567182</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.01670945622110595</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1275194603413324</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.01548169272727162</v>
+        <v>0.01017729149390031</v>
       </c>
       <c r="M230" t="n">
+        <v>0.1279269482668839</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.02016298282496565</v>
+      </c>
+      <c r="O230" t="n">
         <v>0.1272617046860228</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.009555193826348528</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.1287434168567182</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.009560970471111811</v>
+        <v>0.01603363094949287</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05833133059744941</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.007148719557407326</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1295236799891832</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.016808493484406</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1282923055555223</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.01518838129755201</v>
+        <v>0.009911633719278307</v>
       </c>
       <c r="M231" t="n">
+        <v>0.128702263104865</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.01951058459199179</v>
+      </c>
+      <c r="O231" t="n">
         <v>0.1280329877447259</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.009560970471111811</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.1295236799891832</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.009368636149023203</v>
+        <v>0.0155408242802182</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05820210112916055</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.007127838616180271</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1303039431216481</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.01660940616759665</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1290651507697122</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01470273183728205</v>
+        <v>0.009347510959165695</v>
       </c>
       <c r="M232" t="n">
+        <v>0.1294775779428461</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.01866340185613546</v>
+      </c>
+      <c r="O232" t="n">
         <v>0.1288042708034291</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.009368636149023203</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.1303039431216481</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.009278247701622395</v>
+        <v>0.01506071710977495</v>
       </c>
       <c r="G233" t="n">
+        <v>0.0580728716608717</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.007007810914081869</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1310842062541131</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.01581263175292597</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1298379959839021</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01382517907172748</v>
+        <v>0.009285133075390889</v>
       </c>
       <c r="M233" t="n">
+        <v>0.1302528927808272</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.01802191984144841</v>
+      </c>
+      <c r="O233" t="n">
         <v>0.1295755538621323</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0.009278247701622395</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.1310842062541131</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.009389861970449088</v>
+        <v>0.01459364897771028</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05794364219258285</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.006988649528921691</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1318644693865781</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01561860772264212</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.130610841198092</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.01415615772615469</v>
+        <v>0.009124709929782204</v>
       </c>
       <c r="M234" t="n">
+        <v>0.1310282076188083</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.01688662377198241</v>
+      </c>
+      <c r="O234" t="n">
         <v>0.1303468369208354</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0.009389861970449088</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.1318644693865781</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.009303535797042982</v>
+        <v>0.01413995942357145</v>
       </c>
       <c r="G235" t="n">
+        <v>0.057814412724294</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.006770367538509285</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.132644732519043</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01522777155899308</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1313836864122819</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.01329610252582952</v>
+        <v>0.008866451384167945</v>
       </c>
       <c r="M235" t="n">
+        <v>0.1318035224567894</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.01635799887178929</v>
+      </c>
+      <c r="O235" t="n">
         <v>0.1311181199795386</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.009303535797042982</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.132644732519043</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.009219326022943765</v>
+        <v>0.01369998798690571</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05768518325600516</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.006652978020654204</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.133424995651508</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.01534056074422696</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1321565316264718</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01254544819601822</v>
+        <v>0.00881056730037641</v>
       </c>
       <c r="M236" t="n">
+        <v>0.1325788372947706</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.01633653036492083</v>
+      </c>
+      <c r="O236" t="n">
         <v>0.1318894030382418</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0.009219326022943765</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.133424995651508</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.008937289489691143</v>
+        <v>0.0132740742072603</v>
       </c>
       <c r="G237" t="n">
+        <v>0.0575559537877163</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.006536494053166017</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1342052587839729</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.01465741276059176</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1329293768406617</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01270462946198664</v>
+        <v>0.00855726754023603</v>
       </c>
       <c r="M237" t="n">
+        <v>0.1333541521327517</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.01512270347542871</v>
+      </c>
+      <c r="O237" t="n">
         <v>0.132660686096945</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.008937289489691143</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.1342052587839729</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009057483038824803</v>
+        <v>0.01286255762418242</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05742672431942744</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.006520928713854277</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1349855219164379</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01457876509033562</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1337022220548515</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01187408104900101</v>
+        <v>0.008906761965575077</v>
       </c>
       <c r="M238" t="n">
+        <v>0.1341294669707328</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.01431700342736475</v>
+      </c>
+      <c r="O238" t="n">
         <v>0.1334319691556481</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0.009057483038824803</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.1349855219164379</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.008979963511884452</v>
+        <v>0.0124657777772194</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05729749485113859</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.00620629508052855</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1357657850489029</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01420505521570653</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1344750672690414</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01115423768232726</v>
+        <v>0.008359260438221855</v>
       </c>
       <c r="M239" t="n">
+        <v>0.1349047818087139</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.01431991544478073</v>
+      </c>
+      <c r="O239" t="n">
         <v>0.1342032522143513</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.008979963511884452</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.1357657850489029</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.008704787750409775</v>
+        <v>0.01208268775276718</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05716826538284975</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.006092606230998387</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1365460481813678</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.01423672061895268</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1352479124832313</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01114553408723157</v>
+        <v>0.008214972820004801</v>
       </c>
       <c r="M240" t="n">
+        <v>0.135680096646695</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.01393192475172839</v>
+      </c>
+      <c r="O240" t="n">
         <v>0.1349745352730544</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.008704787750409775</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.1365460481813678</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.008632012595940486</v>
+        <v>0.01170530837146554</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05703903591456089</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.006079875243073338</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1373263113138328</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.01397419878232201</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1360207576974212</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01104840498898008</v>
+        <v>0.00817410897275217</v>
       </c>
       <c r="M241" t="n">
+        <v>0.1364554114846762</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.01275351657225943</v>
+      </c>
+      <c r="O241" t="n">
         <v>0.1357458183317576</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0.008632012595940486</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.1373263113138328</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.008761694890016276</v>
+        <v>0.0113325927197104</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05690980644627203</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.005868115194562984</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1381065744462977</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.0133179271880626</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1367936029116111</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.009963285112838505</v>
+        <v>0.008236878758292293</v>
       </c>
       <c r="M242" t="n">
+        <v>0.1372307263226573</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.0125851761304257</v>
+      </c>
+      <c r="O242" t="n">
         <v>0.1365171013904608</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.008761694890016276</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.1381065744462977</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.00849389147417684</v>
+        <v>0.01096488033704911</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05678057697798319</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.00595733916327687</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1388868375787627</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01346834331842262</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.137566448125801</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01009060918407328</v>
+        <v>0.007903492038453502</v>
       </c>
       <c r="M243" t="n">
+        <v>0.1380060411606384</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.01182738865027899</v>
+      </c>
+      <c r="O243" t="n">
         <v>0.1372883844491639</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.00849389147417684</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.1388868375787627</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008628659189961876</v>
+        <v>0.01060251076302886</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05665134750969434</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.005647560227024555</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1396671007112276</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.01292588465564998</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1383392933399909</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01003081192795041</v>
+        <v>0.00767415867506413</v>
       </c>
       <c r="M244" t="n">
+        <v>0.1387813559986195</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.01138063935587103</v>
+      </c>
+      <c r="O244" t="n">
         <v>0.1380596675078671</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.008628659189961876</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.1396671007112276</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.00846605487891107</v>
+        <v>0.0102458235371969</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05652211804140549</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.005738791463615604</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1404473638436926</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01279098868199291</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1391121385541808</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.009284328069735726</v>
+        <v>0.007549088529952563</v>
       </c>
       <c r="M245" t="n">
+        <v>0.1395566708366006</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.01114541347125358</v>
+      </c>
+      <c r="O245" t="n">
         <v>0.1388309505665703</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.00846605487891107</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.1404473638436926</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008306135382564146</v>
+        <v>0.009895158199100466</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05639288857311664</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.005631045950859573</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1412276269761576</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.0126640928796993</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1398849837683707</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.009151592334695591</v>
+        <v>0.007828491464947102</v>
       </c>
       <c r="M246" t="n">
+        <v>0.1403319856745817</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.01032219622047847</v>
+      </c>
+      <c r="O246" t="n">
         <v>0.1396022336252734</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0.008306135382564146</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.1412276269761576</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008448957542460778</v>
+        <v>0.009550854288286781</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05626365910482778</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.005524336766566017</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1420078901086225</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01264563473101737</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1406578289825606</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.008633039448095847</v>
+        <v>0.007412577341876031</v>
       </c>
       <c r="M247" t="n">
+        <v>0.1411073005125628</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.009811472827597367</v>
+      </c>
+      <c r="O247" t="n">
         <v>0.1403735166839766</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.008448957542460778</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0.1420078901086225</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008294578200140665</v>
+        <v>0.009213251344303147</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05613442963653893</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.005318676988544491</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1427881532410875</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01223605171819514</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1414306741967505</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.008529104135202636</v>
+        <v>0.007501556022567746</v>
       </c>
       <c r="M248" t="n">
+        <v>0.1418826153505439</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.009213728516662079</v>
+      </c>
+      <c r="O248" t="n">
         <v>0.1411447997426798</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.008294578200140665</v>
-      </c>
-      <c r="O248" t="n">
-        <v>0.1427881532410875</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008243054197143516</v>
+        <v>0.008882688906696794</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05600520016825008</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.005214079694604565</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1435684163735524</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01173578132348063</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1422035194109404</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.00794022112128201</v>
+        <v>0.007195637368850566</v>
       </c>
       <c r="M249" t="n">
+        <v>0.142657930188525</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.008329448511724402</v>
+      </c>
+      <c r="O249" t="n">
         <v>0.141916082801383</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.008243054197143516</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0.1435684163735524</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008094442375009024</v>
+        <v>0.008559506515014949</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05587597069996123</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.00521055796255579</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1443486795060174</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01194526102912194</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1429763646251303</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.008066825131600175</v>
+        <v>0.006895031242552807</v>
       </c>
       <c r="M250" t="n">
+        <v>0.1434332450265062</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.008159118036836166</v>
+      </c>
+      <c r="O250" t="n">
         <v>0.1426873658600861</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.008094442375009024</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0.1443486795060174</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00824879957527689</v>
+        <v>0.008244043708804855</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05574674123167239</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.004908124870207725</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1451289426384824</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01156492831736713</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1437492098393202</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.007109350891422894</v>
+        <v>0.006999947505502785</v>
       </c>
       <c r="M251" t="n">
+        <v>0.1442085598644873</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.007803222316048963</v>
+      </c>
+      <c r="O251" t="n">
         <v>0.1434586489187893</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0.00824879957527689</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0.1451289426384824</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008206182639486796</v>
+        <v>0.007936640027613739</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05561751176338352</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.004806793495369943</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1459092057709473</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01119522067046427</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1445220550535101</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.007368233126016477</v>
+        <v>0.006810596019528881</v>
       </c>
       <c r="M252" t="n">
+        <v>0.1449838747024684</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.007462246573414599</v>
+      </c>
+      <c r="O252" t="n">
         <v>0.1442299319774925</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0.008206182639486796</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0.1459092057709473</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008166648409178447</v>
+        <v>0.007637635010988901</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05548828229509467</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.004706576915851975</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1466894689034123</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01123657557066143</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1452949002677</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.007043906560647017</v>
+        <v>0.00692718664645936</v>
       </c>
       <c r="M253" t="n">
+        <v>0.1457591895404495</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.007136676032985012</v>
+      </c>
+      <c r="O253" t="n">
         <v>0.1450012150361956</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0.008166648409178447</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0.1466894689034123</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008030253725891556</v>
+        <v>0.007347368198477554</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05535905282680582</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.004607488209463412</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1474697320358772</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01098943050020665</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1460677454818899</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.006936805920580325</v>
+        <v>0.006549929248122643</v>
       </c>
       <c r="M254" t="n">
+        <v>0.1465345043784306</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.006826995918811862</v>
+      </c>
+      <c r="O254" t="n">
         <v>0.1457724980948988</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0.008030253725891556</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0.1474697320358772</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007897055431165798</v>
+        <v>0.007066179129626947</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05522982335851698</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.004609540454013773</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1482499951683422</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01105422294134803</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1468405906960797</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.006447365931082805</v>
+        <v>0.006579033686347019</v>
       </c>
       <c r="M255" t="n">
+        <v>0.1473098192164118</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.006233691454946788</v>
+      </c>
+      <c r="O255" t="n">
         <v>0.1465437811536019</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0.007897055431165798</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0.1482499951683422</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007967110366540874</v>
+        <v>0.006794407343984309</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05510059389022812</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.00451274672731266</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1490302583008072</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01073139037633361</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1476134359102696</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.006476021317420144</v>
+        <v>0.006614709822960835</v>
       </c>
       <c r="M256" t="n">
+        <v>0.1480851340543929</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.005757247865441739</v>
+      </c>
+      <c r="O256" t="n">
         <v>0.1473150642123051</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.007967110366540874</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0.1490302583008072</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00804047537355649</v>
+        <v>0.006532392381096881</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05497136442193926</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.004517120107169599</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1498105214332721</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01062137028741145</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1483862811244595</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.006023206804858738</v>
+        <v>0.006357167519792373</v>
       </c>
       <c r="M257" t="n">
+        <v>0.148860448892374</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.004998150374348476</v>
+      </c>
+      <c r="O257" t="n">
         <v>0.1480863472710083</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.00804047537355649</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0.1498105214332721</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.008017207293752347</v>
+        <v>0.006280473780511962</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05484213495365042</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.004322673671394175</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1505907845657371</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01042460015682964</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1491591263386494</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.006289357118664463</v>
+        <v>0.006806616638670021</v>
       </c>
       <c r="M258" t="n">
+        <v>0.1496357637303551</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.005356884205718559</v>
+      </c>
+      <c r="O258" t="n">
         <v>0.1488576303297115</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.008017207293752347</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0.1505907845657371</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.007897362968668123</v>
+        <v>0.006038991081776753</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05471290548536157</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.00422942049779592</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.151371047698202</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01084151746683626</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1499319715528393</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.006474906984103468</v>
+        <v>0.006463267041422083</v>
       </c>
       <c r="M259" t="n">
+        <v>0.1504110785683362</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.005133934583604005</v>
+      </c>
+      <c r="O259" t="n">
         <v>0.1496289133884146</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0.007897362968668123</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0.151371047698202</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.007880999239843534</v>
+        <v>0.005808283824438501</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05458367601707272</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.004137373664184409</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.152151310830667</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01047255969967933</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1507048167670292</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.006080291126441761</v>
+        <v>0.006427328589876907</v>
       </c>
       <c r="M260" t="n">
+        <v>0.1511863934063173</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.004129786732056495</v>
+      </c>
+      <c r="O260" t="n">
         <v>0.1504001964471178</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.007880999239843534</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0.152151310830667</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.007768172948818271</v>
+        <v>0.005588691548044457</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05445444654878387</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.004046546248369198</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.152931573963132</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01051816433760694</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1514776619812191</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.006305944270945441</v>
+        <v>0.006499011145862821</v>
       </c>
       <c r="M261" t="n">
+        <v>0.1519617082442984</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.003944925875127792</v>
+      </c>
+      <c r="O261" t="n">
         <v>0.151171479505821</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0.007768172948818271</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0.152931573963132</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.007958940937132022</v>
+        <v>0.005380553792141848</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05432521708049501</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.003956951328159847</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1537118370955969</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01037876886286715</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.152250507195409</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.006052301142880523</v>
+        <v>0.00647852457120815</v>
       </c>
       <c r="M262" t="n">
+        <v>0.1527370230822795</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.003979837236869621</v>
+      </c>
+      <c r="O262" t="n">
         <v>0.1519427625645241</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.007958940937132022</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0.1537118370955969</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.007953360046324499</v>
+        <v>0.005184210096277952</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05419598761220616</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.003768601981365909</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1544921002280619</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01015481075770802</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1530233524095989</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.006019796467513217</v>
+        <v>0.006466078727741242</v>
       </c>
       <c r="M263" t="n">
+        <v>0.1535123379202607</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.003335006041333799</v>
+      </c>
+      <c r="O263" t="n">
         <v>0.1527140456232273</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.007953360046324499</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0.1544921002280619</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007951487117935391</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05406675814391732</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.003781511285796943</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1552723633605268</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01024672750437763</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1537961976237888</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.005808864970109351</v>
+        <v>0.006661883477290464</v>
       </c>
       <c r="M264" t="n">
+        <v>0.1542876527582418</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.003710917512572021</v>
+      </c>
+      <c r="O264" t="n">
         <v>0.1534853286819305</v>
       </c>
-      <c r="N264" t="n">
-        <v>0.007951487117935391</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0.1552723633605268</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05405360024918047</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00567864518267247</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05405386877764448</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006353462988774608</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05405413730610849</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007024408868731263</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05405440583457252</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007691438272879804</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05405467436303654</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008354506651645284</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05405494289150055</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009013569455423448</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05405521141996456</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009668582134638504</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05405547994842859</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01031950013962917</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0540557484768926</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01096627892081982</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05405601700535662</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.0116088739286062</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05405628553382064</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01224724061341179</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05405655406228466</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01288133442557676</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05405682259074868</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01351111081552474</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05405709111921269</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01413652523365152</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0540573596476767</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01475753313037977</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05405762817614073</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153740899560512</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05405789670460474</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01598615116108872</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05405816523306876</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01659367219588805</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05405843376153277</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01719660851087113</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0540587022899968</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01779491555638121</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05405897081846081</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0183885487828404</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05405923934692482</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01897746364064448</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05405950787538884</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0195616155802145</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05405977640385286</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02014096005189541</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05406004493231688</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02071563441699246</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0540603134607809</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02128668559120527</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05406058198924491</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02185425093583817</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05406085051770894</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02241828590123755</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05406111904617295</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02297874593782392</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05406138757463697</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02353558649599306</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05406165610310098</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02408876302616469</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05406192463156501</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02463823097868647</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05406219316002902</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02518394580397829</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05406246168849303</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02572586295243593</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05406273021695705</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02626393787447846</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05406299874542107</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02679812602045482</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05406326727388509</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02732838284078428</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05406353580234911</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02785466378586259</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05406380433081312</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02837692430610814</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05406407285927715</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02889511985187126</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05406434138774116</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02940920587357052</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05406460991620517</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02991913782160168</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05406487844466919</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03042487114638242</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05406514697313321</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03092636129826448</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05406541550159723</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03142356372766573</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05406568403006124</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03191643388498191</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05406595255852525</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03240492722062997</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05406622108698928</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03288899918496312</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05406648961545329</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03336860522839852</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05406675814391732</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03336860522839852</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05405360024918047</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03388087837371575</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05418336677439736</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03438838059404247</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05431313329961424</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03489098170585764</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05444289982483112</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0353885515256401</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05457266635004801</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.0358809598698687</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05470243287526489</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03636807655502242</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05483219940048178</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03684977139758012</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05496196592569867</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03732591421402067</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05509173245091556</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03779637482082292</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05522149897613243</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03826102303446587</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05535126550134933</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03871972867142836</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05548103202656621</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03917236154818921</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05561079855178309</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03961879148122741</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05574056507699998</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04005888828702182</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05587033160221687</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04049252178205128</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05600009812743375</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04091956178279479</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05612986465265064</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04133987810573115</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05625963117786753</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04175334056733924</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0563893977030844</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04215981898409802</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0565191642283013</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04255918317248635</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05664893075351819</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04295130294898313</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05677869727873507</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04333604813006717</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05690846380395195</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04371328853221749</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05703823032916884</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04408289397191292</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05716799685438573</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0444452658483435</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05729776337960261</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04480346347425539</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0574275299048195</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04515788824883862</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05755729643003639</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04550840998857208</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05768706295525326</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0458548985099347</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05781682948047016</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04619722362940535</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05794659600568704</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04653525516346287</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05807636253090392</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04686886292858625</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05820612905612081</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04719791674125432</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0583358955813377</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.047522286417946</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05846566210655459</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04784184177514011</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05859542863177147</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04815645262931561</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05872519515698835</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04846598879695137</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05885496168220525</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04877032009452627</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05898472820742212</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04906931633851924</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05911449473263902</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04936284734540914</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0592442612578559</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04965078293167485</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05937402778307278</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04993299291379528</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05950379430828967</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05020934710824931</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05963356083350656</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05047971533151584</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05976332735872345</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05074396740007373</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05989309388394033</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05100197313040192</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06002286040915722</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05125360233897929</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06015262693437411</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05149872484228466</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06028239345959099</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05173721045679704</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06041215998480787</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04582480697119803</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06041215998480787</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05195595677824869</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06208108699367106</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05215814170985639</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06375001400253424</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05234441719016405</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06541894101139742</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05251543515771549</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06708786802026061</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05267184755105456</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0687567950291238</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05281430630872515</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07042572203798696</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05294346336927112</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07209464904685015</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05305997067123631</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07376357605571333</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05316448015316459</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07543250306457651</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05325764375359981</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0771014300734397</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05334011341108583</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07877035708230289</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05341254106416652</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08043928409116606</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05347557865138571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08210821110002925</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05352987811128729</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08377713810889242</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05357609138241511</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0854460651177556</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05361487040331304</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0871149921266188</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05364686711252491</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08878391913548196</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0536727334485946</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09045284614434516</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05369312135006595</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09212177315320834</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05370868275548284</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09379070016207151</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05372006960338913</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0954596271709347</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05372793383232865</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09712855417979789</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05373292738084529</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09879748118866107</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05373570218748289</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1004664081975243</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05373691019078532</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1021353352063874</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05373720332929644</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1038042622152506</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05372627016688939</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1054731892241138</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05366060644982597</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.107142116232977</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05353918776428498</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1088110432418402</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0533660907793417</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1104799702507033</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05314539216407139</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1121488972595665</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05288116858754934</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1138178242684297</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05257749671885081</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1154867512772929</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0522384532270511</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1171556782861561</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05186811478122549</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1188246052950192</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05147055805044921</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1204935323038824</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05104985970379756</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1221624593127456</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05061009641034584</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1238313863216088</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05015534483916929</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.125500313330472</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04968968165934318</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1271692403393352</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04921718353994282</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1288381673481983</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04874192715004348</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1305070943570615</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04826798915872039</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1321760213659247</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04779944623504887</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1338449483747879</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04734037504810418</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1355138753836511</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04689485226696161</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1371828023925143</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04646695456069642</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1388517294013774</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04606075859838387</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1405206564102406</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04568034104909927</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1421895834191038</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04532977858191787</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.143858510427967</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04499960533587331</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1455274374368302</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04467009871981018</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1471963644456934</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04434117688522667</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1488652914545565</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04401302152849552</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04368581434598951</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1522031454722829</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04335973703408141</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1538720724811461</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04303497128914397</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1555409994900093</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04271169880754997</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1572099264988724</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04239010128567219</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1588788535077356</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04207036041988337</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1605477805165988</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04175265790655628</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.162216707525462</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0414371754420637</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1638856345343252</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04112409472277841</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1655545615431884</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04081359744507316</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1672234885520515</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04050586530532071</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1688924155609147</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04020107999989384</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1705613425697779</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03989942322516531</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1722302695786411</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0396010766775079</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1738991965875043</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03930622205329438</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1755681235963674</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03901504104889749</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1772370506052307</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03872771536069002</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1789059776140938</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03844442668504474</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.180574904622957</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03816535671833441</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1822438316318202</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03789068715693179</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1839127586406834</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03762059969720966</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1855816856495466</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03735523784291928</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1872506126584097</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03709312082847811</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1889195396672729</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03683344235045339</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1905884666761361</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03657624566485806</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1922573936849993</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03632157402770508</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1939263206938625</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03606947069500738</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1955952477027257</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03581997892277796</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1972641747115888</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0355731419670297</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.198933101720452</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03532900308377557</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2006020287293152</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03508760552902853</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2022709557381784</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03484899255880151</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2039398827470416</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03461320742910746</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2056088097559047</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03438029339595935</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2072777367647679</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0341502937153701</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2089466637736311</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03392325164335266</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2106155907824943</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03369921043591997</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2122845177913575</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03347821334908502</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2139534448002207</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03326030363886071</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2156223718090838</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03304552456126001</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.217291298817947</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03283391937229586</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2189602258268102</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0326255313279812</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2206291528356734</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.032420403684329</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2222980798445366</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03221857969735219</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2239670068533997</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0320201026230637</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2256359338622629</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08582480697119804</v>
+        <v>0.06355802365987898</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03582480697119803</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02044215998480787</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0006494901327584804</v>
+        <v>0.0009387074781564003</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006102238382303826</v>
+        <v>0.001643007576639692</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00129866321037829</v>
+        <v>0.0028138251658388</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007802631324649589</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003649651631060818</v>
+        <v>0.008351398466573789</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007753148379811145</v>
+        <v>0.001660680853101761</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006457692404809035</v>
+        <v>0.0141769972276411</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007712830587031682</v>
+        <v>0.001653548244033693</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001333433741143177</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001220447676460765</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002723289045574</v>
+        <v>0.005190656413485643</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001560526264929918</v>
+        <v>0.003241727138234706</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007355033566317226</v>
+        <v>0.01440512613622069</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001550629675962229</v>
+        <v>0.003332019048985769</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01300000000000001</v>
+        <v>0.02061868345369855</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001517552570093459</v>
+        <v>0.00260141659609953</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002050763846474346</v>
+        <v>0.007472796866818912</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001830671514691148</v>
+        <v>0.004929022729919076</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004245326644146799</v>
+        <v>0.006442197371745562</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002340789397394877</v>
+        <v>0.004958504949380661</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01199999999999998</v>
+        <v>0.01687545602771345</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00262960526315789</v>
+        <v>0.004982042559305284</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01774375260394234</v>
+        <v>0.02770077203448723</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002313849176109505</v>
+        <v>0.00496064473210108</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.002800413470072233</v>
+        <v>0.009158664242045041</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00244089535292153</v>
+        <v>0.006572030306558768</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005336225144656377</v>
+        <v>0.007786222422614029</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003121052529859836</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01340190307968284</v>
+        <v>0.01914669188999971</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003101259351924458</v>
+        <v>0.006642723412407045</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02306936566194717</v>
+        <v>0.03167731567740983</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003085132234812673</v>
+        <v>0.006614192976134773</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01612839897873102</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00358131563325708</v>
+        <v>0.009644961049651526</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003051119191151913</v>
+        <v>0.00821503788319846</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006267433685662405</v>
+        <v>0.008644543357169597</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003901315662324795</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01584348143233982</v>
+        <v>0.02085282985229006</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003876574189905572</v>
+        <v>0.008303404265508806</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02773135574755542</v>
+        <v>0.03449911927384247</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003856415293515841</v>
+        <v>0.008267741220168467</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.004392403357349146</v>
+        <v>0.01096537940214901</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003661343029382296</v>
+        <v>0.009858045459838153</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.009379297228104801</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00437171875</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01834654381984141</v>
+        <v>0.02284872468153246</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004651889027886687</v>
+        <v>0.009964085118610569</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03271216139810468</v>
+        <v>0.03656313631901231</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00462769835221901</v>
+        <v>0.009921289464202161</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.005232609663668668</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004271566867612678</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007984317911650878</v>
+        <v>0.01035262108811214</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005461841927254713</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02058287595103894</v>
+        <v>0.02368923114467469</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005427203865867802</v>
+        <v>0.01162476597171233</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0362942211509325</v>
+        <v>0.0394663203081464</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005398981410922178</v>
+        <v>0.01157483770823585</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006100867573535895</v>
+        <v>0.01325793804443746</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004881790705843061</v>
+        <v>0.01314406061311754</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008783363232960452</v>
+        <v>0.01112665198988418</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006242105059719671</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02252426353478351</v>
+        <v>0.02522920400866469</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006202518703848916</v>
+        <v>0.01328544682481409</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03955997354337648</v>
+        <v>0.04200562473647185</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006170264469625346</v>
+        <v>0.01322838595226955</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0069961101082711</v>
+        <v>0.01534562213772279</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005492014544073443</v>
+        <v>0.01478706818975723</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009422472741952029</v>
+        <v>0.01153479202996809</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00702236819218463</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02424249227992639</v>
+        <v>0.02770216564657824</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006977833541830031</v>
+        <v>0.01561328124999999</v>
       </c>
       <c r="N74" s="171" t="n">
         <v>0.04386953926318837</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007315860665677736</v>
+        <v>0.01419389204545454</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007917270289194506</v>
+        <v>0.01441375452788151</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006102238382303826</v>
+        <v>0.01643007576639692</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.00990549689118593</v>
+        <v>0.01271100088215213</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007802631324649589</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02620934789531881</v>
+        <v>0.02868049921511637</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007753148379811145</v>
+        <v>0.01660680853101761</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04479086197808446</v>
+        <v>0.04757046638359697</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007712830587031681</v>
+        <v>0.01653548244033693</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008863281137626369</v>
+        <v>0.01745379357972694</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006712462220534209</v>
+        <v>0.01807308334303661</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01043628613322248</v>
+        <v>0.01367988217460821</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008582894457114548</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02770216564657824</v>
+        <v>0.03058107369334392</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008672114355370707</v>
+        <v>0.01826748938411937</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04615539841373129</v>
+        <v>0.05099729320584262</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008484113645734851</v>
+        <v>0.01818903068437063</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009833075674886942</v>
+        <v>0.01845719765807236</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007322686058764592</v>
+        <v>0.01971609091967631</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01081869092062203</v>
+        <v>0.01444920153043232</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009363157589579507</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02827793326533193</v>
+        <v>0.03267226716456637</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009303778055773374</v>
+        <v>0.01992817023722114</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0476860569359005</v>
+        <v>0.05426643042192603</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009255396704438019</v>
+        <v>0.01984257892840432</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01082558692229647</v>
+        <v>0.01841542512773104</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007932909896994973</v>
+        <v>0.021359098496316</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01153479202996809</v>
+        <v>0.01520759894923336</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01029119726423716</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0292400840014447</v>
+        <v>0.03431691359483274</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01007909289375449</v>
+        <v>0.0215888510903229</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04988262946752109</v>
+        <v>0.05752849270236265</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01002667976314119</v>
+        <v>0.02149612717243801</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01183974790117521</v>
+        <v>0.0203199343535163</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008543133735225356</v>
+        <v>0.02300210607295569</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0118664425464796</v>
+        <v>0.01604371443062023</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01092368385450943</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03048771130368763</v>
+        <v>0.03657784695019189</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0108544077317356</v>
+        <v>0.02324953194342466</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05084490793152191</v>
+        <v>0.06083409471766815</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01079796282184436</v>
+        <v>0.02314967541647171</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01287449163284338</v>
+        <v>0.02116218370024141</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009153357573455739</v>
+        <v>0.02464511364959538</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01207508560954192</v>
+        <v>0.01684618797420179</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01170394698697438</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03162034937121827</v>
+        <v>0.03861790119669287</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01162972256971672</v>
+        <v>0.02491021279652642</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05307268425083206</v>
+        <v>0.063733851138358</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01156924588054752</v>
+        <v>0.0248032236605054</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01392875113862128</v>
+        <v>0.02193363153271966</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009763581411686121</v>
+        <v>0.02628812122623507</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01268276270856565</v>
+        <v>0.01780365957958692</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01248421011943934</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0325375324031941</v>
+        <v>0.0406999103003845</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01240503740769783</v>
+        <v>0.02657089364962818</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05456575034838029</v>
+        <v>0.06687837663494778</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01234052893925069</v>
+        <v>0.02645677190453909</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01500145943982911</v>
+        <v>0.02262573621576435</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0103738052499165</v>
+        <v>0.02793112880287476</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01308902703032595</v>
+        <v>0.01830476924638452</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0132644732519043</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03333879459877262</v>
+        <v>0.0422867082273157</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01318035224567895</v>
+        <v>0.02823157450272994</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05562389814709573</v>
+        <v>0.06951828587795311</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01311181199795386</v>
+        <v>0.02811032014857279</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01609154955778715</v>
+        <v>0.02122995611418878</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01098402908814689</v>
+        <v>0.02957413637951446</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01329343176159793</v>
+        <v>0.01913815697420346</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01404473638436926</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03422367015711136</v>
+        <v>0.04434112894353545</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01395566708366006</v>
+        <v>0.0298922553558317</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05784691956990734</v>
+        <v>0.07250419353788945</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01388309505665703</v>
+        <v>0.02976386839260648</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01719795451381564</v>
+        <v>0.02373774959280623</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01159425292637727</v>
+        <v>0.03121714395615415</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01389553008915675</v>
+        <v>0.0196924627626526</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01482499951683422</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03539169327736791</v>
+        <v>0.0459260064150927</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01473098192164118</v>
+        <v>0.03155293620893346</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05923460653974399</v>
+        <v>0.07468671428527229</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01465437811536019</v>
+        <v>0.03141741663664017</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01831960732923483</v>
+        <v>0.02414057501643</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01220447676460765</v>
+        <v>0.03286015153279384</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01409487519977749</v>
+        <v>0.02015632661134088</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01560526264929918</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03644239815869971</v>
+        <v>0.04740417460803634</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01550629675962229</v>
+        <v>0.03321361706203523</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06068675097953469</v>
+        <v>0.07621646279061739</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01542566117406336</v>
+        <v>0.03307096488067387</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01945544102536495</v>
+        <v>0.02446824981778093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01281470060283803</v>
+        <v>0.03450315910943353</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01459102028023532</v>
+        <v>0.02031838851987713</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01638552578176414</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03717531900026427</v>
+        <v>0.04853846748841528</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01628161159760341</v>
+        <v>0.03487429791513699</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06230314481220828</v>
+        <v>0.07724405372444021</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01619694423276653</v>
+        <v>0.03472451312470756</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02060438862352629</v>
+        <v>0.02378548635188783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01342492444106842</v>
+        <v>0.03614616668607323</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01498351851730531</v>
+        <v>0.02070081226455328</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0171657889142291</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03828999000121922</v>
+        <v>0.04919171902227851</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01705692643558452</v>
+        <v>0.03653497876823875</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06298357996069387</v>
+        <v>0.07853010509275116</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0169682272914697</v>
+        <v>0.03637806136874126</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02176538314503907</v>
+        <v>0.02509156313147388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0140351482792988</v>
+        <v>0.03778917426271292</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01537192309776264</v>
+        <v>0.02107279988294576</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01794605204669406</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03898594536072197</v>
+        <v>0.04966447121663903</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01783224127356563</v>
+        <v>0.03819565962134051</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06482784834792032</v>
+        <v>0.07946745108528341</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01773951035017287</v>
+        <v>0.03803160961277494</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02293735761122353</v>
+        <v>0.02538433564077131</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01464537211752918</v>
+        <v>0.03943218183935261</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0158557872083824</v>
+        <v>0.02113527650959655</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01872631517915901</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04026271927793013</v>
+        <v>0.05071726143518643</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01860755611154675</v>
+        <v>0.03985634047444227</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06613574189681654</v>
+        <v>0.08066913030004852</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01851079340887604</v>
+        <v>0.03968515785680864</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02411924504339994</v>
+        <v>0.02566165936401233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01525559595575956</v>
+        <v>0.0410751894159923</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01623466403593976</v>
+        <v>0.02138638471467741</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01950657831162397</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04091984595200113</v>
+        <v>0.05084623015314313</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01938287094952786</v>
+        <v>0.04151702132754403</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06750705253031164</v>
+        <v>0.08152806934316487</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01928207646757921</v>
+        <v>0.04133870610084234</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02582480697119804</v>
+        <v>0.02492138978542916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01612839897873102</v>
+        <v>0.042718196992632</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0165081067672098</v>
+        <v>0.02182426706836005</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02028684144408893</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04145685958209255</v>
+        <v>0.05174685270566617</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02015818578750898</v>
+        <v>0.0431777021806458</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0684415721713344</v>
+        <v>0.08293719482075063</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02005335952628237</v>
+        <v>0.04299225434487602</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02654617572991642</v>
+        <v>0.02616138238925402</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01647604363222033</v>
+        <v>0.04436120456927168</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01697566858896767</v>
+        <v>0.02204706614081625</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02106710457655389</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0423732943673619</v>
+        <v>0.0522146044279127</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02093350062549009</v>
+        <v>0.04483838303374756</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07003909274281395</v>
+        <v>0.083489433338924</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02082464258498554</v>
+        <v>0.04464580258890972</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02796649246173796</v>
+        <v>0.02437949265971914</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01708626747045071</v>
+        <v>0.04600421214591138</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01713690268798851</v>
+        <v>0.02205292450221773</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02184736770901885</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04326868450696669</v>
+        <v>0.05304496065503964</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02170881546347121</v>
+        <v>0.04649906388684932</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07109940616767912</v>
+        <v>0.08417771150380327</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02159592564368871</v>
+        <v>0.04629935083294342</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02951273628965336</v>
+        <v>0.02457357608105675</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0176964913086811</v>
+        <v>0.04764721972255107</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0175913622510474</v>
+        <v>0.02223998472273625</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02262763084148381</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04394256420006443</v>
+        <v>0.05313339672220402</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02248413030145232</v>
+        <v>0.04815974473995108</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07182230436885889</v>
+        <v>0.08459495592150679</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02236720870239188</v>
+        <v>0.04795289907697711</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03110271237216037</v>
+        <v>0.02674148813749904</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01830671514691148</v>
+        <v>0.04929022729919076</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01793860046491952</v>
+        <v>0.02240638937254356</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02340789397394877</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04509446764581268</v>
+        <v>0.05357538796456299</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02325944513943343</v>
+        <v>0.04982042559305284</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07290757926928226</v>
+        <v>0.08523409319815262</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02313849176109505</v>
+        <v>0.04960644732101081</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03265422586775665</v>
+        <v>0.02688108431327824</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01891693898514186</v>
+        <v>0.05093323487583045</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01837817051637997</v>
+        <v>0.02255028102181138</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02418815710641373</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04572392904336894</v>
+        <v>0.05416640971727352</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02403475997741455</v>
+        <v>0.0514811064461546</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07375502279187812</v>
+        <v>0.08608804993985902</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02390977481979821</v>
+        <v>0.05125999556504449</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03408508193493993</v>
+        <v>0.02499022009262657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01952716282337224</v>
+        <v>0.05257624245247015</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01850962559220386</v>
+        <v>0.0228698022407115</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02496842023887869</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04623048259189072</v>
+        <v>0.05430193731549265</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02481007481539567</v>
+        <v>0.05314178729925636</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07526442685957546</v>
+        <v>0.08664975275274434</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02468105787850138</v>
+        <v>0.05291354380907819</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03582480697119803</v>
+        <v>0.02506675095977629</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02044215998480787</v>
+        <v>0.05421925002910983</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01903251887916635</v>
+        <v>0.02286309559941566</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02574868337134364</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04721366249053555</v>
+        <v>0.0547774460943774</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02558538965337678</v>
+        <v>0.05480246815235813</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07633558339530322</v>
+        <v>0.08711212824292675</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02545234093720455</v>
+        <v>0.05456709205311188</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03629583883512782</v>
+        <v>0.02711604731975793</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02074761049983301</v>
+        <v>0.05586225760574953</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01914640356404256</v>
+        <v>0.02292830366809556</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02652894650380861</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04777300293846096</v>
+        <v>0.05498841138908486</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02636070449135789</v>
+        <v>0.05646314900545989</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07656828432199031</v>
+        <v>0.08746810301652452</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02622362399590772</v>
+        <v>0.05622064029714558</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0372193058633584</v>
+        <v>0.02711477785865591</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02135783433806339</v>
+        <v>0.05750526518238921</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01955083283360759</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02730920963627356</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04830803813482445</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02713601932933901</v>
+        <v>0.05812382985856164</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07776232156256585</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02699490705461089</v>
+        <v>0.05787418854117927</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03811730000419481</v>
+        <v>0.0260989546292418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02196805817629377</v>
+        <v>0.05914827275902891</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0197453598746366</v>
+        <v>0.02296835327959786</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02808947276873852</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04861830227878353</v>
+        <v>0.05539861286659606</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02791133416732012</v>
+        <v>0.05978451071166341</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07881748703995856</v>
+        <v>0.08713592192577402</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02776619011331406</v>
+        <v>0.05952773678521296</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03898732781676851</v>
+        <v>0.02606593338044903</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02257828201452415</v>
+        <v>0.0607912803356686</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02012953787390469</v>
+        <v>0.02295438551738664</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02886973590120348</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04960332956949579</v>
+        <v>0.05539690170613734</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02868664900530124</v>
+        <v>0.06144519156476517</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07973357267709758</v>
+        <v>0.08738685893171894</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02853747317201722</v>
+        <v>0.06118128502924666</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03982689586021088</v>
+        <v>0.02701684433393164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02318850585275454</v>
+        <v>0.0624342879123083</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02050292001818702</v>
+        <v>0.02302564078485407</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02964999903366844</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04976265420611867</v>
+        <v>0.05485466546619608</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02946196384328235</v>
+        <v>0.06310587241786693</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08061037039691182</v>
+        <v>0.08738128661214517</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02930875623072039</v>
+        <v>0.06283483327328035</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04063351069365338</v>
+        <v>0.02495281771134366</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02379872969098492</v>
+        <v>0.06407729548894799</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02076505949425865</v>
+        <v>0.02278309800108494</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0304302621661334</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0507958103878097</v>
+        <v>0.05527716237528288</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03023727868126346</v>
+        <v>0.06476655327096868</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08064767212233004</v>
+        <v>0.08702293284961365</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03008003928942356</v>
+        <v>0.06448838151731404</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0414046788762274</v>
+        <v>0.02587498373433911</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0244089535292153</v>
+        <v>0.06572030306558768</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02101550948889479</v>
+        <v>0.02282773608516406</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03121052529859836</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05110233231372646</v>
+        <v>0.05486677706225412</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03101259351924458</v>
+        <v>0.06642723412407045</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08134526977628148</v>
+        <v>0.08691552552668563</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03085132234812673</v>
+        <v>0.06614192976134774</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04213790696706438</v>
+        <v>0.02678447262457203</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02501917736744569</v>
+        <v>0.06736331064222738</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02125382318887051</v>
+        <v>0.02266053395617618</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03199078843106332</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05128175418302647</v>
+        <v>0.05462589415596614</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03178790835722569</v>
+        <v>0.06808791497717222</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08200295528169499</v>
+        <v>0.08666279252592202</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0316226054068299</v>
+        <v>0.06779547800538144</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04283070152529573</v>
+        <v>0.02468241460369643</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02562940120567607</v>
+        <v>0.06900631821886706</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02137955378096096</v>
+        <v>0.02278247053320615</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03277105156352828</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05193361019486717</v>
+        <v>0.05445689828527525</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03256322319520681</v>
+        <v>0.06974859583027397</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08322052056149964</v>
+        <v>0.08606846172988397</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03239388846553307</v>
+        <v>0.06944902624941512</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0434805691100529</v>
+        <v>0.02556993989336633</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02623962504390645</v>
+        <v>0.07064932579550676</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02169225445194127</v>
+        <v>0.02269452473533873</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03355131469599323</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05265743454840616</v>
+        <v>0.0542621740790378</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03333853803318793</v>
+        <v>0.07140927668337574</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08319775753862407</v>
+        <v>0.08553626102113243</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03316517152423624</v>
+        <v>0.07110257449344881</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04408501628046726</v>
+        <v>0.02544817871523577</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02684984888213683</v>
+        <v>0.07229233337214645</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02179147838858654</v>
+        <v>0.0223976754816587</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03433157782845819</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05255276144280091</v>
+        <v>0.05414410616611018</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03411385287116904</v>
+        <v>0.07306995753647749</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0837344581359975</v>
+        <v>0.08586991828222856</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0339364545829394</v>
+        <v>0.07275612273748251</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04464154959567029</v>
+        <v>0.02531826129095877</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02746007272036722</v>
+        <v>0.07393534094878614</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02207677877767193</v>
+        <v>0.02249290169125093</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03511184096092315</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05301912507720891</v>
+        <v>0.05400507917534864</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03488916770915015</v>
+        <v>0.07473063838957926</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08503041427654878</v>
+        <v>0.08487316139573331</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03470773764164257</v>
+        <v>0.0744096709815162</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04514767561479336</v>
+        <v>0.02618131784218936</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0280702965585976</v>
+        <v>0.07557834852542583</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02204770880597252</v>
+        <v>0.02218118228320014</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03589210409338811</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05325605965078781</v>
+        <v>0.05354747773560958</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03566448254713126</v>
+        <v>0.07639131924268101</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08518541788320688</v>
+        <v>0.08464971824420775</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03547902070034574</v>
+        <v>0.07606321922554989</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04560090089696795</v>
+        <v>0.02503847859058155</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02868052039682798</v>
+        <v>0.07722135610206553</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0223038216602635</v>
+        <v>0.02226349617659117</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03667236722585307</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05386309936269501</v>
+        <v>0.05367368647574933</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03643979738511238</v>
+        <v>0.07805200009578278</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08529926087890083</v>
+        <v>0.08410331671021309</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0362503037590489</v>
+        <v>0.0777167674695836</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04599873200132542</v>
+        <v>0.02589087375778939</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02929074423505837</v>
+        <v>0.07886436367870522</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02234467052731995</v>
+        <v>0.0220408222905088</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03745263035831803</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0542397784120881</v>
+        <v>0.05298609002462421</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0372151122230935</v>
+        <v>0.07971268094888455</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08597173518655948</v>
+        <v>0.08363768467631022</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03702158681775208</v>
+        <v>0.07937031571361729</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04633867548699726</v>
+        <v>0.02473963356546689</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02990096807328875</v>
+        <v>0.08050737125534491</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02246980859391701</v>
+        <v>0.02181413954403781</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03823289349078299</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05448563099812456</v>
+        <v>0.05298707301109062</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03799042706107461</v>
+        <v>0.0813733618019863</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08610263272911184</v>
+        <v>0.08305655002506029</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03779286987645524</v>
+        <v>0.08102386395765097</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04662109169207616</v>
+        <v>0.02558588823526806</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03051119191151913</v>
+        <v>0.0821503788319846</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02267878904682982</v>
+        <v>0.02178442685626304</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03901315662324795</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05470019131996193</v>
+        <v>0.05257902006400481</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03876574189905573</v>
+        <v>0.08303404265508807</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08669174542948682</v>
+        <v>0.08316364063902426</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03856415293515841</v>
+        <v>0.08267741220168467</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04688591463399754</v>
+        <v>0.02543076798884696</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03112141574974951</v>
+        <v>0.0837933864086243</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02287116507283347</v>
+        <v>0.02175266314626925</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03979341975571291</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05478299357675767</v>
+        <v>0.05216431581222319</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03954105673703684</v>
+        <v>0.08469472350818982</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08693886521061339</v>
+        <v>0.0826626844007633</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03933543599386158</v>
+        <v>0.08433096044571836</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04714667919307115</v>
+        <v>0.0242754030478576</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03173163958797989</v>
+        <v>0.08543639398526399</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02284648985870312</v>
+        <v>0.02161982733314126</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04057368288817786</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05513357196766944</v>
+        <v>0.05214534488460207</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04031637157501795</v>
+        <v>0.08635540436129159</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08684378399542053</v>
+        <v>0.08185740919283835</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04010671905256474</v>
+        <v>0.08598450868975205</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04740332634046717</v>
+        <v>0.02512092363395401</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03234186342621028</v>
+        <v>0.08707940156190368</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02290431659121389</v>
+        <v>0.02138689833596383</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04135394602064282</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05515146069185464</v>
+        <v>0.05162449190999777</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04109168641299907</v>
+        <v>0.08801608521439334</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08700629370683721</v>
+        <v>0.08125154289781056</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04087800211126792</v>
+        <v>0.08763805693378575</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04765579704735581</v>
+        <v>0.02396779595553112</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03295208726444066</v>
+        <v>0.08872240913854336</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0230441984571409</v>
+        <v>0.02135485507382179</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04213420915310778</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0549361939484708</v>
+        <v>0.05110414151726667</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04186700125098018</v>
+        <v>0.08967676606749511</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08752618626779229</v>
+        <v>0.08104881339824105</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04164928516997108</v>
+        <v>0.08929160517781945</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04790403228490722</v>
+        <v>0.02379854600748026</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03356231110267104</v>
+        <v>0.09036541671518306</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02306958405993619</v>
+        <v>0.02122315332028284</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04291447228557274</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05540433129315644</v>
+        <v>0.05108667833526512</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0426423160889613</v>
+        <v>0.09133744692059687</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08773907852637669</v>
+        <v>0.07994901573638108</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04242056822867425</v>
+        <v>0.09094515342185314</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04814797302429161</v>
+        <v>0.02260773015449161</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03417253494090142</v>
+        <v>0.09200842429182275</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02286909914329013</v>
+        <v>0.02107549384302045</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0436947354180377</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05490433100185937</v>
+        <v>0.05046121692123257</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04341763092694242</v>
+        <v>0.09299812777369863</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08693728763003372</v>
+        <v>0.07949185583943669</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04319185128737742</v>
+        <v>0.09259870166588684</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04838756023667917</v>
+        <v>0.02239903079381524</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03478275877913181</v>
+        <v>0.09365143186846243</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02296273878248885</v>
+        <v>0.020909725206906</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04447499855050266</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05519283816162163</v>
+        <v>0.0502899336744124</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04419294576492352</v>
+        <v>0.0946588086268004</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08702761453253088</v>
+        <v>0.07876501387879797</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04396313434608059</v>
+        <v>0.09425224990992052</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04862273489324009</v>
+        <v>0.02417613032270132</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03539298261736219</v>
+        <v>0.09529443944510213</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0230491875303319</v>
+        <v>0.02072903684733308</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04525526168296762</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05505908474267204</v>
+        <v>0.04967726564364983</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04496826060290464</v>
+        <v>0.09631948947990215</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08737377863583767</v>
+        <v>0.07858063574146229</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04473441740478376</v>
+        <v>0.09590579815395421</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04885343796514454</v>
+        <v>0.02294271113839991</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03600320645559257</v>
+        <v>0.09693744702174183</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02302867637674168</v>
+        <v>0.02043661819969529</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04603552481543258</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05490381111037307</v>
+        <v>0.049330982234806</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04574357544088575</v>
+        <v>0.09798017033300392</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08737760781229847</v>
+        <v>0.07745086731442669</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04550570046348693</v>
+        <v>0.09755934639798791</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04907961042356274</v>
+        <v>0.02370245563816118</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03661343029382295</v>
+        <v>0.09858045459838152</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02300143631164051</v>
+        <v>0.02013565869938619</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04681578794789754</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05482775763008724</v>
+        <v>0.04895885285374199</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04651889027886687</v>
+        <v>0.09964085118610568</v>
       </c>
       <c r="N125" t="n">
-        <v>0.087041035431483</v>
+        <v>0.07728785448468845</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0462769835221901</v>
+        <v>0.09921289464202161</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04930119323966486</v>
+        <v>0.0234590462192352</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03722365413205334</v>
+        <v>0.1002234621750212</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02276769832495074</v>
+        <v>0.02002934778179938</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04759605108036249</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0547316646671771</v>
+        <v>0.04816864690631889</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04729420511684799</v>
+        <v>0.1013015320392074</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08676599486296138</v>
+        <v>0.07620374313924472</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04704826658089326</v>
+        <v>0.1008664428860553</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04951812738462109</v>
+        <v>0.02321616527887211</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03783387797028372</v>
+        <v>0.1018664697516609</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02292769340659473</v>
+        <v>0.01982087488232839</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04837631421282745</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05491627258700518</v>
+        <v>0.04786813379839783</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0480695199548291</v>
+        <v>0.1029622128923092</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08625441947630341</v>
+        <v>0.07581067916509271</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04781954963959643</v>
+        <v>0.102519991130089</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04973035382960162</v>
+        <v>0.02097749521432201</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0384441018085141</v>
+        <v>0.1035094773283006</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02288165254649484</v>
+        <v>0.01961342943636687</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04915657734529241</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0548823217549339</v>
+        <v>0.04766508293583988</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04884483479281022</v>
+        <v>0.104622893745411</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08630824264107906</v>
+        <v>0.07422080844922968</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0485908326982996</v>
+        <v>0.1041735393741227</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04993781354577664</v>
+        <v>0.02174671842283504</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03905432564674449</v>
+        <v>0.1051524849049403</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02272980673457338</v>
+        <v>0.01951020087930834</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04993684047775737</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05443055253632589</v>
+        <v>0.04666726372450614</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04962014963079133</v>
+        <v>0.1062835745985127</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08572939772685817</v>
+        <v>0.07364627687865277</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04936211575700276</v>
+        <v>0.1058270876181564</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05014044750431632</v>
+        <v>0.02152676730594325</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03966454948497487</v>
+        <v>0.10679549248158</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02257238696075274</v>
+        <v>0.01931437864654639</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05071710361022233</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05456170529654358</v>
+        <v>0.04618244557025772</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05039546446877244</v>
+        <v>0.1079442554516145</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08601981810321074</v>
+        <v>0.07299923034035927</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05013339881570594</v>
+        <v>0.1074806358621901</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05033819667639088</v>
+        <v>0.02029522157450835</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04027477332320525</v>
+        <v>0.1084385000582197</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02270962421495527</v>
+        <v>0.01892644884578351</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05149736674268729</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05417652040094956</v>
+        <v>0.04581839787895572</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05117077930675356</v>
+        <v>0.1096049363047163</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08528143713970665</v>
+        <v>0.07258429950397233</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0509046818744091</v>
+        <v>0.1091341841062238</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05053100203317051</v>
+        <v>0.02204401807143925</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04088499716143564</v>
+        <v>0.1100815076348594</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02254174948710329</v>
+        <v>0.01882441863967153</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05227762987515225</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05367573821490629</v>
+        <v>0.04575843177979799</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05194609414473467</v>
+        <v>0.111265617157818</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08471618820591581</v>
+        <v>0.07131959934637438</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05167596493311227</v>
+        <v>0.1107877323502574</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05071880454582537</v>
+        <v>0.01977842814947828</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04149522099966602</v>
+        <v>0.1117245152114991</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02256899376711918</v>
+        <v>0.01870641866468342</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05305789300761721</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05356009910377632</v>
+        <v>0.04525516057797649</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05272140898271578</v>
+        <v>0.1129262980109198</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08482600467140805</v>
+        <v>0.0704931199735952</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05244724799181544</v>
+        <v>0.1124412805942912</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05090154518552566</v>
+        <v>0.02150372316136776</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0421054448378964</v>
+        <v>0.1133675227881387</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02239158804492526</v>
+        <v>0.01847701459851943</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05383815614008217</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05343034343292216</v>
+        <v>0.04461735702812022</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0534967238206969</v>
+        <v>0.1145869788640215</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08431281990575351</v>
+        <v>0.06992224822642934</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05321853105051861</v>
+        <v>0.1140948288383248</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05107916492344159</v>
+        <v>0.01922517445984995</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04271566867612678</v>
+        <v>0.1150105303647784</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02240976331044391</v>
+        <v>0.01814077211887975</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05461841927254713</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05308721156770629</v>
+        <v>0.0440561430369954</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05427203865867802</v>
+        <v>0.1162476597171233</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08417856727852197</v>
+        <v>0.06912437094567142</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05398981410922177</v>
+        <v>0.1157483770823585</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05125160473074331</v>
+        <v>0.02094805339766718</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04332589251435717</v>
+        <v>0.1166535379414181</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02232375055359744</v>
+        <v>0.0180022569034647</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05539868240501209</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0532314438734913</v>
+        <v>0.0431826405113683</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05504735349665912</v>
+        <v>0.117908340570225</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08322518015928321</v>
+        <v>0.06851687497211623</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05476109716792495</v>
+        <v>0.1174019253263922</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05141880557860103</v>
+        <v>0.01967763132756174</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04393611635258755</v>
+        <v>0.1182965455180578</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02213378076430823</v>
+        <v>0.01756603462997451</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05617894553747704</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05286378071563966</v>
+        <v>0.04270797135800511</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05582266833464024</v>
+        <v>0.1195690214233268</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08255459191760739</v>
+        <v>0.06761714714655831</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05553238022662811</v>
+        <v>0.1190554735704259</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05158070843818496</v>
+        <v>0.01841917960227592</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04454634019081793</v>
+        <v>0.1199395530946975</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02204008493249862</v>
+        <v>0.01733667097610946</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05695920866994199</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05238496245951391</v>
+        <v>0.04224325748367211</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05659798317262136</v>
+        <v>0.1212297022764286</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08236873592306426</v>
+        <v>0.06614257430979226</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05630366328533128</v>
+        <v>0.1207090218144596</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05173725428066524</v>
+        <v>0.01817796957455205</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04515656402904831</v>
+        <v>0.1215825606713372</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02194289404809097</v>
+        <v>0.01721873161956976</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05773947180240696</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0520957294704765</v>
+        <v>0.04159962079513543</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05737329801060248</v>
+        <v>0.1228903831295303</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08206954554522383</v>
+        <v>0.06561054330261273</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05707494634403445</v>
+        <v>0.1223625700584933</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0518883840772121</v>
+        <v>0.01995927259713243</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0457667878672787</v>
+        <v>0.1232255682479769</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02194243910100761</v>
+        <v>0.01701678223805572</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05851973493487192</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05169682211389001</v>
+        <v>0.04088818319916135</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05814861284858358</v>
+        <v>0.1245510639826321</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08175895415365597</v>
+        <v>0.06503844096581451</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05784622940273762</v>
+        <v>0.124016118302527</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0520340387989957</v>
+        <v>0.01876836002275933</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04637701170550908</v>
+        <v>0.1248685758246166</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02163895108117089</v>
+        <v>0.01693538850926755</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05929999806733687</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05168898075511696</v>
+        <v>0.04082006660251608</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0589239276865647</v>
+        <v>0.1262117448357339</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08083889511793058</v>
+        <v>0.06374365414019212</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05861751246144078</v>
+        <v>0.1256696665465607</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05217415941718626</v>
+        <v>0.01761050320417507</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04698723554373946</v>
+        <v>0.1265115834012563</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0215326609785032</v>
+        <v>0.01657911611090554</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06008026119980184</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05147294575951986</v>
+        <v>0.0401063929119658</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05969924252454582</v>
+        <v>0.1278724256888356</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08001130180761756</v>
+        <v>0.06304356966654012</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05938879552014396</v>
+        <v>0.1273232147905944</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05230868690295393</v>
+        <v>0.01849097349412197</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04759745938196985</v>
+        <v>0.128154590977896</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02162379978292683</v>
+        <v>0.01645253072066993</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0608605243322668</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05074945749246118</v>
+        <v>0.03975828403427678</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06047455736252692</v>
+        <v>0.1295331065419374</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07987810759228697</v>
+        <v>0.06315557438565345</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06016007857884711</v>
+        <v>0.1289767630346281</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05243756222746895</v>
+        <v>0.01741504224534229</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04820768322020023</v>
+        <v>0.1297975985545357</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02141259848436416</v>
+        <v>0.01646019801626099</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06164078746473176</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05061925631930347</v>
+        <v>0.03938686187621529</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06124987220050804</v>
+        <v>0.1311937873950391</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07934124584150853</v>
+        <v>0.06269705513832646</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06093136163755029</v>
+        <v>0.1306303112786618</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05256072636190146</v>
+        <v>0.01838798081057836</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04881790705843061</v>
+        <v>0.1314406061311754</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02129928807273757</v>
+        <v>0.01650668367537896</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06242105059719671</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05008308260540928</v>
+        <v>0.0393032483445474</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06202518703848916</v>
+        <v>0.1328544682481409</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07900264992485234</v>
+        <v>0.06248539876535392</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06170264469625345</v>
+        <v>0.1322838595226955</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05267812027742168</v>
+        <v>0.01939174006117653</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04942813089666099</v>
+        <v>0.1330836137078151</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02108409953796934</v>
+        <v>0.01639501166290393</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06320131372966167</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05014167671614111</v>
+        <v>0.0396185653460395</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06280050187647028</v>
+        <v>0.1345151491012427</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07816425321188808</v>
+        <v>0.06233409747966706</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06247392775495662</v>
+        <v>0.1339374077667292</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05278968494519978</v>
+        <v>0.01740303131600132</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05003835473489137</v>
+        <v>0.1347266212844548</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02096726386998188</v>
+        <v>0.01630018289673447</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06398157686212663</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04939577901686143</v>
+        <v>0.03911829754143356</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06357581671445138</v>
+        <v>0.1361758299543444</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07762798907218582</v>
+        <v>0.06235250851852558</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0632452108136598</v>
+        <v>0.1355909560107629</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05289536133640595</v>
+        <v>0.01942146127919297</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05064857857312175</v>
+        <v>0.1363696288610944</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02104901205869751</v>
+        <v>0.01651173380031258</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06476183999459159</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04894612987293281</v>
+        <v>0.03923775654776165</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06435113155243251</v>
+        <v>0.1378365108074462</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07709579087531554</v>
+        <v>0.06229526837137683</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06401649387236297</v>
+        <v>0.1372445042547966</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05299509042221039</v>
+        <v>0.01944664261367215</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05125880241135214</v>
+        <v>0.1380126364377341</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02092957509403859</v>
+        <v>0.01632932888930395</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06554210312705655</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04909346964971772</v>
+        <v>0.03937231739467859</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06512644639041362</v>
+        <v>0.1394971916605479</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07666959199084705</v>
+        <v>0.06236109945949281</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06478777693106613</v>
+        <v>0.1388980524988302</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05308881317378327</v>
+        <v>0.01747818798235953</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05186902624958252</v>
+        <v>0.1396556440143738</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02080918396592746</v>
+        <v>0.01655263267937432</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06632236625952151</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04863853871257875</v>
+        <v>0.03942116284852656</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06590176122839472</v>
+        <v>0.1411578725136497</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07655132578835028</v>
+        <v>0.06274872420414523</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0655590599897693</v>
+        <v>0.1405516007428639</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0531764705622948</v>
+        <v>0.01851571004817582</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0524792500878129</v>
+        <v>0.1412986515910135</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02048806966428646</v>
+        <v>0.01638130968618938</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06710262939198647</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04818207742687836</v>
+        <v>0.03948347567564772</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06667707606637585</v>
+        <v>0.1428185533667515</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0758429256373952</v>
+        <v>0.06275686502660605</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06633034304847248</v>
+        <v>0.1422051489868976</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05325800355891517</v>
+        <v>0.01855882147404168</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05308947392604329</v>
+        <v>0.1429416591676532</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02046646317903797</v>
+        <v>0.01641502442541486</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06788289252445143</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04772482615797904</v>
+        <v>0.03965843864238425</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06745239090435697</v>
+        <v>0.1444792342198532</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07504632490755159</v>
+        <v>0.06268424434814723</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06710162610717563</v>
+        <v>0.1438586972309313</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05333335313481456</v>
+        <v>0.01960713492287778</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05369969776427367</v>
+        <v>0.1445846667442929</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02044459550010432</v>
+        <v>0.01655344141271646</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06866315565691639</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04736752527124338</v>
+        <v>0.03944523451507828</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06822770574233808</v>
+        <v>0.146139915072955</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07426345696838949</v>
+        <v>0.06282958459004045</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06787290916587881</v>
+        <v>0.145512245474965</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05340246026116315</v>
+        <v>0.01766026305760483</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05430992160250405</v>
+        <v>0.1462276743209326</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02012269761740786</v>
+        <v>0.01659622516375991</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06944341878938134</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04701091513203387</v>
+        <v>0.04004304606007209</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06900302058031919</v>
+        <v>0.1478005959260567</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07389625518947884</v>
+        <v>0.0630916081735578</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06864419222458197</v>
+        <v>0.1471657937189987</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05346526590913114</v>
+        <v>0.01971781854114348</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05492014544073444</v>
+        <v>0.1478706818975723</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02010100052087095</v>
+        <v>0.01654304019421093</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0702236819218463</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.046855736105713</v>
+        <v>0.04015105604370769</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06977833541830031</v>
+        <v>0.1494612767791585</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07344665294038943</v>
+        <v>0.06316903751997105</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06941547528328514</v>
+        <v>0.1488193419630324</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05352171104988871</v>
+        <v>0.01977941403641446</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05553036927896482</v>
+        <v>0.149513689474212</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01987973520041592</v>
+        <v>0.01679355101973523</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07100394505431126</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04610272855764327</v>
+        <v>0.04006844723232741</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07055365025628142</v>
+        <v>0.1511219576322603</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0729165835906912</v>
+        <v>0.06386059505055208</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0701867583419883</v>
+        <v>0.1504728902070661</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05357173665460607</v>
+        <v>0.0198446721639125</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0561405931171952</v>
+        <v>0.1511566970508517</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01985913264596514</v>
+        <v>0.01674742215599853</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07178420818677622</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04575263285318729</v>
+        <v>0.04009440239227338</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07132896509426252</v>
+        <v>0.152782638485362</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07290798050995417</v>
+        <v>0.06386500318657284</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07095804140069148</v>
+        <v>0.1521264384510998</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05361528369445336</v>
+        <v>0.01794679100871752</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05675081695542559</v>
+        <v>0.1527997046274913</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01973516034954333</v>
+        <v>0.01690852301927455</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07256447131924118</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04539548242277497</v>
+        <v>0.04032810428988773</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07210427993224365</v>
+        <v>0.1544433193384638</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0723178990530941</v>
+        <v>0.06369339637980426</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07172932445939464</v>
+        <v>0.1537799866951335</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05365229314060083</v>
+        <v>0.01810912213009739</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05736104079365597</v>
+        <v>0.1544427122041311</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01960104859058846</v>
+        <v>0.01691609670444558</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07334473445170614</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04551403321106953</v>
+        <v>0.04052144022577056</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07287959477022476</v>
+        <v>0.1561040001915656</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07213827804906764</v>
+        <v>0.06439345095450832</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07250060751809781</v>
+        <v>0.1554335349391672</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05368270596421864</v>
+        <v>0.02031997275649886</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05797126463188635</v>
+        <v>0.1560857197807707</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01955721570176452</v>
+        <v>0.01717176738338051</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0741249975841711</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04460920878911748</v>
+        <v>0.04074254992143092</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07365490960820588</v>
+        <v>0.1577646810446673</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07136807782540444</v>
+        <v>0.064478334446056</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07327189057680097</v>
+        <v>0.1570870831832009</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05370646313647697</v>
+        <v>0.02056765011636869</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05858148847011674</v>
+        <v>0.1577287273574104</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01930419570825438</v>
+        <v>0.01736540759374763</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07490526071663606</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04438224149631448</v>
+        <v>0.04106783739601313</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07443022444618699</v>
+        <v>0.1594253618977691</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07170639208933732</v>
+        <v>0.06560947983619136</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07404317363550415</v>
+        <v>0.1587406314272346</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05372350562854603</v>
+        <v>0.02084046143815355</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05919171230834711</v>
+        <v>0.1593717349340501</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01914252263524091</v>
+        <v>0.0173868898732152</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07568552384910102</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04393436367205633</v>
+        <v>0.04157263233785122</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07520553928416811</v>
+        <v>0.1610860427508708</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07085231454809915</v>
+        <v>0.06624832010665882</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07481445669420732</v>
+        <v>0.1603941796712683</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.053733774411596</v>
+        <v>0.02012671395030027</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05980193614657749</v>
+        <v>0.1610147425106898</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01907273050790705</v>
+        <v>0.01772608675945149</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07646578698156598</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04346680765573868</v>
+        <v>0.04253226443527922</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07598085412214922</v>
+        <v>0.1627467236039726</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07110493890892289</v>
+        <v>0.06765628823920256</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07558573975291048</v>
+        <v>0.1620477279153019</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05373721045679706</v>
+        <v>0.01941471488125553</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06041215998480787</v>
+        <v>0.1626577500873295</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01869535335143566</v>
+        <v>0.01787287079012477</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07724605011403093</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04288080578675729</v>
+        <v>0.04272206337663106</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07675616896013034</v>
+        <v>0.1644074044570744</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07016335887904157</v>
+        <v>0.06859481721556687</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07635702281161366</v>
+        <v>0.1637012761593356</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05373721045679703</v>
+        <v>0.01969277145946607</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06041215998480787</v>
+        <v>0.1643007576639692</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01851092519100961</v>
+        <v>0.01831711450290331</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07802631324649589</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04277759040450793</v>
+        <v>0.04371735885024075</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07753148379811145</v>
+        <v>0.1660680853101761</v>
       </c>
       <c r="N165" t="n">
-        <v>0.07032666816568794</v>
+        <v>0.06932534001749596</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07712830587031683</v>
+        <v>0.1653548244033693</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05282609859126713</v>
+        <v>0.02094919091337865</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06041189145634386</v>
+        <v>0.1659437652406089</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01841998005181182</v>
+        <v>0.01834869043545542</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07880657637896085</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04205839384838622</v>
+        <v>0.0440934805444422</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07830679863609256</v>
+        <v>0.1677287661632779</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06949396047609507</v>
+        <v>0.06970928962673428</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07789958892901999</v>
+        <v>0.167008372647403</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0519252310815872</v>
+        <v>0.02117233095148709</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06041162292787985</v>
+        <v>0.1675867728172486</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01812305195902517</v>
+        <v>0.01865747112544931</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07958683951142581</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04142444845778798</v>
+        <v>0.04452575814756948</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07908211347407368</v>
+        <v>0.1693894470163796</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06896432951749581</v>
+        <v>0.07060809902502602</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07867087198772316</v>
+        <v>0.1686619208914367</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05103509847929447</v>
+        <v>0.02237421053672716</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06041135439941582</v>
+        <v>0.1692297803938883</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01792067493783255</v>
+        <v>0.01893728183568275</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08036710264389077</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04107698657210887</v>
+        <v>0.04478953443442096</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07985742831205479</v>
+        <v>0.1710501278694814</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06883686899712316</v>
+        <v>0.07159566860038774</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07944215504642634</v>
+        <v>0.1703154691354704</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05015619133604212</v>
+        <v>0.02257105308905239</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06041108587095181</v>
+        <v>0.170872787970528</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01771338301341684</v>
+        <v>0.01900817553505955</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08114736577635573</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0402172405307446</v>
+        <v>0.04530675291274669</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08063274315003591</v>
+        <v>0.1727108087225832</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0691106726222101</v>
+        <v>0.07214658287474246</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08021343810512949</v>
+        <v>0.1719690173795041</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04928900020336683</v>
+        <v>0.0217632295383692</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06041081734248779</v>
+        <v>0.1725157955471677</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01750171021096093</v>
+        <v>0.01917487034007605</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08192762890882069</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03984644267309093</v>
+        <v>0.04571344002680053</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08140805798801702</v>
+        <v>0.1743714895756849</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06878483409998937</v>
+        <v>0.07278146384053319</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08098472116383267</v>
+        <v>0.1736225656235378</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04843401563284427</v>
+        <v>0.02095111081458396</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06041054881402377</v>
+        <v>0.1741588031238074</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01748619055564772</v>
+        <v>0.01943768752431886</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08270789204128565</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03896582533854362</v>
+        <v>0.04611037839312077</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08218337282599814</v>
+        <v>0.1760321704287867</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06785844713769418</v>
+        <v>0.07350153495965733</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08175600422253583</v>
+        <v>0.1752761138675715</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04759172817601377</v>
+        <v>0.02213506784760303</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06041028028555975</v>
+        <v>0.175801810700447</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0172673580726601</v>
+        <v>0.0195969483613746</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08348815517375061</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03847662086649828</v>
+        <v>0.04679835062824578</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08295868766397925</v>
+        <v>0.1776928512818884</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0678306054425572</v>
+        <v>0.07390801969401228</v>
       </c>
       <c r="O172" t="n">
-        <v>0.082527287281239</v>
+        <v>0.1769296621116052</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04676262838452431</v>
+        <v>0.02131547156733283</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06041001175709573</v>
+        <v>0.1774448182770867</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01684574678718095</v>
+        <v>0.01965297412482994</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08426841830621556</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03828006159635075</v>
+        <v>0.04677813934871386</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08373400250196036</v>
+        <v>0.1793535321349902</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06780040272181154</v>
+        <v>0.07450214150549561</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08329857033994216</v>
+        <v>0.1785832103556389</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04594720680991465</v>
+        <v>0.02249269290367973</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06040974322863172</v>
+        <v>0.1790878258537264</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01682189072439315</v>
+        <v>0.01990608608827149</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08504868143868052</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0373773798674967</v>
+        <v>0.04765052717106344</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08450931733994148</v>
+        <v>0.181014212988092</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06736693268269001</v>
+        <v>0.07538512385600454</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08406985339864534</v>
+        <v>0.1802367585996726</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04514595400376045</v>
+        <v>0.0216671027865501</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06040947470016771</v>
+        <v>0.1807308334303661</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01639632390947962</v>
+        <v>0.01995660552528589</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08582894457114548</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03666980801933187</v>
+        <v>0.04791629671183284</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08528463217792259</v>
+        <v>0.1826748938411937</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06672928903242564</v>
+        <v>0.07615819020743692</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0848411364573485</v>
+        <v>0.1818903068437063</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04435936051760348</v>
+        <v>0.02283907214585034</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06040920617170368</v>
+        <v>0.1823738410070058</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01636958036762323</v>
+        <v>0.02010485370945976</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08660920770361044</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03645857839125191</v>
+        <v>0.04797623058756034</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08605994701590371</v>
+        <v>0.1843355746942955</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06658656547825126</v>
+        <v>0.07652256402168978</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08561241951605167</v>
+        <v>0.18354385508774</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04358791690308791</v>
+        <v>0.02400897191148681</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06040893764323967</v>
+        <v>0.1840168485836455</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01614219412400689</v>
+        <v>0.02025115191437976</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0873894708360754</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03534492332265268</v>
+        <v>0.04833111141478436</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08683526185388483</v>
+        <v>0.1859962555473973</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06623785572739993</v>
+        <v>0.07697946876066092</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08638370257475485</v>
+        <v>0.1851974033317737</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04283211371175486</v>
+        <v>0.02317717301336591</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06040866911477565</v>
+        <v>0.1856598561602852</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01581469920381343</v>
+        <v>0.02049582141363249</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08816973396854036</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03493007515292978</v>
+        <v>0.04868172181004324</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08761057669186594</v>
+        <v>0.187656936400499</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06558225348710439</v>
+        <v>0.07713012788624746</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08715498563345801</v>
+        <v>0.1868509515758074</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04209244149518001</v>
+        <v>0.02234903080703279</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06040840058631164</v>
+        <v>0.1873028637369249</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01558762963222579</v>
+        <v>0.02053985609548807</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08894999710100532</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03421526622147894</v>
+        <v>0.04922884438987529</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08838589152984705</v>
+        <v>0.1893176172536008</v>
       </c>
       <c r="N179" t="n">
-        <v>0.06541885246459778</v>
+        <v>0.07787777153550568</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08792626869216118</v>
+        <v>0.188504499819841</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0413693908049079</v>
+        <v>0.02353061862199863</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06040813205784761</v>
+        <v>0.1889458713135646</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01546151943442688</v>
+        <v>0.02059162777156687</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08973026023347028</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03400172886769598</v>
+        <v>0.04978577903865813</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08916120636782816</v>
+        <v>0.1909782981067025</v>
       </c>
       <c r="N180" t="n">
-        <v>0.06534674636711296</v>
+        <v>0.07825403202366388</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08869755175086434</v>
+        <v>0.1901580480638747</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0406634521925772</v>
+        <v>0.02271582394664742</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0604078635293836</v>
+        <v>0.1905888788902043</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01513690263559953</v>
+        <v>0.02084927045280494</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09051052336593524</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03289069543097653</v>
+        <v>0.04996214631667775</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08993652120580928</v>
+        <v>0.1926389789598043</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06496502890188288</v>
+        <v>0.07945340212457519</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08946883480956752</v>
+        <v>0.1918115963079084</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03997511620973174</v>
+        <v>0.02289827485940706</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06040759500091958</v>
+        <v>0.192231886466844</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01481431326092664</v>
+        <v>0.02090726522562321</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09129078649840019</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03248339825071636</v>
+        <v>0.05054463905164572</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09071183604379039</v>
+        <v>0.1942996598129061</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06437279377614041</v>
+        <v>0.08015486492069568</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09024011786827069</v>
+        <v>0.1934651445519421</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0393048734079472</v>
+        <v>0.02407159943870547</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06040732647245557</v>
+        <v>0.1938748940434837</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01479428533559113</v>
+        <v>0.02116009317644266</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09207104963086515</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03218106966631115</v>
+        <v>0.05051981327175614</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09148715088177151</v>
+        <v>0.1959603406660078</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06346913469711851</v>
+        <v>0.08013740349448145</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09101140092697385</v>
+        <v>0.1951186927959758</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0386532143387713</v>
+        <v>0.0242294257629706</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06040705794399154</v>
+        <v>0.1955179016201234</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01437735288477589</v>
+        <v>0.02130223539168422</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09285131276333011</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0312849420171567</v>
+        <v>0.05127422500520318</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09226246571975263</v>
+        <v>0.1976210215191096</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06305314537205009</v>
+        <v>0.08108000092838852</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09178268398567702</v>
+        <v>0.1967722410400095</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03802062955383647</v>
+        <v>0.02536538191063035</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06040678941552752</v>
+        <v>0.197160909196763</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01436404993366379</v>
+        <v>0.02152817295776888</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09363157589579507</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03049624764264863</v>
+        <v>0.05129443028018091</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09303778055773373</v>
+        <v>0.1992817023722114</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06272391950816814</v>
+        <v>0.08106164030487323</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09255396704438019</v>
+        <v>0.1984257892840432</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03740760960468959</v>
+        <v>0.02547309596011269</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06040652088706351</v>
+        <v>0.1988039167734027</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01415491050743772</v>
+        <v>0.02163238696111758</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09441183902826003</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03021621888218276</v>
+        <v>0.05176698512488345</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09381309539571485</v>
+        <v>0.2009423832253131</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06278055081270562</v>
+        <v>0.08166130470639171</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09332525010308335</v>
+        <v>0.2000793375280769</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03681464504290635</v>
+        <v>0.02554864614473844</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0604062523585995</v>
+        <v>0.2004469243500424</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01385046863128056</v>
+        <v>0.02150935848815132</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09519210216072499</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.02954608807515471</v>
+        <v>0.05187844556750504</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09458841023369598</v>
+        <v>0.2026030640784149</v>
       </c>
       <c r="N187" t="n">
-        <v>0.06162213299289526</v>
+        <v>0.08195797721539988</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09409653316178652</v>
+        <v>0.2017328857721106</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03624222642003799</v>
+        <v>0.02461537226039556</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06040598383013547</v>
+        <v>0.2020899319266821</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01375125833037523</v>
+        <v>0.02166719917902453</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09597236529318995</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.02878708756096032</v>
+        <v>0.05192687248412303</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09536372507167708</v>
+        <v>0.2042637449315166</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06134775975597029</v>
+        <v>0.08257868217225456</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09486781622048969</v>
+        <v>0.2033864340161443</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03569084428770999</v>
+        <v>0.02468062595479604</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06040571530167146</v>
+        <v>0.2037329395033218</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0134578136299046</v>
+        <v>0.02182361884687399</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09675262842565491</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.02864044967899521</v>
+        <v>0.05236410819771137</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09613903990965819</v>
+        <v>0.2059244257846184</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0610565248091634</v>
+        <v>0.08219350933055208</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09563909927919285</v>
+        <v>0.205039982260178</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03515898611187181</v>
+        <v>0.02574438377840619</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06040544677320744</v>
+        <v>0.2053759470799615</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01337066855505155</v>
+        <v>0.02177875965643856</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09753289155811987</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.02800740676865515</v>
+        <v>0.0522982608851997</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09691435474763932</v>
+        <v>0.2075851066377201</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06054752185970769</v>
+        <v>0.08250347099214023</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09641038233789602</v>
+        <v>0.2066935305042117</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03463512393049494</v>
+        <v>0.02380662228169247</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06040517824474343</v>
+        <v>0.2070189546566012</v>
       </c>
       <c r="J191" t="n">
-        <v>0.013190357130999</v>
+        <v>0.02173260129736947</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09831315469058483</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.02758919116933589</v>
+        <v>0.05242928107095249</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09768966958562043</v>
+        <v>0.2092457874908219</v>
       </c>
       <c r="N191" t="n">
-        <v>0.05971984461483593</v>
+        <v>0.0828084898119183</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0971816653965992</v>
+        <v>0.2083470787482454</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03411774520953222</v>
+        <v>0.0258673180151212</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0604049097162794</v>
+        <v>0.2086619622332409</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0128174133829298</v>
+        <v>0.02198512345931794</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09909341782304978</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.02678703522043305</v>
+        <v>0.05275711927933435</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09846498442360153</v>
+        <v>0.2109064683439237</v>
       </c>
       <c r="N192" t="n">
-        <v>0.05987258678178126</v>
+        <v>0.08320848844478579</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09795294845530236</v>
+        <v>0.2100006269922791</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03360734050060433</v>
+        <v>0.02392644752915881</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06040464118781539</v>
+        <v>0.2103049698098806</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01274927099497737</v>
+        <v>0.02183630583193519</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09987368095551474</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02628976464234514</v>
+        <v>0.05268172603470983</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09924029926158266</v>
+        <v>0.2125671491970254</v>
       </c>
       <c r="N193" t="n">
-        <v>0.05878239275037089</v>
+        <v>0.08320338954564238</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09872423151400553</v>
+        <v>0.2116541752363127</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03310440035526429</v>
+        <v>0.02498398737427165</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06040437265935137</v>
+        <v>0.2119479773865203</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01258227919741031</v>
+        <v>0.02198612810487248</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1006539440879797</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02568327815672802</v>
+        <v>0.05290305186144351</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1000156140995638</v>
+        <v>0.2142278300501272</v>
       </c>
       <c r="N194" t="n">
-        <v>0.05802348510410982</v>
+        <v>0.08379311576938742</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09949551457270871</v>
+        <v>0.2133077234803464</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0326094153250878</v>
+        <v>0.02603991410092615</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06040410413088736</v>
+        <v>0.21359098496316</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01231643205484022</v>
+        <v>0.022034569967781</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1014342072204447</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02516853269553712</v>
+        <v>0.05282104728389989</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1007909289375449</v>
+        <v>0.215888510903229</v>
       </c>
       <c r="N195" t="n">
-        <v>0.05789946885798058</v>
+        <v>0.0835775897709205</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1002667976314119</v>
+        <v>0.2149612717243801</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0321228759616295</v>
+        <v>0.02609420425958866</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06040383560242333</v>
+        <v>0.2152339925397997</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0122517343972422</v>
+        <v>0.02218161111031199</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1022144703529096</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02504652287267009</v>
+        <v>0.05313566282644355</v>
       </c>
       <c r="M196" t="n">
-        <v>0.101566243775526</v>
+        <v>0.2175491917563307</v>
       </c>
       <c r="N196" t="n">
-        <v>0.05681402776761463</v>
+        <v>0.0837567342051409</v>
       </c>
       <c r="O196" t="n">
-        <v>0.101038080690115</v>
+        <v>0.2166148199684138</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03164527281650747</v>
+        <v>0.02514683440072556</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06040356707395932</v>
+        <v>0.2168770001164393</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01218819105459139</v>
+        <v>0.02222723122211667</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1029947334853746</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02431824330202467</v>
+        <v>0.05324684901343904</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1023415586135071</v>
+        <v>0.2192098726094325</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05587084558864358</v>
+        <v>0.08413047172694837</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1018093637488182</v>
+        <v>0.2182683682124475</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03117709644127601</v>
+        <v>0.02619778107480327</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0604032985454953</v>
+        <v>0.218520007693079</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01182580685686291</v>
+        <v>0.02227140999284627</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1037749966178395</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02368468859749853</v>
+        <v>0.05305455636925094</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1031168734514882</v>
+        <v>0.2208705534625342</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05507360607669876</v>
+        <v>0.08409872499124221</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1025806468075214</v>
+        <v>0.2199219164564812</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03071883738751079</v>
+        <v>0.02624702083228816</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06040303001703129</v>
+        <v>0.2201630152697187</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01166458663403187</v>
+        <v>0.02231412711215201</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1045552597503045</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02334685337298947</v>
+        <v>0.05345873541824381</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1038921882894693</v>
+        <v>0.222531234315636</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05392599298741174</v>
+        <v>0.08456141665292211</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1033519298662245</v>
+        <v>0.2215754647005149</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03027098620676825</v>
+        <v>0.02629453022364659</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06040276148856726</v>
+        <v>0.2218060228463584</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0117045352160734</v>
+        <v>0.02235536226968514</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1053355228827694</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02300573224239513</v>
+        <v>0.05365933668478218</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1046675031274505</v>
+        <v>0.2241919151687378</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05323169007641387</v>
+        <v>0.08481846936688736</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1041232129249277</v>
+        <v>0.2232290129445486</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02983403345066305</v>
+        <v>0.02634028579934499</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06040249296010325</v>
+        <v>0.2234490304229981</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01144565743296262</v>
+        <v>0.02229509515509687</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1061157860152344</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0223623198196132</v>
+        <v>0.05375631069323056</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1054428179654316</v>
+        <v>0.2258525960218395</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05189438109933681</v>
+        <v>0.08506980578803758</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1048944959836309</v>
+        <v>0.2248825611885823</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02940846967075112</v>
+        <v>0.0253842641098497</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06040222443163924</v>
+        <v>0.2250920379996378</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01138795811467463</v>
+        <v>0.02233330545803841</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1068960491476994</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0216176107185414</v>
+        <v>0.05344960796795362</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1062181328034127</v>
+        <v>0.2275132768749413</v>
       </c>
       <c r="N202" t="n">
-        <v>0.05121774981181176</v>
+        <v>0.08481534857127221</v>
       </c>
       <c r="O202" t="n">
-        <v>0.105665779042334</v>
+        <v>0.226536109432616</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02899478541860816</v>
+        <v>0.02442644170562713</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06040195590317522</v>
+        <v>0.2267350455762775</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01123144209118458</v>
+        <v>0.022369972868161</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1076763122801643</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02137259955307749</v>
+        <v>0.05353917903331581</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1069934476413938</v>
+        <v>0.229173957728043</v>
       </c>
       <c r="N203" t="n">
-        <v>0.04960547996947035</v>
+        <v>0.08545502037149072</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1064370621010372</v>
+        <v>0.2281896576766497</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02859347124579267</v>
+        <v>0.02446679513714368</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0604016873747112</v>
+        <v>0.2283780531529172</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0110761141924676</v>
+        <v>0.02240507707511588</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1084565754126293</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0204282809371191</v>
+        <v>0.05362497441368175</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1077687624793749</v>
+        <v>0.2308346385811448</v>
       </c>
       <c r="N204" t="n">
-        <v>0.04906125532794409</v>
+        <v>0.08558874384359266</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1072083451597404</v>
+        <v>0.2298432059206834</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02820501770391524</v>
+        <v>0.0265053009548657</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06040141884624718</v>
+        <v>0.2300210607295569</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01092197924849877</v>
+        <v>0.02243859776855427</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1092368385450943</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.01998564948456402</v>
+        <v>0.05400694463341604</v>
       </c>
       <c r="M205" t="n">
-        <v>0.108544077317356</v>
+        <v>0.2324953194342466</v>
       </c>
       <c r="N205" t="n">
-        <v>0.04708875964286435</v>
+        <v>0.08491644164247741</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1079796282184435</v>
+        <v>0.2314967541647171</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02782991534453379</v>
+        <v>0.02654193570925959</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06040115031778317</v>
+        <v>0.2316640683061966</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01066904208925323</v>
+        <v>0.02247051463812737</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1100171016775592</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.01924569980930985</v>
+        <v>0.05418504021688308</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1093193921553371</v>
+        <v>0.2341560002873483</v>
       </c>
       <c r="N206" t="n">
-        <v>0.04629167666986267</v>
+        <v>0.08553803642304464</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1087509112771467</v>
+        <v>0.2331503024087508</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02746865471922406</v>
+        <v>0.02557667595079174</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06040088178931915</v>
+        <v>0.2333070758828363</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01041730754470611</v>
+        <v>0.02240080737348644</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1107973648100242</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.01880942652525439</v>
+        <v>0.05415921168844759</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1100947069933182</v>
+        <v>0.2358166811404501</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0447736901645705</v>
+        <v>0.08545345084019368</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1095221943358499</v>
+        <v>0.2348038506527844</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02712172637954689</v>
+        <v>0.02660949822992855</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06040061326085513</v>
+        <v>0.234950083459476</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01036678044483253</v>
+        <v>0.02242945566428269</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1115776279424891</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.01827782424629529</v>
+        <v>0.05402940957247401</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1108700218312994</v>
+        <v>0.2374773619935519</v>
       </c>
       <c r="N208" t="n">
-        <v>0.04383848388261924</v>
+        <v>0.08536260754882424</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1102934773945531</v>
+        <v>0.2364573988968182</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02678962087710818</v>
+        <v>0.02664037909713637</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06040034473239111</v>
+        <v>0.2365930910361156</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01031746561960761</v>
+        <v>0.02255643920016734</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1123578910749541</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.01785188758633033</v>
+        <v>0.05419558439332697</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1116453366692805</v>
+        <v>0.2391380428466536</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04228974157964055</v>
+        <v>0.08596542920383554</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1110647604532562</v>
+        <v>0.2381109471408518</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02647282876346822</v>
+        <v>0.02466929510288162</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06040007620392709</v>
+        <v>0.2382360986127553</v>
       </c>
       <c r="J210" t="n">
-        <v>0.009969367899006466</v>
+        <v>0.02248173767079165</v>
       </c>
       <c r="K210" t="n">
-        <v>0.113138154207419</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0176326111592571</v>
+        <v>0.05415768667537096</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1124206515072616</v>
+        <v>0.2407987236997554</v>
       </c>
       <c r="N210" t="n">
-        <v>0.04103114701126559</v>
+        <v>0.08556183846012722</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1118360435119594</v>
+        <v>0.2397644953848855</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02617184059020262</v>
+        <v>0.02669622279763064</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06039980767546308</v>
+        <v>0.239879106189395</v>
       </c>
       <c r="J211" t="n">
-        <v>0.009822492113004212</v>
+        <v>0.0227053307658068</v>
       </c>
       <c r="K211" t="n">
-        <v>0.113918417339884</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01672098957897342</v>
+        <v>0.05401566694297061</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1131959663452427</v>
+        <v>0.2424594045528571</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03986638393312608</v>
+        <v>0.08595175797259869</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1126073265706626</v>
+        <v>0.2414180436289192</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02588714690887511</v>
+        <v>0.02672113873184987</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06039953914699905</v>
+        <v>0.2415221137660347</v>
       </c>
       <c r="J212" t="n">
-        <v>0.00967684309157598</v>
+        <v>0.02262719817486404</v>
       </c>
       <c r="K212" t="n">
-        <v>0.114698680472349</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0164180174593769</v>
+        <v>0.05446947572049046</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1139712811832238</v>
+        <v>0.2441200854059589</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03899913610085343</v>
+        <v>0.08613511039614952</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1133786096293657</v>
+        <v>0.2430715918729529</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02561923827108608</v>
+        <v>0.02574401945600566</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06039927061853504</v>
+        <v>0.2431651213426744</v>
       </c>
       <c r="J213" t="n">
-        <v>0.009732425664696884</v>
+        <v>0.02254731958761459</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1154789436048139</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01592468941436537</v>
+        <v>0.05431906353229504</v>
       </c>
       <c r="M213" t="n">
-        <v>0.114746596021205</v>
+        <v>0.2457807662590607</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03783308727007911</v>
+        <v>0.08621181838567915</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1141498926880689</v>
+        <v>0.2447251401169867</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02536860522839852</v>
+        <v>0.02676484152056442</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06039900209007103</v>
+        <v>0.2448081289193141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.009489244662342057</v>
+        <v>0.02276567469370969</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1162592067372789</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01514200005783639</v>
+        <v>0.05436438090274887</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1155219108591861</v>
+        <v>0.2474414471121624</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03587192119643445</v>
+        <v>0.0857818045960872</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1149211757467721</v>
+        <v>0.2463786883610203</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02536860522839852</v>
+        <v>0.0267835814759925</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06039900209007103</v>
+        <v>0.2464511364959538</v>
       </c>
       <c r="J215" t="n">
-        <v>0.009347304914486605</v>
+        <v>0.02278224318280056</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1170394698697438</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01467094400368779</v>
+        <v>0.05460537835621659</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1162972256971672</v>
+        <v>0.2491021279652642</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03511932163555115</v>
+        <v>0.085844991682273</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1156924588054752</v>
+        <v>0.248032236605054</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02471878395624764</v>
+        <v>0.02580021587275633</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06026977262178218</v>
+        <v>0.2480941440725935</v>
       </c>
       <c r="J216" t="n">
-        <v>0.009206611251105667</v>
+        <v>0.02279700474453841</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1178197330022088</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0145125158658172</v>
+        <v>0.0542420064170627</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1170725405351483</v>
+        <v>0.2507628088183659</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03417897234306061</v>
+        <v>0.08610130229913615</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1164637418641784</v>
+        <v>0.2496857848490877</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02407622955017216</v>
+        <v>0.02681472126132225</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06014054315349333</v>
+        <v>0.2497371516492332</v>
       </c>
       <c r="J217" t="n">
-        <v>0.008967168502174355</v>
+        <v>0.02260993906857446</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1185999961346737</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01416771025812238</v>
+        <v>0.05467421560965177</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1178478553731294</v>
+        <v>0.2524234896714677</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03235455707459417</v>
+        <v>0.08675065910157603</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1172350249228816</v>
+        <v>0.2513393330931214</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0234412815497193</v>
+        <v>0.02582707419215669</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06001131368520447</v>
+        <v>0.2513801592258729</v>
       </c>
       <c r="J218" t="n">
-        <v>0.00902898149766778</v>
+        <v>0.02272102584455998</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1193802592671387</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01353752179450099</v>
+        <v>0.05450195645834838</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1186231702111105</v>
+        <v>0.2540841705245695</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03134975958578334</v>
+        <v>0.08599298474449218</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1180063079815847</v>
+        <v>0.2529928813371551</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02281427949443644</v>
+        <v>0.02583725121572599</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05988208421691562</v>
+        <v>0.2530231668025126</v>
       </c>
       <c r="J219" t="n">
-        <v>0.008692055067561079</v>
+        <v>0.02263024476214616</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1201605223996037</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01292294508885075</v>
+        <v>0.05442517948751704</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1193984850490916</v>
+        <v>0.2557448513776713</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03026826363225976</v>
+        <v>0.08612820188278419</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1187775910402879</v>
+        <v>0.2546464295811888</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02219556292387072</v>
+        <v>0.02684522888249655</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05975285474862677</v>
+        <v>0.2546661743791522</v>
       </c>
       <c r="J220" t="n">
-        <v>0.008556394041829361</v>
+        <v>0.02263757551098425</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1209407855320686</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01262497475506938</v>
+        <v>0.05434383522152234</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1201737998870727</v>
+        <v>0.257405532230773</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02871375296965478</v>
+        <v>0.08675623317135145</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1195488740989911</v>
+        <v>0.2562999778252225</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02158547137756944</v>
+        <v>0.0258509837429348</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05962362528033792</v>
+        <v>0.2563091819557919</v>
       </c>
       <c r="J221" t="n">
-        <v>0.008522003250447753</v>
+        <v>0.02274299778072544</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1217210486645336</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01224460540705458</v>
+        <v>0.05445787418472883</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1209491147250538</v>
+        <v>0.2590662130838747</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02768991135359977</v>
+        <v>0.08657700126509349</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1203201571576942</v>
+        <v>0.2579535260692561</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02098434439507974</v>
+        <v>0.02585449234750705</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05949439581204906</v>
+        <v>0.2579521895324317</v>
       </c>
       <c r="J222" t="n">
-        <v>0.008388887523391376</v>
+        <v>0.022746491261021</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1225013117969985</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01188283165870405</v>
+        <v>0.05446724690150107</v>
       </c>
       <c r="M222" t="n">
-        <v>0.121724429563035</v>
+        <v>0.2607268939369765</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02670042253972632</v>
+        <v>0.08649042881890973</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1210914402163974</v>
+        <v>0.2596070743132898</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02039252151594901</v>
+        <v>0.02685573124667973</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05936516634376021</v>
+        <v>0.2595951971090714</v>
       </c>
       <c r="J223" t="n">
-        <v>0.008157051690635346</v>
+        <v>0.02284803564152213</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1232815749294635</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01144064812391554</v>
+        <v>0.05457190389620356</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1224997444010161</v>
+        <v>0.2623875747900783</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02594897028366588</v>
+        <v>0.08669643848769976</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1218627232751006</v>
+        <v>0.2612606225573235</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01981034227972441</v>
+        <v>0.0268234878688663</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05923593687547136</v>
+        <v>0.261238204685711</v>
       </c>
       <c r="J224" t="n">
-        <v>0.008226500582154801</v>
+        <v>0.02263254553298032</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1240618380619285</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01121904941658669</v>
+        <v>0.05485215657154624</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1232750592389972</v>
+        <v>0.2640482556431801</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02453923834104998</v>
+        <v>0.08624035799400825</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1226340063338037</v>
+        <v>0.2629141708013572</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01923814622595321</v>
+        <v>0.02472571260677128</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05910670740718251</v>
+        <v>0.2628812122623507</v>
       </c>
       <c r="J225" t="n">
-        <v>0.007897239027924836</v>
+        <v>0.02256156578240366</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1248421011943934</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01111903015061527</v>
+        <v>0.05430595676274177</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1240503740769783</v>
+        <v>0.2657089364962818</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02347491046750988</v>
+        <v>0.08617384824411906</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1234052893925069</v>
+        <v>0.2645677190453909</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01867627289418265</v>
+        <v>0.0255696537323843</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05897747793889366</v>
+        <v>0.2645242198389904</v>
       </c>
       <c r="J226" t="n">
-        <v>0.007969271857920596</v>
+        <v>0.02243893677508868</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1256223643268584</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01054158493989893</v>
+        <v>0.05433169283961617</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1248256889149594</v>
+        <v>0.2673696173493836</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02255967041867729</v>
+        <v>0.08531032896768215</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1241765724512101</v>
+        <v>0.2662212672894246</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01812506182395995</v>
+        <v>0.02636262148263264</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05884824847060482</v>
+        <v>0.2661672274156301</v>
       </c>
       <c r="J227" t="n">
-        <v>0.007842603902117183</v>
+        <v>0.0222709901278621</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1264026274593233</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0107877083983354</v>
+        <v>0.05354478850411434</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1256010037529406</v>
+        <v>0.2690302982024853</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0220972019501835</v>
+        <v>0.08477391198795031</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1249478555099132</v>
+        <v>0.2678748155334583</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01758485255483235</v>
+        <v>0.02611192609444355</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05871901900231596</v>
+        <v>0.2678102349922698</v>
       </c>
       <c r="J228" t="n">
-        <v>0.007617239990489723</v>
+        <v>0.02216405745755051</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1271828905917883</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01025839513982241</v>
+        <v>0.05306066745818125</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1263763185909217</v>
+        <v>0.2706909790555871</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02089118881766017</v>
+        <v>0.08468870912817622</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1257191385686164</v>
+        <v>0.2695283637774921</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01705598462634716</v>
+        <v>0.0248248778047443</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0585897895340271</v>
+        <v>0.2694532425689095</v>
       </c>
       <c r="J229" t="n">
-        <v>0.007393184953013353</v>
+        <v>0.02182447038098059</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1279631537242533</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.009854639778257623</v>
+        <v>0.05249475340376183</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1271516334289028</v>
+        <v>0.2723516599086889</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02084531477673857</v>
+        <v>0.08307883221161272</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1264904216273196</v>
+        <v>0.2711819120215258</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01653879757805158</v>
+        <v>0.02450878685046213</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05846056006573826</v>
+        <v>0.2710962501455492</v>
       </c>
       <c r="J230" t="n">
-        <v>0.007370440659953473</v>
+        <v>0.021658560514979</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1287434168567182</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01017729149390031</v>
+        <v>0.0522624700428011</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1279269482668839</v>
+        <v>0.2740123407617906</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02016298282496565</v>
+        <v>0.08256839306151259</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1272617046860228</v>
+        <v>0.2728354602655594</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01603363094949287</v>
+        <v>0.02517096346852433</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05833133059744941</v>
+        <v>0.2727392577221889</v>
       </c>
       <c r="J231" t="n">
-        <v>0.007148719557407326</v>
+        <v>0.02137265947637237</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1295236799891832</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.009911633719278307</v>
+        <v>0.05137924107724395</v>
       </c>
       <c r="M231" t="n">
-        <v>0.128702263104865</v>
+        <v>0.2756730216148924</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01951058459199179</v>
+        <v>0.08118150350112852</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1280329877447259</v>
+        <v>0.2744890085095931</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0155408242802182</v>
+        <v>0.02281871789585815</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05820210112916055</v>
+        <v>0.2743822652988285</v>
       </c>
       <c r="J232" t="n">
-        <v>0.007127838616180271</v>
+        <v>0.0211730988819874</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1303039431216481</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.009347510959165695</v>
+        <v>0.05076049020903536</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1294775779428461</v>
+        <v>0.2773337024679941</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01866340185613546</v>
+        <v>0.08014227535371338</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1288042708034291</v>
+        <v>0.2761425567536268</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01506071710977495</v>
+        <v>0.02345936036939083</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0580728716608717</v>
+        <v>0.2760252728754682</v>
       </c>
       <c r="J233" t="n">
-        <v>0.007007810914081869</v>
+        <v>0.02066621034865068</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1310842062541131</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.009285133075390889</v>
+        <v>0.05012164114012027</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1302528927808272</v>
+        <v>0.2789943833210959</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01802191984144841</v>
+        <v>0.07937482044251998</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1295755538621323</v>
+        <v>0.2777961049976605</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01459364897771028</v>
+        <v>0.02210020112604965</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05794364219258285</v>
+        <v>0.277668280452108</v>
       </c>
       <c r="J234" t="n">
-        <v>0.006988649528921691</v>
+        <v>0.02045832549318891</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1318644693865781</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.009124709929782204</v>
+        <v>0.04947811757244364</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1310282076188083</v>
+        <v>0.2806550641741977</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01688662377198241</v>
+        <v>0.07760325059080098</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1303468369208354</v>
+        <v>0.2794496532416942</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01413995942357145</v>
+        <v>0.02374855040276188</v>
       </c>
       <c r="G235" t="n">
-        <v>0.057814412724294</v>
+        <v>0.2793112880287477</v>
       </c>
       <c r="J235" t="n">
-        <v>0.006770367538509285</v>
+        <v>0.02005577593242872</v>
       </c>
       <c r="K235" t="n">
-        <v>0.132644732519043</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.008866451384167945</v>
+        <v>0.04864534320795047</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1318035224567894</v>
+        <v>0.2823157450272994</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01635799887178929</v>
+        <v>0.07655167762180926</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1311181199795386</v>
+        <v>0.2811032014857279</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01369998798690571</v>
+        <v>0.02141171843645476</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05768518325600516</v>
+        <v>0.2809542956053873</v>
       </c>
       <c r="J236" t="n">
-        <v>0.006652978020654204</v>
+        <v>0.01986489328319679</v>
       </c>
       <c r="K236" t="n">
-        <v>0.133424995651508</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.00881056730037641</v>
+        <v>0.04793874174858564</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1325788372947706</v>
+        <v>0.2839764258804012</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01633653036492083</v>
+        <v>0.07514421335879751</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1318894030382418</v>
+        <v>0.2827567497297616</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0132740742072603</v>
+        <v>0.02209701546405556</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0575559537877163</v>
+        <v>0.282597303182027</v>
       </c>
       <c r="J237" t="n">
-        <v>0.006536494053166017</v>
+        <v>0.01959200916231975</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1342052587839729</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.00855726754023603</v>
+        <v>0.04727373689629413</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1333541521327517</v>
+        <v>0.285637106733503</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01512270347542871</v>
+        <v>0.07470496962501866</v>
       </c>
       <c r="O237" t="n">
-        <v>0.132660686096945</v>
+        <v>0.2844102979737952</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01286255762418242</v>
+        <v>0.02080891566118716</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05742672431942744</v>
+        <v>0.2842403107586667</v>
       </c>
       <c r="J238" t="n">
-        <v>0.006520928713854277</v>
+        <v>0.01924257002117558</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1349855219164379</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.008906761965575077</v>
+        <v>0.04666525197625854</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1341294669707328</v>
+        <v>0.2872977875866047</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01431700342736475</v>
+        <v>0.07385500066418327</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1334319691556481</v>
+        <v>0.286063846217829</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0124657777772194</v>
+        <v>0.02252581668716975</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05729749485113859</v>
+        <v>0.2858833183353064</v>
       </c>
       <c r="J239" t="n">
-        <v>0.00620629508052855</v>
+        <v>0.01910041636050792</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1357657850489029</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.008359260438221855</v>
+        <v>0.04578119936600952</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1349047818087139</v>
+        <v>0.2889584684397065</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01431991544478073</v>
+        <v>0.07273367419169408</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1342032522143513</v>
+        <v>0.2877173944618627</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01208268775276718</v>
+        <v>0.02024163710671733</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05716826538284975</v>
+        <v>0.2875263259119461</v>
       </c>
       <c r="J240" t="n">
-        <v>0.006092606230998387</v>
+        <v>0.01895733454857569</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1365460481813678</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.008214972820004801</v>
+        <v>0.04509490079400025</v>
       </c>
       <c r="M240" t="n">
-        <v>0.135680096646695</v>
+        <v>0.2906191492928082</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01393192475172839</v>
+        <v>0.07180881530935718</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1349745352730544</v>
+        <v>0.2893709427058964</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01170530837146554</v>
+        <v>0.02195635960160753</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05703903591456089</v>
+        <v>0.2891693334885858</v>
       </c>
       <c r="J241" t="n">
-        <v>0.006079875243073338</v>
+        <v>0.01861330958554383</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1373263113138328</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.00817410897275217</v>
+        <v>0.04500631972090888</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1364554114846762</v>
+        <v>0.29227983014591</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01275351657225943</v>
+        <v>0.07078036689536904</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1357458183317576</v>
+        <v>0.29102449094993</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0113325927197104</v>
+        <v>0.02166996685361799</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05690980644627203</v>
+        <v>0.2908123410652255</v>
       </c>
       <c r="J242" t="n">
-        <v>0.005868115194562984</v>
+        <v>0.01836832647157725</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1381065744462977</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.008236878758292293</v>
+        <v>0.04421541960741346</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1372307263226573</v>
+        <v>0.2939405109990118</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0125851761304257</v>
+        <v>0.06994827182792618</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1365171013904608</v>
+        <v>0.2926780391939637</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01096488033704911</v>
+        <v>0.02038244154452636</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05678057697798319</v>
+        <v>0.2924553486418652</v>
       </c>
       <c r="J243" t="n">
-        <v>0.00595733916327687</v>
+        <v>0.01822237020684092</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1388868375787627</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.007903492038453502</v>
+        <v>0.04352216391419217</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1380060411606384</v>
+        <v>0.2956011918521135</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01182738865027899</v>
+        <v>0.06861247298522521</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1372883844491639</v>
+        <v>0.2943315874379974</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01060251076302886</v>
+        <v>0.02109376635611023</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05665134750969434</v>
+        <v>0.2940983562185049</v>
       </c>
       <c r="J244" t="n">
-        <v>0.005647560227024555</v>
+        <v>0.01797542579149976</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1396671007112276</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.00767415867506413</v>
+        <v>0.04292651610192313</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1387813559986195</v>
+        <v>0.2972618727052153</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01138063935587103</v>
+        <v>0.06787291324546268</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1380596675078671</v>
+        <v>0.2959851356820311</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0102458235371969</v>
+        <v>0.02080392397014725</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05652211804140549</v>
+        <v>0.2957413637951445</v>
       </c>
       <c r="J245" t="n">
-        <v>0.005738791463615604</v>
+        <v>0.01762747822571872</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1404473638436926</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.007549088529952563</v>
+        <v>0.04262843963128449</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1395566708366006</v>
+        <v>0.298922553558317</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01114541347125358</v>
+        <v>0.06712953548683503</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1388309505665703</v>
+        <v>0.2976386839260648</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009895158199100466</v>
+        <v>0.01851289706841506</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05639288857311664</v>
+        <v>0.2973843713717843</v>
       </c>
       <c r="J246" t="n">
-        <v>0.005631045950859573</v>
+        <v>0.01727851250966274</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1412276269761576</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.007828491464947102</v>
+        <v>0.04202789796295431</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1403319856745817</v>
+        <v>0.3005832344114188</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01032219622047847</v>
+        <v>0.06578228258753915</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1396022336252734</v>
+        <v>0.2992922321700985</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009550854288286781</v>
+        <v>0.01922066833269127</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05626365910482778</v>
+        <v>0.2990273789484239</v>
       </c>
       <c r="J247" t="n">
-        <v>0.005524336766566017</v>
+        <v>0.01712851364349675</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1420078901086225</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.007412577341876031</v>
+        <v>0.04132485455761079</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1411073005125628</v>
+        <v>0.3022439152645205</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009811472827597367</v>
+        <v>0.06553109742577123</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1403735166839766</v>
+        <v>0.3009457804141322</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009213251344303147</v>
+        <v>0.01992722044475353</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05613442963653893</v>
+        <v>0.3006703865250636</v>
       </c>
       <c r="J248" t="n">
-        <v>0.005318676988544491</v>
+        <v>0.01687746662738569</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1427881532410875</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.007501556022567746</v>
+        <v>0.04051927287593202</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1418826153505439</v>
+        <v>0.3039045961176223</v>
       </c>
       <c r="N248" t="n">
-        <v>0.009213728516662079</v>
+        <v>0.06437592287972815</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1411447997426798</v>
+        <v>0.3025993286581659</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008882688906696794</v>
+        <v>0.01863253608637946</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05600520016825008</v>
+        <v>0.3023133941017033</v>
       </c>
       <c r="J249" t="n">
-        <v>0.005214079694604565</v>
+        <v>0.01652535646149453</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1435684163735524</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.007195637368850566</v>
+        <v>0.03991111637859612</v>
       </c>
       <c r="M249" t="n">
-        <v>0.142657930188525</v>
+        <v>0.3055652769707241</v>
       </c>
       <c r="N249" t="n">
-        <v>0.008329448511724402</v>
+        <v>0.0636167018276062</v>
       </c>
       <c r="O249" t="n">
-        <v>0.141916082801383</v>
+        <v>0.3042528769021995</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008559506515014949</v>
+        <v>0.01933659793934669</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05587597069996123</v>
+        <v>0.303956401678343</v>
       </c>
       <c r="J250" t="n">
-        <v>0.00521055796255579</v>
+        <v>0.01637216814598817</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1443486795060174</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.006895031242552807</v>
+        <v>0.03920034852628124</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1434332450265062</v>
+        <v>0.3072259578238258</v>
       </c>
       <c r="N250" t="n">
-        <v>0.008159118036836166</v>
+        <v>0.06225337714760204</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1426873658600861</v>
+        <v>0.3059064251462333</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008244043708804855</v>
+        <v>0.01803938868543286</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05574674123167239</v>
+        <v>0.3055994092549827</v>
       </c>
       <c r="J251" t="n">
-        <v>0.004908124870207725</v>
+        <v>0.01601788668103156</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1451289426384824</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.006999947505502785</v>
+        <v>0.0389869327796655</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1442085598644873</v>
+        <v>0.3088866386769276</v>
       </c>
       <c r="N251" t="n">
-        <v>0.007803222316048963</v>
+        <v>0.06118589171791233</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1434586489187893</v>
+        <v>0.307559973390267</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007936640027613739</v>
+        <v>0.01874089100641559</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05561751176338352</v>
+        <v>0.3072424168316224</v>
       </c>
       <c r="J252" t="n">
-        <v>0.004806793495369943</v>
+        <v>0.01576249706678964</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1459092057709473</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.006810596019528881</v>
+        <v>0.03827083259942707</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1449838747024684</v>
+        <v>0.3105473195300293</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007462246573414599</v>
+        <v>0.06021418841673359</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1442299319774925</v>
+        <v>0.3092135216343007</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007637635010988901</v>
+        <v>0.0164410875840725</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05548828229509467</v>
+        <v>0.3088854244082621</v>
       </c>
       <c r="J253" t="n">
-        <v>0.004706576915851975</v>
+        <v>0.01550598430342735</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1466894689034123</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.00692718664645936</v>
+        <v>0.03745201144624402</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1457591895404495</v>
+        <v>0.3122080003831311</v>
       </c>
       <c r="N253" t="n">
-        <v>0.007136676032985012</v>
+        <v>0.05953821012226235</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1450012150361956</v>
+        <v>0.3108670698783344</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007347368198477554</v>
+        <v>0.01613996110018125</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05535905282680582</v>
+        <v>0.3105284319849018</v>
       </c>
       <c r="J254" t="n">
-        <v>0.004607488209463412</v>
+        <v>0.01524833339110965</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1474697320358772</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.006549929248122643</v>
+        <v>0.03713043278079445</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1465345043784306</v>
+        <v>0.3138686812362328</v>
       </c>
       <c r="N254" t="n">
-        <v>0.006826995918811862</v>
+        <v>0.05815789971269519</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1457724980948988</v>
+        <v>0.3125206181223681</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007066179129626947</v>
+        <v>0.01583749423651945</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05522982335851698</v>
+        <v>0.3121714395615415</v>
       </c>
       <c r="J255" t="n">
-        <v>0.004609540454013773</v>
+        <v>0.01508952933000145</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1482499951683422</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.006579033686347019</v>
+        <v>0.0364060600637566</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1473098192164118</v>
+        <v>0.3155293620893347</v>
       </c>
       <c r="N255" t="n">
-        <v>0.006233691454946788</v>
+        <v>0.05697320006622864</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1465437811536019</v>
+        <v>0.3141741663664018</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006794407343984309</v>
+        <v>0.01553366967486473</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05510059389022812</v>
+        <v>0.3138144471381812</v>
       </c>
       <c r="J256" t="n">
-        <v>0.00451274672731266</v>
+        <v>0.01482955712026769</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1490302583008072</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.006614709822960835</v>
+        <v>0.03567885675580848</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1480851340543929</v>
+        <v>0.3171900429424364</v>
       </c>
       <c r="N256" t="n">
-        <v>0.005757247865441739</v>
+        <v>0.05658405406105937</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1473150642123051</v>
+        <v>0.3158277146104355</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006532392381096881</v>
+        <v>0.01522847009699473</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05497136442193926</v>
+        <v>0.3154574547148209</v>
       </c>
       <c r="J257" t="n">
-        <v>0.004517120107169599</v>
+        <v>0.01446840176207334</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1498105214332721</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.006357167519792373</v>
+        <v>0.03504878631762828</v>
       </c>
       <c r="M257" t="n">
-        <v>0.148860448892374</v>
+        <v>0.3188507237955382</v>
       </c>
       <c r="N257" t="n">
-        <v>0.004998150374348476</v>
+        <v>0.0553904045753838</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1480863472710083</v>
+        <v>0.3174812628544691</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006280473780511962</v>
+        <v>0.01592187818468706</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05484213495365042</v>
+        <v>0.3171004622914605</v>
       </c>
       <c r="J258" t="n">
-        <v>0.004322673671394175</v>
+        <v>0.0142060482555833</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1505907845657371</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.006806616638670021</v>
+        <v>0.03431581220989413</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1496357637303551</v>
+        <v>0.3205114046486399</v>
       </c>
       <c r="N258" t="n">
-        <v>0.005356884205718559</v>
+        <v>0.05419219448739859</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1488576303297115</v>
+        <v>0.3191348110985028</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006038991081776753</v>
+        <v>0.01461387661971937</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05471290548536157</v>
+        <v>0.3187434698681003</v>
       </c>
       <c r="J259" t="n">
-        <v>0.00422942049779592</v>
+        <v>0.01414248160096253</v>
       </c>
       <c r="K259" t="n">
-        <v>0.151371047698202</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.006463267041422083</v>
+        <v>0.03367989789328416</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1504110785683362</v>
+        <v>0.3221720855017416</v>
       </c>
       <c r="N259" t="n">
-        <v>0.005133934583604005</v>
+        <v>0.05318936667530022</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1496289133884146</v>
+        <v>0.3207883593425365</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005808283824438501</v>
+        <v>0.01430444808386929</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05458367601707272</v>
+        <v>0.32038647744474</v>
       </c>
       <c r="J260" t="n">
-        <v>0.004137373664184409</v>
+        <v>0.01377768679837596</v>
       </c>
       <c r="K260" t="n">
-        <v>0.152151310830667</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.006427328589876907</v>
+        <v>0.03314100682847643</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1511863934063173</v>
+        <v>0.3238327663548435</v>
       </c>
       <c r="N260" t="n">
-        <v>0.004129786732056495</v>
+        <v>0.05228186401728535</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1504001964471178</v>
+        <v>0.3224419075865702</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005588691548044457</v>
+        <v>0.01499357525891445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05445444654878387</v>
+        <v>0.3220294850213796</v>
       </c>
       <c r="J261" t="n">
-        <v>0.004046546248369198</v>
+        <v>0.01341164884798854</v>
       </c>
       <c r="K261" t="n">
-        <v>0.152931573963132</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.006499011145862821</v>
+        <v>0.03259910247614919</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1519617082442984</v>
+        <v>0.3254934472079452</v>
       </c>
       <c r="N261" t="n">
-        <v>0.003944925875127792</v>
+        <v>0.05116962939155051</v>
       </c>
       <c r="O261" t="n">
-        <v>0.151171479505821</v>
+        <v>0.3240954558306039</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005380553792141848</v>
+        <v>0.01568124082663248</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05432521708049501</v>
+        <v>0.3236724925980193</v>
       </c>
       <c r="J262" t="n">
-        <v>0.003956951328159847</v>
+        <v>0.01314435274996521</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1537118370955969</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.00647852457120815</v>
+        <v>0.03195414829698043</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1527370230822795</v>
+        <v>0.327154128061047</v>
       </c>
       <c r="N262" t="n">
-        <v>0.003979837236869621</v>
+        <v>0.05005260567629227</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1519427625645241</v>
+        <v>0.3257490040746376</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005184210096277952</v>
+        <v>0.01336742746880098</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05419598761220616</v>
+        <v>0.325315500174659</v>
       </c>
       <c r="J263" t="n">
-        <v>0.003768601981365909</v>
+        <v>0.01307578350447092</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1544921002280619</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.006466078727741242</v>
+        <v>0.03120610775164837</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1535123379202607</v>
+        <v>0.3288148089141487</v>
       </c>
       <c r="N263" t="n">
-        <v>0.003335006041333799</v>
+        <v>0.04973073574970716</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1527140456232273</v>
+        <v>0.3274025523186713</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01305211786719762</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05406675814391732</v>
+        <v>0.3269585077512987</v>
       </c>
       <c r="J264" t="n">
-        <v>0.003781511285796943</v>
+        <v>0.01260592611167057</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1552723633605268</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.006661883477290464</v>
+        <v>0.03075494430083114</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1542876527582418</v>
+        <v>0.3304754897672504</v>
       </c>
       <c r="N264" t="n">
-        <v>0.003710917512572021</v>
+        <v>0.0487039624899917</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1534853286819305</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05405360024918047</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.00567864518267247</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05405386877764448</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006353462988774608</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05405413730610849</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007024408868731263</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05405440583457252</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007691438272879804</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05405467436303654</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008354506651645284</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05405494289150055</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009013569455423448</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05405521141996456</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009668582134638504</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05405547994842859</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01031950013962917</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0540557484768926</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01096627892081982</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05405601700535662</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.0116088739286062</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05405628553382064</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01224724061341179</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05405655406228466</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01288133442557676</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05405682259074868</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01351111081552474</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05405709111921269</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01413652523365152</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0540573596476767</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01475753313037977</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05405762817614073</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.0153740899560512</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05405789670460474</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01598615116108872</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05405816523306876</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01659367219588805</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05405843376153277</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01719660851087113</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.0540587022899968</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01779491555638121</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05405897081846081</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.0183885487828404</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05405923934692482</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01897746364064448</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05405950787538884</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0195616155802145</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05405977640385286</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02014096005189541</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05406004493231688</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02071563441699246</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.0540603134607809</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02128668559120527</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05406058198924491</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02185425093583817</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05406085051770894</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02241828590123755</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05406111904617295</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02297874593782392</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05406138757463697</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02353558649599306</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05406165610310098</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02408876302616469</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05406192463156501</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02463823097868647</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05406219316002902</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02518394580397829</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05406246168849303</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02572586295243593</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05406273021695705</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02626393787447846</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05406299874542107</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02679812602045482</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05406326727388509</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02732838284078428</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05406353580234911</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02785466378586259</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05406380433081312</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02837692430610814</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05406407285927715</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02889511985187126</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05406434138774116</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02940920587357052</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05406460991620517</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02991913782160168</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05406487844466919</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03042487114638242</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05406514697313321</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03092636129826448</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05406541550159723</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03142356372766573</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05406568403006124</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03191643388498191</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05406595255852525</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03240492722062997</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05406622108698928</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03288899918496312</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05406648961545329</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03336860522839852</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05406675814391732</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03336860522839852</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05405360024918047</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03388087837371575</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05418336677439736</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03438838059404247</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05431313329961424</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03489098170585764</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05444289982483112</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.0353885515256401</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05457266635004801</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.0358809598698687</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05470243287526489</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03636807655502242</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05483219940048178</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03684977139758012</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05496196592569867</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03732591421402067</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05509173245091556</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03779637482082292</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05522149897613243</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03826102303446587</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05535126550134933</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03871972867142836</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05548103202656621</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03917236154818921</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05561079855178309</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03961879148122741</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05574056507699998</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04005888828702182</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05587033160221687</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04049252178205128</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05600009812743375</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04091956178279479</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05612986465265064</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04133987810573115</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05625963117786753</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04175334056733924</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.0563893977030844</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04215981898409802</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0565191642283013</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04255918317248635</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05664893075351819</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04295130294898313</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05677869727873507</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04333604813006717</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05690846380395195</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04371328853221749</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05703823032916884</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04408289397191292</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05716799685438573</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0444452658483435</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05729776337960261</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04480346347425539</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0574275299048195</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04515788824883862</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05755729643003639</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04550840998857208</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05768706295525326</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0458548985099347</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05781682948047016</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04619722362940535</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05794659600568704</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04653525516346287</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05807636253090392</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04686886292858625</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05820612905612081</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04719791674125432</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0583358955813377</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.047522286417946</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05846566210655459</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04784184177514011</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05859542863177147</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04815645262931561</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05872519515698835</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04846598879695137</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05885496168220525</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04877032009452627</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05898472820742212</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04906931633851924</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05911449473263902</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04936284734540914</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0592442612578559</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04965078293167485</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05937402778307278</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04993299291379528</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05950379430828967</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05020934710824931</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05963356083350656</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05047971533151584</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05976332735872345</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05074396740007373</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05989309388394033</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05100197313040192</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06002286040915722</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05125360233897929</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06015262693437411</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05149872484228466</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06028239345959099</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05173721045679704</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06041215998480787</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04582480697119803</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06041215998480787</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05195595677824869</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06208108699367106</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05215814170985639</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06375001400253424</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05234441719016405</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06541894101139742</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05251543515771549</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06708786802026061</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05267184755105456</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0687567950291238</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05281430630872515</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07042572203798696</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05294346336927112</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07209464904685015</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05305997067123631</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07376357605571333</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05316448015316459</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07543250306457651</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05325764375359981</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0771014300734397</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05334011341108583</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07877035708230289</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05341254106416652</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08043928409116606</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05347557865138571</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08210821110002925</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05352987811128729</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08377713810889242</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05357609138241511</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0854460651177556</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05361487040331304</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0871149921266188</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05364686711252491</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08878391913548196</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.0536727334485946</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09045284614434516</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05369312135006595</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09212177315320834</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05370868275548284</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09379070016207151</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05372006960338913</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0954596271709347</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05372793383232865</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09712855417979789</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05373292738084529</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09879748118866107</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05373570218748289</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1004664081975243</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05373691019078532</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1021353352063874</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05373720332929644</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1038042622152506</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05372627016688939</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1054731892241138</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05366060644982597</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.107142116232977</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05353918776428498</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1088110432418402</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.0533660907793417</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1104799702507033</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05314539216407139</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1121488972595665</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05288116858754934</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1138178242684297</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05257749671885081</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1154867512772929</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.0522384532270511</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1171556782861561</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05186811478122549</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1188246052950192</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05147055805044921</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1204935323038824</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05104985970379756</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1221624593127456</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05061009641034584</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1238313863216088</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05015534483916929</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.125500313330472</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04968968165934318</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1271692403393352</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04921718353994282</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1288381673481983</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04874192715004348</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1305070943570615</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04826798915872039</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1321760213659247</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04779944623504887</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1338449483747879</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04734037504810418</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1355138753836511</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04689485226696161</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1371828023925143</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04646695456069642</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1388517294013774</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04606075859838387</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1405206564102406</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04568034104909927</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1421895834191038</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04532977858191787</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.143858510427967</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04499960533587331</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1455274374368302</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04467009871981018</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1471963644456934</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04434117688522667</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1488652914545565</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04401302152849552</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04368581434598951</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1522031454722829</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04335973703408141</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1538720724811461</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04303497128914397</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1555409994900093</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04271169880754997</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1572099264988724</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04239010128567219</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1588788535077356</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04207036041988337</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1605477805165988</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04175265790655628</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.162216707525462</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0414371754420637</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1638856345343252</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04112409472277841</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1655545615431884</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04081359744507316</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1672234885520515</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04050586530532071</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1688924155609147</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04020107999989384</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1705613425697779</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03989942322516531</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1722302695786411</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.0396010766775079</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1738991965875043</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03930622205329438</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1755681235963674</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03901504104889749</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1772370506052307</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03872771536069002</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1789059776140938</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03844442668504474</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.180574904622957</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03816535671833441</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1822438316318202</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03789068715693179</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1839127586406834</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03762059969720966</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1855816856495466</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03735523784291928</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1872506126584097</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03709312082847811</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1889195396672729</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03683344235045339</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1905884666761361</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03657624566485806</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1922573936849993</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03632157402770508</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1939263206938625</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03606947069500738</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1955952477027257</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03581997892277796</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1972641747115888</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.0355731419670297</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.198933101720452</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03532900308377557</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2006020287293152</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03508760552902853</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2022709557381784</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03484899255880151</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2039398827470416</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03461320742910746</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2056088097559047</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03438029339595935</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2072777367647679</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.0341502937153701</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2089466637736311</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03392325164335266</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2106155907824943</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03369921043591997</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2122845177913575</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03347821334908502</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2139534448002207</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03326030363886071</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2156223718090838</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03304552456126001</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.217291298817947</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03283391937229586</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2189602258268102</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.0326255313279812</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2206291528356734</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.032420403684329</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2222980798445366</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03221857969735219</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2239670068533997</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0320201026230637</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2256359338622629</v>
-      </c>
-    </row>
+        <v>0.329056100562705</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1100.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009387074781564003</v>
+        <v>0.001146249951461231</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001643007576639692</v>
+        <v>0.0006268565579196794</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0028138251658388</v>
+        <v>0.001543586549369334</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008389110697827115</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008351398466573789</v>
+        <v>0.004176549895063053</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001660680853101761</v>
+        <v>0.0008298764497303473</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0141769972276411</v>
+        <v>0.005981604201699964</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001653548244033693</v>
+        <v>0.00082995361636987</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006456201742799504</v>
+        <v>0.002265114994485125</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.004032099744682753</v>
+        <v>0.001253713115839359</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005190656413485643</v>
+        <v>0.003007586558224272</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003241727138234706</v>
+        <v>0.001677822139565423</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01440512613622069</v>
+        <v>0.008341325724848747</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003332019048985769</v>
+        <v>0.001659752899460695</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02061868345369855</v>
+        <v>0.01265866779402813</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00260141659609953</v>
+        <v>0.00165990723273974</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007472796866818912</v>
+        <v>0.003339613245748857</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004929022729919076</v>
+        <v>0.001880569673759038</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006442197371745562</v>
+        <v>0.004342870817645214</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004958504949380661</v>
+        <v>0.002516733209348134</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01687545602771345</v>
+        <v>0.01221236215316282</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004982042559305284</v>
+        <v>0.002489629349191042</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02770077203448723</v>
+        <v>0.01842520649053914</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00496064473210108</v>
+        <v>0.002501547226314026</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009158664242045041</v>
+        <v>0.004352762821929639</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006572030306558768</v>
+        <v>0.002507426231678718</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007786222422614029</v>
+        <v>0.005882743935283728</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003673957423332665</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01914669188999971</v>
+        <v>0.01495916944915224</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006642723412407045</v>
+        <v>0.003210470376302699</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03167731567740983</v>
+        <v>0.02223582245596145</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006614192976134773</v>
+        <v>0.00331981446547948</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006456201742799504</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009644961049651526</v>
+        <v>0.005287581839704639</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00821503788319846</v>
+        <v>0.003134282789598397</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008644543357169597</v>
+        <v>0.006462995336128131</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.004194555348913558</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02085282985229006</v>
+        <v>0.0176468512716827</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008303404265508806</v>
+        <v>0.004149382248651736</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03449911927384247</v>
+        <v>0.02648916381804373</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008267741220168467</v>
+        <v>0.00414976808184935</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01096537940214901</v>
+        <v>0.006456201742799504</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009858045459838153</v>
+        <v>0.004032099744682753</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009379297228104801</v>
+        <v>0.007131082957735388</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.005033466418696269</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02284872468153246</v>
+        <v>0.0200291393136022</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009964085118610569</v>
+        <v>0.004979258698382084</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03656313631901231</v>
+        <v>0.03002907481114037</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009921289464202161</v>
+        <v>0.004979721698219221</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01355802365987897</v>
+        <v>0.006874017327524337</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01209629923404826</v>
+        <v>0.004387995905437756</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01035262108811214</v>
+        <v>0.007925950250050232</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.00587237748847898</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02368923114467469</v>
+        <v>0.02188985718185119</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01162476597171233</v>
+        <v>0.005809135148112431</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0394663203081464</v>
+        <v>0.03426470519364422</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01157483770823585</v>
+        <v>0.00580967531458909</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01325793804443746</v>
+        <v>0.007606725591130195</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01314406061311754</v>
+        <v>0.005014852463357435</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01112665198988418</v>
+        <v>0.008658366082016457</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006711288558261692</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02522920400866469</v>
+        <v>0.02385950076139245</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01328544682481409</v>
+        <v>0.006639011597842778</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04200562473647185</v>
+        <v>0.03700520472394775</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01322838595226955</v>
+        <v>0.00663962893095896</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01534562213772279</v>
+        <v>0.008329472230659746</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01478706818975723</v>
+        <v>0.005641709021277115</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01153479202996809</v>
+        <v>0.009339099322577843</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.007550199628044403</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02770216564657824</v>
+        <v>0.02556856593718873</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01561328124999999</v>
+        <v>0.007468888047573126</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04386953926318837</v>
+        <v>0.04055972316044398</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01419389204545454</v>
+        <v>0.00746958254732883</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01441375452788151</v>
+        <v>0.009035402904589776</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01643007576639692</v>
+        <v>0.006268565579196794</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01271100088215213</v>
+        <v>0.00997891884067819</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008389110697827116</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02868049921511637</v>
+        <v>0.02770216564657824</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01660680853101761</v>
+        <v>0.008493307873816672</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04757046638359697</v>
+        <v>0.04386953926318837</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01653548244033693</v>
+        <v>0.008508664035081711</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01745379357972694</v>
+        <v>0.009717663271397045</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01807308334303661</v>
+        <v>0.006895422137116474</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01367988217460821</v>
+        <v>0.0105885935052613</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009228021767609826</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03058107369334392</v>
+        <v>0.02865761684803042</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01826748938411937</v>
+        <v>0.00912864094703382</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05099729320584262</v>
+        <v>0.04572568731260346</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01818903068437063</v>
+        <v>0.00912948978006857</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01845719765807236</v>
+        <v>0.01036939898955832</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01971609091967631</v>
+        <v>0.007522278695036154</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01444920153043232</v>
+        <v>0.01153479202996809</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01029119726423716</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03267226716456637</v>
+        <v>0.03028122561084687</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01992817023722114</v>
+        <v>0.009958517396764168</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05426643042192603</v>
+        <v>0.04741697815755491</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01984257892840432</v>
+        <v>0.009959443396438441</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01841542512773104</v>
+        <v>0.01098375571755037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.021359098496316</v>
+        <v>0.008149135252955832</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01520759894923336</v>
+        <v>0.01176580558209584</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.01090584390717525</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03431691359483274</v>
+        <v>0.0315152110069834</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0215888510903229</v>
+        <v>0.01078839384649452</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05752849270236265</v>
+        <v>0.05071116139230197</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02149612717243801</v>
+        <v>0.01078939701280831</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0203199343535163</v>
+        <v>0.01155387911384995</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02300210607295569</v>
+        <v>0.008775991810875511</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01604371443062023</v>
+        <v>0.01256664233271777</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.01174475497695796</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03657784695019189</v>
+        <v>0.03305319552181521</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02324953194342466</v>
+        <v>0.01161827029622486</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06083409471766815</v>
+        <v>0.05309903992917681</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02314967541647171</v>
+        <v>0.01161935062917818</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02116218370024141</v>
+        <v>0.01207291483693384</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02464511364959538</v>
+        <v>0.009402848368795191</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01684618797420179</v>
+        <v>0.01297904642470583</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.01258366604674067</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03861790119669287</v>
+        <v>0.03468880164071744</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02491021279652642</v>
+        <v>0.01244814674595521</v>
       </c>
       <c r="N80" t="n">
-        <v>0.063733851138358</v>
+        <v>0.05527141668051117</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0248032236605054</v>
+        <v>0.01244930424554805</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02193363153271966</v>
+        <v>0.01253400854527881</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02628812122623507</v>
+        <v>0.01002970492671487</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01780365957958692</v>
+        <v>0.01369980008208295</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01342257711652338</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0406999103003845</v>
+        <v>0.03631565184906518</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02657089364962818</v>
+        <v>0.01327802319568556</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06687837663494778</v>
+        <v>0.05751909455863718</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02645677190453909</v>
+        <v>0.01327925786191792</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02262573621576435</v>
+        <v>0.01293030589736161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02793112880287476</v>
+        <v>0.01065656148463455</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01830476924638452</v>
+        <v>0.01442568552887202</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.0142614881863061</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0422867082273157</v>
+        <v>0.03762736863223365</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02823157450272994</v>
+        <v>0.0141078996454159</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06951828587795311</v>
+        <v>0.06053287647588668</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02811032014857279</v>
+        <v>0.01410921147828779</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02122995611418878</v>
+        <v>0.01325495255165902</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02957413637951446</v>
+        <v>0.01128341804255423</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01913815697420346</v>
+        <v>0.01505348498909598</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01510039925608881</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04434112894353545</v>
+        <v>0.03941757447559802</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0298922553558317</v>
+        <v>0.01493777609514625</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07250419353788945</v>
+        <v>0.06210356534459155</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02976386839260648</v>
+        <v>0.01493916509465766</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02373774959280623</v>
+        <v>0.01355802365987897</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03121714395615415</v>
+        <v>0.01209629923404826</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0196924627626526</v>
+        <v>0.01547998068677775</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01593931032587152</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0459260064150927</v>
+        <v>0.0406798918645333</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03155293620893346</v>
+        <v>0.0157676525448766</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07468671428527229</v>
+        <v>0.06472196407708392</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03141741663664017</v>
+        <v>0.01576911871102753</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02414057501643</v>
+        <v>0.01368324663078153</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03286015153279384</v>
+        <v>0.01253713115839359</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02015632661134088</v>
+        <v>0.01610195484594025</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01677822139565423</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04740417460803634</v>
+        <v>0.04200794328441482</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03321361706203523</v>
+        <v>0.01659752899460695</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07621646279061739</v>
+        <v>0.06707887558569564</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03307096488067387</v>
+        <v>0.0165990723273974</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02446824981778093</v>
+        <v>0.0138591211258533</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03450315910943353</v>
+        <v>0.01316398771631327</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02031838851987713</v>
+        <v>0.01671618969060638</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01761713246543694</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04853846748841528</v>
+        <v>0.04329535122061762</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03487429791513699</v>
+        <v>0.01742740544433729</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07724405372444021</v>
+        <v>0.0688651027827587</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03472451312470756</v>
+        <v>0.01742902594376727</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02378548635188783</v>
+        <v>0.0140324307297585</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03614616668607323</v>
+        <v>0.01379084427423295</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02070081226455328</v>
+        <v>0.01741946744479909</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01845604353521965</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04919171902227851</v>
+        <v>0.04473573815851686</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03653497876823875</v>
+        <v>0.01825728189406764</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07853010509275116</v>
+        <v>0.07137144858060496</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03637806136874126</v>
+        <v>0.01825897956013714</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02509156313147388</v>
+        <v>0.01420318381555993</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03778917426271292</v>
+        <v>0.01441770083215262</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02107279988294576</v>
+        <v>0.01810857033254132</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01929495460500237</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04966447121663903</v>
+        <v>0.04592272658348776</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03819565962134051</v>
+        <v>0.01908715834379799</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07946745108528341</v>
+        <v>0.07298871589156636</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03803160961277494</v>
+        <v>0.01908893317650701</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02538433564077131</v>
+        <v>0.0143713887563204</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03943218183935261</v>
+        <v>0.01504455739007231</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02113527650959655</v>
+        <v>0.01868028057785592</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02013386567478508</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05071726143518643</v>
+        <v>0.04724993898090535</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03985634047444227</v>
+        <v>0.01991703479352834</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08066913030004852</v>
+        <v>0.074907707627975</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03968515785680864</v>
+        <v>0.01991888679287688</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02566165936401233</v>
+        <v>0.01453705392510268</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0410751894159923</v>
+        <v>0.01567141394799199</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02138638471467741</v>
+        <v>0.01913138040476585</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02097277674456779</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05084623015314313</v>
+        <v>0.0485109978361449</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04151702132754403</v>
+        <v>0.02074691124325868</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08152806934316487</v>
+        <v>0.07691922670216278</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04133870610084234</v>
+        <v>0.02074884040924675</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02492138978542916</v>
+        <v>0.01470018769496956</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042718196992632</v>
+        <v>0.01629827050591166</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02182426706836005</v>
+        <v>0.01965865203729404</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.0218116878143505</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05174685270566617</v>
+        <v>0.04989952563458144</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0431777021806458</v>
+        <v>0.02157678769298903</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08293719482075063</v>
+        <v>0.07871407602646152</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04299225434487602</v>
+        <v>0.02157879402561662</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02616138238925402</v>
+        <v>0.01486079843898385</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04436120456927168</v>
+        <v>0.01692512706383134</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02204706614081625</v>
+        <v>0.02015887769946338</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.02265059888413321</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0522146044279127</v>
+        <v>0.05070914486159026</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04483838303374756</v>
+        <v>0.02240666414271938</v>
       </c>
       <c r="N92" t="n">
-        <v>0.083489433338924</v>
+        <v>0.08068305851320329</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04464580258890972</v>
+        <v>0.02240874764198649</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02437949265971914</v>
+        <v>0.01501889453020833</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04600421214591138</v>
+        <v>0.01755198362175102</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02205292450221773</v>
+        <v>0.02052883961529682</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.02348950995391592</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05304496065503964</v>
+        <v>0.05173347800254641</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04649906388684932</v>
+        <v>0.02323654059244972</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08417771150380327</v>
+        <v>0.08201697707471994</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04629935083294342</v>
+        <v>0.02323870125835636</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02457357608105675</v>
+        <v>0.0151744843417058</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04764721972255107</v>
+        <v>0.0181788401796707</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02223998472273625</v>
+        <v>0.02116532000881727</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02432842102369863</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05313339672220402</v>
+        <v>0.05266614754282503</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04815974473995108</v>
+        <v>0.02406641704218007</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08459495592150679</v>
+        <v>0.08280663462334348</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04795289907697711</v>
+        <v>0.02406865487472623</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02674148813749904</v>
+        <v>0.01532757624653903</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04929022729919076</v>
+        <v>0.01880569673759038</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02240638937254356</v>
+        <v>0.02156510110404766</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02516733209348135</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05357538796456299</v>
+        <v>0.05330077596780128</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04982042559305284</v>
+        <v>0.02489629349191042</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08523409319815262</v>
+        <v>0.08424283407140593</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04960644732101081</v>
+        <v>0.0248986084910961</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02688108431327824</v>
+        <v>0.01547817861777086</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05093323487583045</v>
+        <v>0.01943255329551006</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02255028102181138</v>
+        <v>0.02182496512501088</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02600624316326406</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05416640971727352</v>
+        <v>0.05353098576285037</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0514811064461546</v>
+        <v>0.02572616994164077</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08608804993985902</v>
+        <v>0.08531637833123912</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05125999556504449</v>
+        <v>0.02572856210746597</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02499022009262657</v>
+        <v>0.01562629982846402</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05257624245247015</v>
+        <v>0.02005940985342974</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0228698022407115</v>
+        <v>0.02214169429572987</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02684515423304677</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05430193731549265</v>
+        <v>0.05455039941334738</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05314178729925636</v>
+        <v>0.02655604639137111</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08664975275274434</v>
+        <v>0.08581807031517508</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05291354380907819</v>
+        <v>0.02655851572383584</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02506675095977629</v>
+        <v>0.01577194825168135</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05421925002910983</v>
+        <v>0.02068626641134942</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02286309559941566</v>
+        <v>0.02231207084022754</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02768406530282948</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0547774460943774</v>
+        <v>0.05465263940466752</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05480246815235813</v>
+        <v>0.02738592284110146</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08711212824292675</v>
+        <v>0.08673871293554564</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05456709205311188</v>
+        <v>0.02738846934020571</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02711604731975793</v>
+        <v>0.01591513226048562</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05586225760574953</v>
+        <v>0.0213131229692691</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02292830366809556</v>
+        <v>0.02263287698252685</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02852297637261219</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05498841138908486</v>
+        <v>0.05493132822218588</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05646314900545989</v>
+        <v>0.02821579929083181</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08746810301652452</v>
+        <v>0.08676910910468294</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05622064029714558</v>
+        <v>0.02821842295657558</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02711477785865591</v>
+        <v>0.01605586022793963</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05750526518238921</v>
+        <v>0.02193997952718878</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02306958405993619</v>
+        <v>0.02280089494665068</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.0293618874423949</v>
       </c>
       <c r="L100" t="n">
         <v>0.05540433129315644</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05812382985856164</v>
+        <v>0.02904567574056215</v>
       </c>
       <c r="N100" t="n">
         <v>0.08773907852637669</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05787418854117927</v>
+        <v>0.02904837657294545</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0260989546292418</v>
+        <v>0.01619414052710617</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05914827275902891</v>
+        <v>0.02256683608510846</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02296835327959786</v>
+        <v>0.02301290695662195</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03020079851217761</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05539861286659606</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05978451071166341</v>
+        <v>0.0298755521902925</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08713592192577402</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05952773678521296</v>
+        <v>0.02987833018931532</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02606593338044903</v>
+        <v>0.01632998153104803</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0607912803356686</v>
+        <v>0.02319369264302814</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02295438551738664</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03103970958196033</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05539690170613734</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06144519156476517</v>
+        <v>0.03070542864002285</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08738685893171894</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06118128502924666</v>
+        <v>0.03070828380568519</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02701684433393164</v>
+        <v>0.01646339161282801</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0624342879123083</v>
+        <v>0.02382054920094782</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02302564078485407</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.03187862065174304</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05485466546619608</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06310587241786693</v>
+        <v>0.0315353050897532</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08738128661214517</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06283483327328035</v>
+        <v>0.03153823742205506</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02495281771134366</v>
+        <v>0.01659437914550889</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06407729548894799</v>
+        <v>0.0244474057588675</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02278309800108494</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.03271753172152575</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05527716237528288</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06476655327096868</v>
+        <v>0.03236518153948355</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08702293284961365</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06448838151731404</v>
+        <v>0.03236819103842493</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02587498373433911</v>
+        <v>0.01672295250215346</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06572030306558768</v>
+        <v>0.02507426231678718</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02282773608516406</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03355644279130846</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05486677706225412</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06642723412407045</v>
+        <v>0.03319505798921389</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08691552552668563</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06614192976134774</v>
+        <v>0.0331981446547948</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02678447262457203</v>
+        <v>0.01684912005582453</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06736331064222738</v>
+        <v>0.02570111887470686</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02266053395617618</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03439535386109117</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05462589415596614</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06808791497717222</v>
+        <v>0.03402493443894424</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08666279252592202</v>
+        <v>0.0876390785263767</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06779547800538144</v>
+        <v>0.03402809827116467</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02468241460369643</v>
+        <v>0.01697289017958489</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06900631821886706</v>
+        <v>0.02632797543262654</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02278247053320615</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03523426493087388</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05445689828527525</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06974859583027397</v>
+        <v>0.03485481088867459</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08606846172988397</v>
+        <v>0.0876390785263767</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06944902624941512</v>
+        <v>0.03485805188753454</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02556993989336633</v>
+        <v>0.01709427124649731</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07064932579550676</v>
+        <v>0.02695483199054622</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02269452473533873</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.0360731760006566</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0542621740790378</v>
+        <v>0.05490433129315644</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07140927668337574</v>
+        <v>0.03568468733840493</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08553626102113243</v>
+        <v>0.08703907852637671</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07110257449344881</v>
+        <v>0.03568800550390441</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02544817871523577</v>
+        <v>0.0172132716296246</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07229233337214645</v>
+        <v>0.02758168854846589</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0223976754816587</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.0369120870704393</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05414410616611018</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07306995753647749</v>
+        <v>0.03651456378813528</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08586991828222856</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07275612273748251</v>
+        <v>0.03651795912027428</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02531826129095877</v>
+        <v>0.01732989970202956</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07393534094878614</v>
+        <v>0.02820854510638557</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02249290169125093</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.03775099814022202</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05400507917534864</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07473063838957926</v>
+        <v>0.03734444023786563</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08487316139573331</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0744096709815162</v>
+        <v>0.03734791273664415</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02618131784218936</v>
+        <v>0.01744416383677497</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07557834852542583</v>
+        <v>0.02883540166430525</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02218118228320014</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03858990921000473</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05354747773560958</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07639131924268101</v>
+        <v>0.03817431668759598</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08464971824420775</v>
+        <v>0.08753907852637671</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07606321922554989</v>
+        <v>0.03817786635301403</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02503847859058155</v>
+        <v>0.0175560724069236</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07722135610206553</v>
+        <v>0.02946225822222493</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02226349617659117</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.03942882027978744</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05367368647574933</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07805200009578278</v>
+        <v>0.03900419313732632</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08410331671021309</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0777167674695836</v>
+        <v>0.03900781996938389</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02589087375778939</v>
+        <v>0.01766563378553829</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07886436367870522</v>
+        <v>0.03008911478014462</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0220408222905088</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04026773134957015</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05298609002462421</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07971268094888455</v>
+        <v>0.03983406958705667</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08363768467631022</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07937031571361729</v>
+        <v>0.03983777358575376</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02473963356546689</v>
+        <v>0.0177728563456818</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08050737125534491</v>
+        <v>0.03071597133806429</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02181413954403781</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04110664241935286</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05298707301109062</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0813733618019863</v>
+        <v>0.04066394603678702</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08305655002506029</v>
+        <v>0.08693907852637667</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08102386395765097</v>
+        <v>0.04066772720212363</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02558588823526806</v>
+        <v>0.01787774846041693</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0821503788319846</v>
+        <v>0.03134282789598397</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02178442685626304</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04194555348913558</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05257902006400481</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08303404265508807</v>
+        <v>0.04149382248651736</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08316364063902426</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08267741220168467</v>
+        <v>0.0414976808184935</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02543076798884696</v>
+        <v>0.01798031850280648</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0837933864086243</v>
+        <v>0.03196968445390365</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02175266314626925</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.04278446455891829</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05216431581222319</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08469472350818982</v>
+        <v>0.04232369893624771</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0826626844007633</v>
+        <v>0.08723907852637669</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08433096044571836</v>
+        <v>0.04232763443486337</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0242754030478576</v>
+        <v>0.01808057484591322</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08543639398526399</v>
+        <v>0.03259654101182333</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02161982733314126</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.043623375628701</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05214534488460207</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08635540436129159</v>
+        <v>0.04315357538597806</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08185740919283835</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08598450868975205</v>
+        <v>0.04315758805123324</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02512092363395401</v>
+        <v>0.01817852586279996</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08707940156190368</v>
+        <v>0.033223397569743</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02138689833596383</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04446228669848371</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05162449190999777</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08801608521439334</v>
+        <v>0.04398345183570841</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08125154289781056</v>
+        <v>0.08693907852637667</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08763805693378575</v>
+        <v>0.04398754166760312</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02396779595553112</v>
+        <v>0.01827417992652949</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08872240913854336</v>
+        <v>0.03385025412766268</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02135485507382179</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04530119776826642</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05110414151726667</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08967676606749511</v>
+        <v>0.04481332828543876</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08104881339824105</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08929160517781945</v>
+        <v>0.04481749528397298</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02379854600748026</v>
+        <v>0.0183675454101646</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09036541671518306</v>
+        <v>0.03447711068558237</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02122315332028284</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04614010883804914</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05108667833526512</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09133744692059687</v>
+        <v>0.0456432047351691</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07994901573638108</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09094515342185314</v>
+        <v>0.04564744890034285</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02260773015449161</v>
+        <v>0.01845863068676807</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09200842429182275</v>
+        <v>0.03510396724350204</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02107549384302045</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04697901990783184</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05046121692123257</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09299812777369863</v>
+        <v>0.04647308118489945</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07949185583943669</v>
+        <v>0.08703907852637671</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09259870166588684</v>
+        <v>0.04647740251671272</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02239903079381524</v>
+        <v>0.01854744412940272</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09365143186846243</v>
+        <v>0.03573082380142173</v>
       </c>
       <c r="J122" t="n">
-        <v>0.020909725206906</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.04781793097761456</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0502899336744124</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0946588086268004</v>
+        <v>0.04730295763462979</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07876501387879797</v>
+        <v>0.08703907852637671</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09425224990992052</v>
+        <v>0.04730735613308259</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02417613032270132</v>
+        <v>0.01863399411113132</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09529443944510213</v>
+        <v>0.03635768035934141</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02072903684733308</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.04865684204739727</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04967726564364983</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09631948947990215</v>
+        <v>0.04813283408436014</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07858063574146229</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09590579815395421</v>
+        <v>0.04813730974945246</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02294271113839991</v>
+        <v>0.01871828900501667</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09693744702174183</v>
+        <v>0.03698453691726108</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02043661819969529</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.04949575311717998</v>
       </c>
       <c r="L124" t="n">
-        <v>0.049330982234806</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09798017033300392</v>
+        <v>0.04896271053409049</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07745086731442669</v>
+        <v>0.08723907852637669</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09755934639798791</v>
+        <v>0.04896726336582233</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02370245563816118</v>
+        <v>0.01880033718412157</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09858045459838152</v>
+        <v>0.03761139347518076</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02013565869938619</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.0503346641869627</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04895885285374199</v>
+        <v>0.05490433129315644</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09964085118610568</v>
+        <v>0.04979258698382084</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07728785448468845</v>
+        <v>0.08723907852637669</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09921289464202161</v>
+        <v>0.0497972169821922</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0234590462192352</v>
+        <v>0.01888014702150881</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1002234621750212</v>
+        <v>0.03823825003310045</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02002934778179938</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.0511735752567454</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04816864690631889</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1013015320392074</v>
+        <v>0.05062246343355119</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07620374313924472</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1008664428860553</v>
+        <v>0.05062717059856207</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02321616527887211</v>
+        <v>0.01895772689024115</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1018664697516609</v>
+        <v>0.03886510659102013</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01982087488232839</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05201248632652811</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04786813379839783</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1029622128923092</v>
+        <v>0.05145233988328153</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07581067916509271</v>
+        <v>0.08703907852637671</v>
       </c>
       <c r="O127" t="n">
-        <v>0.102519991130089</v>
+        <v>0.05145712421493194</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02097749521432201</v>
+        <v>0.01903308516338142</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1035094773283006</v>
+        <v>0.0394919631489398</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01961342943636687</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05285139739631082</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04766508293583988</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M128" t="n">
-        <v>0.104622893745411</v>
+        <v>0.05228221633301188</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07422080844922968</v>
+        <v>0.08753907852637671</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1041735393741227</v>
+        <v>0.05228707783130181</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02174671842283504</v>
+        <v>0.0191062302139924</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1051524849049403</v>
+        <v>0.04011881970685948</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01951020087930834</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05369030846609354</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04666726372450614</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1062835745985127</v>
+        <v>0.05311209278274222</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07364627687865277</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1058270876181564</v>
+        <v>0.05311703144767168</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02152676730594325</v>
+        <v>0.01917717041513688</v>
       </c>
       <c r="G130" t="n">
-        <v>0.10679549248158</v>
+        <v>0.04074567626477916</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01931437864654639</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05452921953587625</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04618244557025772</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1079442554516145</v>
+        <v>0.05394196923247258</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07299923034035927</v>
+        <v>0.0876390785263767</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1074806358621901</v>
+        <v>0.05394698506404155</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02029522157450835</v>
+        <v>0.01924591413987765</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1084385000582197</v>
+        <v>0.04137253282269884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01892644884578351</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05536813060565896</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04581839787895572</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1096049363047163</v>
+        <v>0.05477184568220292</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07258429950397233</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1091341841062238</v>
+        <v>0.05477693868041142</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02204401807143925</v>
+        <v>0.01931246976127751</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1100815076348594</v>
+        <v>0.04199938938061851</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01882441863967153</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05620704167544167</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04575843177979799</v>
+        <v>0.05530433129315646</v>
       </c>
       <c r="M132" t="n">
-        <v>0.111265617157818</v>
+        <v>0.05560172213193327</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07131959934637438</v>
+        <v>0.0876390785263767</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1107877323502574</v>
+        <v>0.05560689229678129</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01977842814947828</v>
+        <v>0.01937684565239924</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1117245152114991</v>
+        <v>0.0426262459385382</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01870641866468342</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.05704595274522439</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04525516057797649</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1129262980109198</v>
+        <v>0.05643159858166362</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0704931199735952</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1124412805942912</v>
+        <v>0.05643684591315117</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02150372316136776</v>
+        <v>0.01943905018630565</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1133675227881387</v>
+        <v>0.04325310249645788</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01847701459851943</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.05788486381500709</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04461735702812022</v>
+        <v>0.05500433129315643</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1145869788640215</v>
+        <v>0.05726147503139397</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06992224822642934</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1140948288383248</v>
+        <v>0.05726679952952104</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01922517445984995</v>
+        <v>0.01949909173605952</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1150105303647784</v>
+        <v>0.04387995905437756</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01814077211887975</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.0587237748847898</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0440561430369954</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1162476597171233</v>
+        <v>0.05809135148112431</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06912437094567142</v>
+        <v>0.08723907852637669</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1157483770823585</v>
+        <v>0.0580967531458909</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02094805339766718</v>
+        <v>0.01955697867472365</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1166535379414181</v>
+        <v>0.04450681561229724</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0180022569034647</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.05956268595457252</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0431826405113683</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M136" t="n">
-        <v>0.117908340570225</v>
+        <v>0.05892122793085466</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06851687497211623</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1174019253263922</v>
+        <v>0.05892670676226077</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01967763132756174</v>
+        <v>0.01961271937536081</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1182965455180578</v>
+        <v>0.04513367217021692</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01756603462997451</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06040159702435523</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04270797135800511</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1195690214233268</v>
+        <v>0.05975110438058501</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06761714714655831</v>
+        <v>0.08723907852637669</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1190554735704259</v>
+        <v>0.05975666037863064</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01841917960227592</v>
+        <v>0.01966632221103381</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1199395530946975</v>
+        <v>0.04576052872813659</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01733667097610946</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06124050809413794</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04224325748367211</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1212297022764286</v>
+        <v>0.06058098083031535</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06614257430979226</v>
+        <v>0.08773907852637669</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1207090218144596</v>
+        <v>0.06058661399500051</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01817796957455205</v>
+        <v>0.01971779555480547</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1215825606713372</v>
+        <v>0.04638738528605628</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01721873161956976</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06207941916392066</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04159962079513543</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1228903831295303</v>
+        <v>0.0614108572800457</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06561054330261273</v>
+        <v>0.0871390785263767</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1223625700584933</v>
+        <v>0.06141656761137038</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01995927259713243</v>
+        <v>0.01976714777973852</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1232255682479769</v>
+        <v>0.04701424184397596</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01701678223805572</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06291833023370336</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04088818319916135</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1245510639826321</v>
+        <v>0.06224073372977605</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06503844096581451</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O140" t="n">
-        <v>0.124016118302527</v>
+        <v>0.06224652122774026</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01876836002275933</v>
+        <v>0.0198143872588958</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1248685758246166</v>
+        <v>0.04764109840189563</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01693538850926755</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06375724130348608</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04082006660251608</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1262117448357339</v>
+        <v>0.0630706101795064</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06374365414019212</v>
+        <v>0.08703907852637671</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1256696665465607</v>
+        <v>0.06307647484411012</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01761050320417507</v>
+        <v>0.01985952236534009</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1265115834012563</v>
+        <v>0.04826795495981531</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01657911611090554</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06459615237326879</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0401063929119658</v>
+        <v>0.05510433129315645</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1278724256888356</v>
+        <v>0.06390048662923674</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06304356966654012</v>
+        <v>0.08693907852637667</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1273232147905944</v>
+        <v>0.06390642846047999</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01849097349412197</v>
+        <v>0.01990256147213417</v>
       </c>
       <c r="G143" t="n">
-        <v>0.128154590977896</v>
+        <v>0.04889481151773499</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01645253072066993</v>
+        <v>0.02306958405993619</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.0654350634430515</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03975828403427678</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1295331065419374</v>
+        <v>0.0647303630789671</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06315557438565345</v>
+        <v>0.08753907852637671</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1289767630346281</v>
+        <v>0.06473638207684987</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01741504224534229</v>
+        <v>0.01994351295234085</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1297975985545357</v>
+        <v>0.04952166807565467</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01646019801626099</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06627397451283421</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03938686187621529</v>
+        <v>0.05520433129315644</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1311937873950391</v>
+        <v>0.06556023952869744</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06269705513832646</v>
+        <v>0.08743907852637667</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1306303112786618</v>
+        <v>0.06556633569321973</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01838798081057836</v>
+        <v>0.01998238517902291</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1314406061311754</v>
+        <v>0.05014852463357435</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01650668367537896</v>
+        <v>0.02296958405993618</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.06711288558261692</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0393032483445474</v>
+        <v>0.05540433129315644</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1328544682481409</v>
+        <v>0.06639011597842778</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06248539876535392</v>
+        <v>0.08733907852637668</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1322838595226955</v>
+        <v>0.0663962893095896</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01939174006117653</v>
+        <v>0.02001918652524313</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1330836137078151</v>
+        <v>0.05077538119149403</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01639501166290393</v>
+        <v>0.02286958405993618</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.06795179665239963</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0396185653460395</v>
+        <v>0.05490409805935287</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1345151491012427</v>
+        <v>0.06721999242815813</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06233409747966706</v>
+        <v>0.08733873094794509</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1339374077667292</v>
+        <v>0.06722624292595947</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01740303131600132</v>
+        <v>0.02005392536406434</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1347266212844548</v>
+        <v>0.05140223774941372</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01630018289673447</v>
+        <v>0.02296957788113238</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.06879070772218235</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03911829754143356</v>
+        <v>0.05520112090313709</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1361758299543444</v>
+        <v>0.06804986887788848</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06235250851852558</v>
+        <v>0.0877340744949191</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1355909560107629</v>
+        <v>0.06805619654232935</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01942146127919297</v>
+        <v>0.02008661006854932</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1363696288610944</v>
+        <v>0.05202909430733339</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01651173380031258</v>
+        <v>0.02296870944010219</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.06962961879196505</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03923775654776165</v>
+        <v>0.05509481946046293</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1378365108074462</v>
+        <v>0.06887974532761883</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06229526837137683</v>
+        <v>0.08732415045532238</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1372445042547966</v>
+        <v>0.06888615015869921</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01944664261367215</v>
+        <v>0.02011724901176081</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1380126364377341</v>
+        <v>0.05265595086525308</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01632932888930395</v>
+        <v>0.02286641209665286</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07046852986174776</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03937231739467859</v>
+        <v>0.05508532260277793</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1394971916605479</v>
+        <v>0.06970962177734917</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06236109945949281</v>
+        <v>0.08770916296872794</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1388980524988302</v>
+        <v>0.06971610377506908</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01747818798235953</v>
+        <v>0.02014585056676167</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1396556440143738</v>
+        <v>0.05328280742317275</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01655263267937432</v>
+        <v>0.02296274128274092</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07130744093153048</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03942116284852656</v>
+        <v>0.05507275920152946</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1411578725136497</v>
+        <v>0.07053949822707953</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06274872420414523</v>
+        <v>0.08768931617470854</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1405516007428639</v>
+        <v>0.07054605739143896</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01851571004817582</v>
+        <v>0.02017242310661466</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1412986515910135</v>
+        <v>0.05390966398109243</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01638130968618938</v>
+        <v>0.02285775243032287</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.0721463520013132</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03948347567564772</v>
+        <v>0.05515725812816505</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1428185533667515</v>
+        <v>0.07136937467680986</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06275686502660605</v>
+        <v>0.0868648142128372</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1422051489868976</v>
+        <v>0.07137601100780881</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01855882147404168</v>
+        <v>0.02019697500438259</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1429416591676532</v>
+        <v>0.0545365205390121</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01641502442541486</v>
+        <v>0.02305150097135528</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.0729852630710959</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03965843864238425</v>
+        <v>0.05483894825413213</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1444792342198532</v>
+        <v>0.07219925112654021</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06268424434814723</v>
+        <v>0.08713586122268685</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1438586972309313</v>
+        <v>0.07220596462417869</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01960713492287778</v>
+        <v>0.02021951463312825</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1445846667442929</v>
+        <v>0.05516337709693179</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01655344141271646</v>
+        <v>0.02294404233779462</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07382417414087861</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03944523451507828</v>
+        <v>0.05531795845087811</v>
       </c>
       <c r="M153" t="n">
-        <v>0.146139915072955</v>
+        <v>0.07302912757627056</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06282958459004045</v>
+        <v>0.08730266134383025</v>
       </c>
       <c r="O153" t="n">
-        <v>0.145512245474965</v>
+        <v>0.07303591824054856</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01766026305760483</v>
+        <v>0.02024005036591441</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1462276743209326</v>
+        <v>0.05579023365485146</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01659622516375991</v>
+        <v>0.02293543196159746</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07466308521066133</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04004304606007209</v>
+        <v>0.05529441758985057</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1478005959260567</v>
+        <v>0.07385900402600092</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0630916081735578</v>
+        <v>0.08686541871584036</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1471657937189987</v>
+        <v>0.07386587185691844</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01971781854114348</v>
+        <v>0.02025859057580388</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1478706818975723</v>
+        <v>0.05641709021277114</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01654304019421093</v>
+        <v>0.02292572527472028</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07550199628044403</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04015105604370769</v>
+        <v>0.05476845454249685</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1494612767791585</v>
+        <v>0.07468888047573126</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06316903751997105</v>
+        <v>0.08742433747829009</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1488193419630324</v>
+        <v>0.0746958254732883</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01977941403641446</v>
+        <v>0.02027514363585942</v>
       </c>
       <c r="G156" t="n">
-        <v>0.149513689474212</v>
+        <v>0.05704394677069083</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01679355101973523</v>
+        <v>0.02301497770911964</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07634090735022675</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04006844723232741</v>
+        <v>0.05514019818026447</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1511219576322603</v>
+        <v>0.0755187569254616</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06386059505055208</v>
+        <v>0.08747962177075225</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1504728902070661</v>
+        <v>0.07552577908965817</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0198446721639125</v>
+        <v>0.02028971791914386</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1511566970508517</v>
+        <v>0.0576708033286105</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01674742215599853</v>
+        <v>0.02290324469675203</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07717981842000947</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04009440239227338</v>
+        <v>0.05470977737460087</v>
       </c>
       <c r="M157" t="n">
-        <v>0.152782638485362</v>
+        <v>0.07634863337519196</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06386500318657284</v>
+        <v>0.08733147573279987</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1521264384510998</v>
+        <v>0.07635573270602805</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01794679100871752</v>
+        <v>0.02030232179872</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1527997046274913</v>
+        <v>0.05829765988653018</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01690852301927455</v>
+        <v>0.02289058166957401</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.07801872948979216</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04032810428988773</v>
+        <v>0.0548773209969535</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1544433193384638</v>
+        <v>0.07717850982492229</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06369339637980426</v>
+        <v>0.08738010350400571</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1537799866951335</v>
+        <v>0.0771856863223979</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01810912213009739</v>
+        <v>0.0203129636476506</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1544427122041311</v>
+        <v>0.05892451644444986</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01691609670444558</v>
+        <v>0.02297704405954211</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.07885764055957488</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04052144022577056</v>
+        <v>0.0546429579187698</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1561040001915656</v>
+        <v>0.07800838627465265</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06439345095450832</v>
+        <v>0.08692570922394283</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1554335349391672</v>
+        <v>0.07801563993876778</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02031997275649886</v>
+        <v>0.02032165183899848</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1560857197807707</v>
+        <v>0.05955137300236955</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01717176738338051</v>
+        <v>0.0229626872986128</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.0796965516293576</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04074254992143092</v>
+        <v>0.05470681701149727</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1577646810446673</v>
+        <v>0.07883826272438299</v>
       </c>
       <c r="N160" t="n">
-        <v>0.064478334446056</v>
+        <v>0.08666849703218399</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1570870831832009</v>
+        <v>0.07884559355513765</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02056765011636869</v>
+        <v>0.02032839474582641</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1577287273574104</v>
+        <v>0.06017822956028923</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01736540759374763</v>
+        <v>0.02284756681874262</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.0805354626991403</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04106783739601313</v>
+        <v>0.05456902714658338</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1594253618977691</v>
+        <v>0.07966813917411335</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06560947983619136</v>
+        <v>0.08720867106830216</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1587406314272346</v>
+        <v>0.07967554717150753</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02084046143815355</v>
+        <v>0.02033320074119718</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1593717349340501</v>
+        <v>0.0608050861182089</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0173868898732152</v>
+        <v>0.02293173805188813</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08137437376892302</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04157263233785122</v>
+        <v>0.05472971719547554</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1610860427508708</v>
+        <v>0.08049801562384369</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06624832010665882</v>
+        <v>0.08694643547187014</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1603941796712683</v>
+        <v>0.0805055007878774</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02012671395030027</v>
+        <v>0.02033607819817359</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1610147425106898</v>
+        <v>0.06143194267612859</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01772608675945149</v>
+        <v>0.02281525643000581</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08221328483870573</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04253226443527922</v>
+        <v>0.05448901602962122</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1627467236039726</v>
+        <v>0.08132789207357403</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06765628823920256</v>
+        <v>0.08688199438246091</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1620477279153019</v>
+        <v>0.08133545440424726</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01941471488125553</v>
+        <v>0.02033703548981845</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1626577500873295</v>
+        <v>0.06205879923404826</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01787287079012477</v>
+        <v>0.02279817738505222</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08305219590848845</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04272206337663106</v>
+        <v>0.05444705252046789</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1644074044570744</v>
+        <v>0.08215776852330439</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06859481721556687</v>
+        <v>0.08681555193964735</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1637012761593356</v>
+        <v>0.08216540802061714</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01969277145946607</v>
+        <v>0.02033703548981845</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1643007576639692</v>
+        <v>0.06205879923404826</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01831711450290331</v>
+        <v>0.02288055634898387</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08389110697827115</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04371735885024075</v>
+        <v>0.054703955539463</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1660680853101761</v>
+        <v>0.08298764497303472</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06932534001749596</v>
+        <v>0.08634731228300235</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1653548244033693</v>
+        <v>0.08299536163698699</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02094919091337865</v>
+        <v>0.01986655446722486</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1659437652406089</v>
+        <v>0.06205853070558424</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01834869043545542</v>
+        <v>0.02286244875375726</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08473001804805387</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0440934805444422</v>
+        <v>0.05475985395805402</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1677287661632779</v>
+        <v>0.08381752142276508</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06970928962673428</v>
+        <v>0.08637747955209873</v>
       </c>
       <c r="O166" t="n">
-        <v>0.167008372647403</v>
+        <v>0.08382531525335687</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02117233095148709</v>
+        <v>0.01940151129940808</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1675867728172486</v>
+        <v>0.06205826217712023</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01865747112544931</v>
+        <v>0.02274391003132895</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.08556892911783658</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04452575814756948</v>
+        <v>0.05431487664768841</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1693894470163796</v>
+        <v>0.08464739787249542</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07060809902502602</v>
+        <v>0.08620625788650954</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1686619208914367</v>
+        <v>0.08465526886972674</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02237421053672716</v>
+        <v>0.01894248489393377</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1692297803938883</v>
+        <v>0.0620579936486562</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01893728183568275</v>
+        <v>0.02272499561365543</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08640784018761928</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04478953443442096</v>
+        <v>0.0544691524798136</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1710501278694814</v>
+        <v>0.08547727432222577</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07159566860038774</v>
+        <v>0.08673385142580753</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1703154691354704</v>
+        <v>0.08548522248609661</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02257105308905239</v>
+        <v>0.01849005415842738</v>
       </c>
       <c r="G169" t="n">
-        <v>0.170872787970528</v>
+        <v>0.06205772512019219</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01900817553505955</v>
+        <v>0.02270576093269326</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.087246751257402</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04530675291274669</v>
+        <v>0.05472281032587706</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1727108087225832</v>
+        <v>0.08630715077195612</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07214658287474246</v>
+        <v>0.08636046430956568</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1719690173795041</v>
+        <v>0.08631517610246649</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0217632295383692</v>
+        <v>0.0180447980004543</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1725157955471677</v>
+        <v>0.06205745659172818</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01917487034007605</v>
+        <v>0.02258626142039892</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.08808566232718472</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04571344002680053</v>
+        <v>0.05467597905732624</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1743714895756849</v>
+        <v>0.08713702722168647</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07278146384053319</v>
+        <v>0.08648630067735691</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1736225656235378</v>
+        <v>0.08714512971883635</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02095111081458396</v>
+        <v>0.01760729532759999</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1741588031238074</v>
+        <v>0.06205718806326416</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01943768752431886</v>
+        <v>0.02256655250872898</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.08892457339696742</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04611037839312077</v>
+        <v>0.05422878754560861</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1760321704287867</v>
+        <v>0.08796690367141682</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07350153495965733</v>
+        <v>0.086311564668754</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1752761138675715</v>
+        <v>0.08797508333520623</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02213506784760303</v>
+        <v>0.01717812504743147</v>
       </c>
       <c r="G172" t="n">
-        <v>0.175801810700447</v>
+        <v>0.06205691953480014</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0195969483613746</v>
+        <v>0.02264668962963994</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.08976348446675013</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04679835062824578</v>
+        <v>0.05428136466217168</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1776928512818884</v>
+        <v>0.08879678012114715</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07390801969401228</v>
+        <v>0.08633646042332999</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1769296621116052</v>
+        <v>0.08880503695157609</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02131547156733283</v>
+        <v>0.0167578660675716</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1774448182770867</v>
+        <v>0.06205665100633612</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01965297412482994</v>
+        <v>0.02262672821508832</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.09060239553653285</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04677813934871386</v>
+        <v>0.05432950803466102</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1793535321349902</v>
+        <v>0.08962665657087751</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07450214150549561</v>
+        <v>0.0862544704575911</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1785832103556389</v>
+        <v>0.08963499056794597</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02249269290367973</v>
+        <v>0.01634709729558698</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1790878258537264</v>
+        <v>0.0620563824778721</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01990608608827149</v>
+        <v>0.02250483256620525</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09144130660631555</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04765052717106344</v>
+        <v>0.05426594775473118</v>
       </c>
       <c r="M174" t="n">
-        <v>0.181014212988092</v>
+        <v>0.09045653302060785</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07538512385600454</v>
+        <v>0.08575395580217338</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1802367585996726</v>
+        <v>0.09046494418431583</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0216671027865501</v>
+        <v>0.01594639763906312</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1807308334303661</v>
+        <v>0.06205611394940809</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01995660552528589</v>
+        <v>0.02257795842307171</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09228021767609827</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04791629671183284</v>
+        <v>0.05399183551346576</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1826748938411937</v>
+        <v>0.0912864094703382</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07615819020743692</v>
+        <v>0.08563671003594725</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1818903068437063</v>
+        <v>0.0912948978006857</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02283907214585034</v>
+        <v>0.01555634600556876</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1823738410070058</v>
+        <v>0.06205584542094406</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02010485370945976</v>
+        <v>0.02244661213470601</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09311912874588098</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04797623058756034</v>
+        <v>0.05380851180430932</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1843355746942955</v>
+        <v>0.09211628592006856</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07652256402168978</v>
+        <v>0.08600485657542306</v>
       </c>
       <c r="O176" t="n">
-        <v>0.18354385508774</v>
+        <v>0.09212485141705558</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02400897191148681</v>
+        <v>0.01517752130272336</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1840168485836455</v>
+        <v>0.06205557689248005</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02025115191437976</v>
+        <v>0.02251137029255496</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09395803981566368</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04833111141478436</v>
+        <v>0.05391731712070641</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1859962555473973</v>
+        <v>0.0929461623697989</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07697946876066092</v>
+        <v>0.08506051883711108</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1851974033317737</v>
+        <v>0.09295480503342544</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02317717301336591</v>
+        <v>0.01481050243809519</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1856598561602852</v>
+        <v>0.06205530836401604</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02049582141363249</v>
+        <v>0.02237280948806528</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.0947969508854464</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04868172181004324</v>
+        <v>0.05391959195610158</v>
       </c>
       <c r="M178" t="n">
-        <v>0.187656936400499</v>
+        <v>0.09377603881952924</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07713012788624746</v>
+        <v>0.08520582023752171</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1868509515758074</v>
+        <v>0.09378475864979531</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02234903080703279</v>
+        <v>0.01445586831926975</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1873028637369249</v>
+        <v>0.06205503983555202</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02053985609548807</v>
+        <v>0.02243150631268379</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.09563586195522912</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04922884438987529</v>
+        <v>0.05391667680393933</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1893176172536008</v>
+        <v>0.09460591526925959</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07787777153550568</v>
+        <v>0.08504288419316514</v>
       </c>
       <c r="O179" t="n">
-        <v>0.188504499819841</v>
+        <v>0.09461471226616518</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02353061862199863</v>
+        <v>0.01411419785381792</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1889458713135646</v>
+        <v>0.062054771307088</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02059162777156687</v>
+        <v>0.02248803735785725</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.09647477302501183</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04978577903865813</v>
+        <v>0.05370991215766427</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1909782981067025</v>
+        <v>0.09543579171898994</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07825403202366388</v>
+        <v>0.08507383412055181</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1901580480638747</v>
+        <v>0.09544466588253506</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02271582394664742</v>
+        <v>0.01378606994935497</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1905888788902043</v>
+        <v>0.06205450277862398</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02084927045280494</v>
+        <v>0.02224297921503245</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.09731368409479453</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04996214631667775</v>
+        <v>0.05350063851072095</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1926389789598043</v>
+        <v>0.09626566816872029</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07945340212457519</v>
+        <v>0.0848007934361919</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1918115963079084</v>
+        <v>0.09627461949890492</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02289827485940706</v>
+        <v>0.01347206351345122</v>
       </c>
       <c r="G182" t="n">
-        <v>0.192231886466844</v>
+        <v>0.06205423425015997</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02090726522562321</v>
+        <v>0.02219690847565615</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.09815259516457725</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05054463905164572</v>
+        <v>0.05369019635655387</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1942996598129061</v>
+        <v>0.09709554461845063</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08015486492069568</v>
+        <v>0.0844258855565958</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1934651445519421</v>
+        <v>0.09710457311527479</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02407159943870547</v>
+        <v>0.01317275745369215</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1938748940434837</v>
+        <v>0.06205396572169595</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02116009317644266</v>
+        <v>0.02235040173117515</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.09899150623435995</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05051981327175614</v>
+        <v>0.05347992618860761</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1959603406660078</v>
+        <v>0.09792542106818099</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08013740349448145</v>
+        <v>0.08485123389827381</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1951186927959758</v>
+        <v>0.09793452673164467</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0242294257629706</v>
+        <v>0.01288873067765124</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1955179016201234</v>
+        <v>0.06205369719323193</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02130223539168422</v>
+        <v>0.02230403557303622</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.09983041730414267</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05127422500520318</v>
+        <v>0.05347116850032668</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1976210215191096</v>
+        <v>0.09875529751791133</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08108000092838852</v>
+        <v>0.08457896187773617</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1967722410400095</v>
+        <v>0.09876448034801454</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02536538191063035</v>
+        <v>0.01262056209293871</v>
       </c>
       <c r="G185" t="n">
-        <v>0.197160909196763</v>
+        <v>0.06205342866476791</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02152817295776888</v>
+        <v>0.02225838659268614</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1006693283739254</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05129443028018091</v>
+        <v>0.05306526378515572</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1992817023722114</v>
+        <v>0.09958517396764167</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08106164030487323</v>
+        <v>0.08411119291149316</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1984257892840432</v>
+        <v>0.0995944339643844</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02547309596011269</v>
+        <v>0.01236883060712735</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1988039167734027</v>
+        <v>0.06205316013630389</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02163238696111758</v>
+        <v>0.02221403138157169</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1015082394437081</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05176698512488345</v>
+        <v>0.0531635525365392</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2009423832253131</v>
+        <v>0.100415050417372</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08166130470639171</v>
+        <v>0.0843500504160552</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2000793375280769</v>
+        <v>0.1004243875807543</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02554864614473844</v>
+        <v>0.01213411512780264</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2004469243500424</v>
+        <v>0.06205289160783988</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02150935848815132</v>
+        <v>0.02217154653113963</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1023471505134908</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05187844556750504</v>
+        <v>0.05266737524792167</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2026030640784149</v>
+        <v>0.1012449268671024</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08195797721539988</v>
+        <v>0.08339765780793246</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2017328857721106</v>
+        <v>0.1012543411971241</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02461537226039556</v>
+        <v>0.01191699456254101</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2020899319266821</v>
+        <v>0.06205262307937585</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02166719917902453</v>
+        <v>0.02213150863283676</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1031860615832735</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05192687248412303</v>
+        <v>0.05297807241274771</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2042637449315166</v>
+        <v>0.1020748033168327</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08257868217225456</v>
+        <v>0.08355613850363547</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2033864340161443</v>
+        <v>0.102084294813494</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02468062595479604</v>
+        <v>0.01171804781894687</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2037329395033218</v>
+        <v>0.06205235455091184</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02182361884687399</v>
+        <v>0.02199449427810986</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1040249726530562</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05236410819771137</v>
+        <v>0.05299698452446183</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2059244257846184</v>
+        <v>0.1029046797665631</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08219350933055208</v>
+        <v>0.08392761591967429</v>
       </c>
       <c r="O189" t="n">
-        <v>0.205039982260178</v>
+        <v>0.1029142484298639</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02574438377840619</v>
+        <v>0.01153548993195491</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2053759470799615</v>
+        <v>0.06205208602244783</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02177875965643856</v>
+        <v>0.02186108005840569</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1048638837228389</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0522982608851997</v>
+        <v>0.05242545207650862</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2075851066377201</v>
+        <v>0.1037345562162934</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08250347099214023</v>
+        <v>0.08341421347255934</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2066935305042117</v>
+        <v>0.1037442020462338</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02380662228169247</v>
+        <v>0.01135571657330608</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2070189546566012</v>
+        <v>0.06205181749398381</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02173260129736947</v>
+        <v>0.02193184256517106</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1057027947926216</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05242928107095249</v>
+        <v>0.05246481556233262</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2092457874908219</v>
+        <v>0.1045644326660238</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0828084898119183</v>
+        <v>0.08311805457880089</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2083470787482454</v>
+        <v>0.1045741556626036</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0258673180151212</v>
+        <v>0.01117694277793758</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2086619622332409</v>
+        <v>0.06205154896551979</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02198512345931794</v>
+        <v>0.02190735838985271</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1065417058624044</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05275711927933435</v>
+        <v>0.0524159936737191</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2109064683439237</v>
+        <v>0.1053943091157541</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08320848844478579</v>
+        <v>0.08324062802219895</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2100006269922791</v>
+        <v>0.1054041092789735</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02392644752915881</v>
+        <v>0.01099974745345047</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2103049698098806</v>
+        <v>0.06205128043705577</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02183630583193519</v>
+        <v>0.02178759587800098</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1073806169321871</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05268172603470983</v>
+        <v>0.05257168072411378</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2125671491970254</v>
+        <v>0.1062241855654844</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08320338954564238</v>
+        <v>0.08297043206666876</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2116541752363127</v>
+        <v>0.1062340628953434</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02498398737427165</v>
+        <v>0.01082470950742241</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2119479773865203</v>
+        <v>0.06205101190859176</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02198612810487248</v>
+        <v>0.02196908092190442</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1082195280019698</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05290305186144351</v>
+        <v>0.05232875355133884</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2142278300501272</v>
+        <v>0.1070540620152148</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08379311576938742</v>
+        <v>0.08350243150413778</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2133077234803464</v>
+        <v>0.1070640165117132</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02603991410092615</v>
+        <v>0.01065240784743892</v>
       </c>
       <c r="G195" t="n">
-        <v>0.21359098496316</v>
+        <v>0.06205074338012775</v>
       </c>
       <c r="J195" t="n">
-        <v>0.022034569967781</v>
+        <v>0.02175115126710134</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.1090584390717525</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05282104728389989</v>
+        <v>0.05238716920076655</v>
       </c>
       <c r="M195" t="n">
-        <v>0.215888510903229</v>
+        <v>0.1078839384649452</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0835775897709205</v>
+        <v>0.08263655829207545</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2149612717243801</v>
+        <v>0.1078939701280831</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02609420425958866</v>
+        <v>0.01048342138107818</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2152339925397997</v>
+        <v>0.06205047485166372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02218161111031199</v>
+        <v>0.02183378843735742</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1098973501415352</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05313566282644355</v>
+        <v>0.05244688471776895</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2175491917563307</v>
+        <v>0.1087138149146755</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0837567342051409</v>
+        <v>0.08327274438795151</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2166148199684138</v>
+        <v>0.108723923744453</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02514683440072556</v>
+        <v>0.01031832901594041</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2168770001164393</v>
+        <v>0.06205020632319971</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02222723122211667</v>
+        <v>0.02191697395643834</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1107362612113179</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05324684901343904</v>
+        <v>0.0525078571477183</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2192098726094325</v>
+        <v>0.1095436913644058</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08413047172694837</v>
+        <v>0.08251092174923547</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2182683682124475</v>
+        <v>0.1095538773608228</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02619778107480327</v>
+        <v>0.01015770965960366</v>
       </c>
       <c r="G198" t="n">
-        <v>0.218520007693079</v>
+        <v>0.06204993779473569</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02227140999284627</v>
+        <v>0.02170068934810974</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1115751722811006</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05305455636925094</v>
+        <v>0.05237004353598665</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2208705534625342</v>
+        <v>0.1103735678141362</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08409872499124221</v>
+        <v>0.08325102233339704</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2199219164564812</v>
+        <v>0.1103838309771927</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02624702083228816</v>
+        <v>0.01000214221965344</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2201630152697187</v>
+        <v>0.06204966926627167</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02231412711215201</v>
+        <v>0.02168491613613728</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1124140833508833</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05345873541824381</v>
+        <v>0.05243340092794629</v>
       </c>
       <c r="M199" t="n">
-        <v>0.222531234315636</v>
+        <v>0.1112034442638665</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08456141665292211</v>
+        <v>0.08299297809790579</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2215754647005149</v>
+        <v>0.1112137845935626</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02629453022364659</v>
+        <v>0.009852205603668798</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2218060228463584</v>
+        <v>0.06204940073780765</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02235536226968514</v>
+        <v>0.02166963584428663</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.1132529944206661</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05365933668478218</v>
+        <v>0.05229788636896932</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2241919151687378</v>
+        <v>0.1120333207135969</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08481846936688736</v>
+        <v>0.08233672100023109</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2232290129445486</v>
+        <v>0.1120437382099325</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02634028579934499</v>
+        <v>0.009708478719248313</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2234490304229981</v>
+        <v>0.06204913220934363</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02229509515509687</v>
+        <v>0.02175482999632344</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1140919054904488</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05375631069323056</v>
+        <v>0.05226345690442788</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2258525960218395</v>
+        <v>0.1128631971633272</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08506980578803758</v>
+        <v>0.0826821829978428</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2248825611885823</v>
+        <v>0.1128736918263023</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0253842641098497</v>
+        <v>0.009571540473970824</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2250920379996378</v>
+        <v>0.06204886368087962</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02233330545803841</v>
+        <v>0.02174048011601339</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1149308165602315</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05344960796795362</v>
+        <v>0.05223006957969417</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2275132768749413</v>
+        <v>0.1136930736130576</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08481534857127221</v>
+        <v>0.08222929604821055</v>
       </c>
       <c r="O202" t="n">
-        <v>0.226536109432616</v>
+        <v>0.1137036454426722</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02442644170562713</v>
+        <v>0.009441969775421791</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2267350455762775</v>
+        <v>0.06204859515241561</v>
       </c>
       <c r="J203" t="n">
-        <v>0.022369972868161</v>
+        <v>0.0217265677271221</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1157697276300142</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05353917903331581</v>
+        <v>0.05199768144014033</v>
       </c>
       <c r="M203" t="n">
-        <v>0.229173957728043</v>
+        <v>0.1145229500627879</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08545502037149072</v>
+        <v>0.08247799210880385</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2281896576766497</v>
+        <v>0.1145335990590421</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02446679513714368</v>
+        <v>0.009320345531181599</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2283780531529172</v>
+        <v>0.06204832662395158</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02240507707511588</v>
+        <v>0.02161307435341531</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1166086386997969</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05362497441368175</v>
+        <v>0.05226624953113856</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2308346385811448</v>
+        <v>0.1153528265125183</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08558874384359266</v>
+        <v>0.08222820313709223</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2298432059206834</v>
+        <v>0.1153635526754119</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0265053009548657</v>
+        <v>0.00920724664884634</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2300210607295569</v>
+        <v>0.06204805809548757</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02243859776855427</v>
+        <v>0.02159998151865859</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.1174475497695796</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05400694463341604</v>
+        <v>0.05183573089806096</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2324953194342466</v>
+        <v>0.1161827029622486</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08491644164247741</v>
+        <v>0.08277986109054541</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2314967541647171</v>
+        <v>0.1161935062917818</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02654193570925959</v>
+        <v>0.009103252035996032</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2316640683061966</v>
+        <v>0.06204778956702355</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02247051463812737</v>
+        <v>0.02168727074661765</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1182864608393623</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05418504021688308</v>
+        <v>0.0523060825862797</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2341560002873483</v>
+        <v>0.117012579411979</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08553803642304464</v>
+        <v>0.08213289792663298</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2331503024087508</v>
+        <v>0.1170234599081517</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02557667595079174</v>
+        <v>0.009008940600216141</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2333070758828363</v>
+        <v>0.06204752103855954</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02240080737348644</v>
+        <v>0.02157492356105814</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.119125371909145</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05415921168844759</v>
+        <v>0.052277261641167</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2358166811404501</v>
+        <v>0.1178424558617093</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08545345084019368</v>
+        <v>0.08278724560282452</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2348038506527844</v>
+        <v>0.1178534135245215</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02660949822992855</v>
+        <v>0.00892489124908874</v>
       </c>
       <c r="G208" t="n">
-        <v>0.234950083459476</v>
+        <v>0.06204725251009551</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02242945566428269</v>
+        <v>0.02156292148574573</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1199642829789278</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05402940957247401</v>
+        <v>0.05194922510809499</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2374773619935519</v>
+        <v>0.1186723323114397</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08536260754882424</v>
+        <v>0.08204283607658958</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2364573988968182</v>
+        <v>0.1186833671408914</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02664037909713637</v>
+        <v>0.008851682890206637</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2365930910361156</v>
+        <v>0.0620469839816315</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02255643920016734</v>
+        <v>0.02165124604444608</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1208031940487105</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05419558439332697</v>
+        <v>0.05192193003243581</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2391380428466536</v>
+        <v>0.11950220876117</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08596542920383554</v>
+        <v>0.0820996013053979</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2381109471408518</v>
+        <v>0.1195133207572613</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02466929510288162</v>
+        <v>0.008789894431151447</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2382360986127553</v>
+        <v>0.06204671545316748</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02248173767079165</v>
+        <v>0.02153987876092485</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1216421051184932</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05415768667537096</v>
+        <v>0.05219533345956162</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2407987236997554</v>
+        <v>0.1203320852109003</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08556183846012722</v>
+        <v>0.08195747324671898</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2397644953848855</v>
+        <v>0.1203432743736312</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02669622279763064</v>
+        <v>0.008740104779508637</v>
       </c>
       <c r="G211" t="n">
-        <v>0.239879106189395</v>
+        <v>0.06204644692470346</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0227053307658068</v>
+        <v>0.02162880115894768</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1224810161882759</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05401566694297061</v>
+        <v>0.05176939243484457</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2424594045528571</v>
+        <v>0.1211619616606307</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08595175797259869</v>
+        <v>0.08231638385802242</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2414180436289192</v>
+        <v>0.121173227990001</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02672113873184987</v>
+        <v>0.00870289284286236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2415221137660347</v>
+        <v>0.06204617839623944</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02262719817486404</v>
+        <v>0.02171799476228026</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1233199272580586</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05446947572049046</v>
+        <v>0.05174406400365689</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2441200854059589</v>
+        <v>0.121991838110361</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08613511039614952</v>
+        <v>0.08227626509677777</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2430715918729529</v>
+        <v>0.1220031816063709</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02574401945600566</v>
+        <v>0.008678837528801359</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2431651213426744</v>
+        <v>0.06204590986777542</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02254731958761459</v>
+        <v>0.02150744109468823</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1241588383278413</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05431906353229504</v>
+        <v>0.0521193052113707</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2457807662590607</v>
+        <v>0.1228217145600914</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08621181838567915</v>
+        <v>0.08233704892045485</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2447251401169867</v>
+        <v>0.1228331352227408</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02676484152056442</v>
+        <v>0.008668517744909225</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2448081289193141</v>
+        <v>0.06204564133931141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02276567469370969</v>
+        <v>0.02159712167993727</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.124997749397624</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05436438090274887</v>
+        <v>0.0518950731033582</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2474414471121624</v>
+        <v>0.1236515910098217</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0857818045960872</v>
+        <v>0.08229866728652308</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2463786883610203</v>
+        <v>0.1236630888391106</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0267835814759925</v>
+        <v>0.008668517744909225</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2464511364959538</v>
+        <v>0.06204564133931141</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02278224318280056</v>
+        <v>0.02148701804179302</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1258366604674067</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05460537835621659</v>
+        <v>0.05207132472499143</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2491021279652642</v>
+        <v>0.1244814674595521</v>
       </c>
       <c r="N215" t="n">
-        <v>0.085844991682273</v>
+        <v>0.08186105215245215</v>
       </c>
       <c r="O215" t="n">
-        <v>0.248032236605054</v>
+        <v>0.1244930424554805</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02580021587275633</v>
+        <v>0.008391299614601506</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2480941440725935</v>
+        <v>0.0620150030201103</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02279700474453841</v>
+        <v>0.02147711170402115</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1266755715371894</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0542420064170627</v>
+        <v>0.05184801712164266</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2507628088183659</v>
+        <v>0.1253113439092824</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08610130229913615</v>
+        <v>0.0822241354757115</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2496857848490877</v>
+        <v>0.1253229960718504</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02681472126132225</v>
+        <v>0.008117027338341291</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2497371516492332</v>
+        <v>0.0619843647009092</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02260993906857446</v>
+        <v>0.02166738419038734</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1275144826069722</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05467421560965177</v>
+        <v>0.05172510733868407</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2524234896714677</v>
+        <v>0.1261412203590128</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08675065910157603</v>
+        <v>0.08168784921377098</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2513393330931214</v>
+        <v>0.1261529496882202</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02582707419215669</v>
+        <v>0.007846449281400623</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2513801592258729</v>
+        <v>0.0619537263817081</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02272102584455998</v>
+        <v>0.02145781702465722</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1283533936767549</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05450195645834838</v>
+        <v>0.05170255242148775</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2540841705245695</v>
+        <v>0.1269710968087431</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08599298474449218</v>
+        <v>0.08225212532410009</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2529928813371551</v>
+        <v>0.1269829033045901</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02583725121572599</v>
+        <v>0.00758031380905122</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2530231668025126</v>
+        <v>0.06192308806250699</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02263024476214616</v>
+        <v>0.02154839173059649</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1291923047465376</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05442517948751704</v>
+        <v>0.05198030941542589</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2557448513776713</v>
+        <v>0.1278009732584735</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08612820188278419</v>
+        <v>0.08201689576416832</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2546464295811888</v>
+        <v>0.12781285692096</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02684522888249655</v>
+        <v>0.007319369286565125</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2546661743791522</v>
+        <v>0.06189244974330588</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02263757551098425</v>
+        <v>0.02153908983197078</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1300312158163203</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05434383522152234</v>
+        <v>0.05165833536587064</v>
       </c>
       <c r="M220" t="n">
-        <v>0.257405532230773</v>
+        <v>0.1286308497082038</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08675623317135145</v>
+        <v>0.08198209249144539</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2562999778252225</v>
+        <v>0.1286428105373298</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0258509837429348</v>
+        <v>0.007064364079214278</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2563091819557919</v>
+        <v>0.06186181142410477</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02274299778072544</v>
+        <v>0.02152989285254574</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.130870126886103</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05445787418472883</v>
+        <v>0.0519365873181942</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2590662130838747</v>
+        <v>0.1294607261579342</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08657700126509349</v>
+        <v>0.08154764746340093</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2579535260692561</v>
+        <v>0.1294727641536997</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02585449234750705</v>
+        <v>0.006816046552270597</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2579521895324317</v>
+        <v>0.06183117310490367</v>
       </c>
       <c r="J222" t="n">
-        <v>0.022746491261021</v>
+        <v>0.02152078231608706</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1317090379558857</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05446724690150107</v>
+        <v>0.0514150223177687</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2607268939369765</v>
+        <v>0.1302906026076645</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08649042881890973</v>
+        <v>0.08191349263750447</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2596070743132898</v>
+        <v>0.1303027177700696</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02685573124667973</v>
+        <v>0.006575165071006042</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2595951971090714</v>
+        <v>0.06180053478570256</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02284803564152213</v>
+        <v>0.02141173974636038</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1325479490256684</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05457190389620356</v>
+        <v>0.05139359740996624</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2623875747900783</v>
+        <v>0.1311204790573949</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08669643848769976</v>
+        <v>0.08197955997122575</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2612606225573235</v>
+        <v>0.1311326713864395</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0268234878688663</v>
+        <v>0.00634246800069261</v>
       </c>
       <c r="G224" t="n">
-        <v>0.261238204685711</v>
+        <v>0.06176989646650146</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02263254553298032</v>
+        <v>0.02140274666713138</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1333868600954511</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05485215657154624</v>
+        <v>0.05137226964015912</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2640482556431801</v>
+        <v>0.1319503555071252</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08624035799400825</v>
+        <v>0.08194578142203413</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2629141708013572</v>
+        <v>0.1319626250028093</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02472571260677128</v>
+        <v>0.006118703706602086</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2628812122623507</v>
+        <v>0.06173925814730036</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02256156578240366</v>
+        <v>0.02139378460216572</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1342257711652338</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05430595676274177</v>
+        <v>0.05175099605371944</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2657089364962818</v>
+        <v>0.1327802319568556</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08617384824411906</v>
+        <v>0.08201208894739936</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2645677190453909</v>
+        <v>0.1327925786191792</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0255696537323843</v>
+        <v>0.005904620554006465</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2645242198389904</v>
+        <v>0.06170861982809925</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02243893677508868</v>
+        <v>0.02158483507522904</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1350646822350166</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05433169283961617</v>
+        <v>0.05142973369601928</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2673696173493836</v>
+        <v>0.1336101084065859</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08531032896768215</v>
+        <v>0.08157841450479109</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2662212672894246</v>
+        <v>0.1336225322355491</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02636262148263264</v>
+        <v>0.005700966908177701</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2661672274156301</v>
+        <v>0.06167798150889814</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0222709901278621</v>
+        <v>0.02157587961008701</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1359035933047993</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05354478850411434</v>
+        <v>0.0515084396124309</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2690302982024853</v>
+        <v>0.1344399848563163</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08477391198795031</v>
+        <v>0.08174469005167884</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2678748155334583</v>
+        <v>0.1344524858519189</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02611192609444355</v>
+        <v>0.005508491134387714</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2678102349922698</v>
+        <v>0.06164734318969703</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02216405745755051</v>
+        <v>0.02156689973050531</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.136742504374582</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05306066745818125</v>
+        <v>0.05168707084832644</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2706909790555871</v>
+        <v>0.1352698613060466</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08468870912817622</v>
+        <v>0.08121084754553226</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2695283637774921</v>
+        <v>0.1352824394682888</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0248248778047443</v>
+        <v>0.005327941597908524</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2694532425689095</v>
+        <v>0.06161670487049593</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02182447038098059</v>
+        <v>0.02145787696024958</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1375814154443647</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05249475340376183</v>
+        <v>0.05166558444907804</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2723516599086889</v>
+        <v>0.136099737755777</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08307883221161272</v>
+        <v>0.08137681894382093</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2711819120215258</v>
+        <v>0.1361123930846587</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02450878685046213</v>
+        <v>0.00516006666401192</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2710962501455492</v>
+        <v>0.06158606655129482</v>
       </c>
       <c r="J230" t="n">
-        <v>0.021658560514979</v>
+        <v>0.02154879282308547</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1384203265141474</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0522624700428011</v>
+        <v>0.05124393746005787</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2740123407617906</v>
+        <v>0.1369296142055073</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08256839306151259</v>
+        <v>0.08174253620401456</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2728354602655594</v>
+        <v>0.1369423467010286</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02517096346852433</v>
+        <v>0.005005614697969889</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2727392577221889</v>
+        <v>0.06155542823209372</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02137265947637237</v>
+        <v>0.02133962884277869</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1392592375839301</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05137924107724395</v>
+        <v>0.05132208692663812</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2756730216148924</v>
+        <v>0.1377594906552377</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08118150350112852</v>
+        <v>0.08140793128358248</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2744890085095931</v>
+        <v>0.1377723003173984</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02281871789585815</v>
+        <v>0.004865334065054398</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2743822652988285</v>
+        <v>0.06152478991289261</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0211730988819874</v>
+        <v>0.02133036679804354</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1400981486537128</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05076049020903536</v>
+        <v>0.05130002700967101</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2773337024679941</v>
+        <v>0.138589367104968</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08014227535371338</v>
+        <v>0.08167299403973488</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2761425567536268</v>
+        <v>0.1386022539337683</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02345936036939083</v>
+        <v>0.00473997313053736</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2760252728754682</v>
+        <v>0.0614941515936915</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02066621034865068</v>
+        <v>0.02142109889350839</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1409370597234955</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05012164114012027</v>
+        <v>0.05157807322381464</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2789943833210959</v>
+        <v>0.1394192435546983</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07937482044251998</v>
+        <v>0.08103822360769697</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2777961049976605</v>
+        <v>0.1394322075501382</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02210020112604965</v>
+        <v>0.004630280259690756</v>
       </c>
       <c r="G234" t="n">
-        <v>0.277668280452108</v>
+        <v>0.06146351327449041</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02045832549318891</v>
+        <v>0.02141191152253254</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1417759707932782</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04947811757244364</v>
+        <v>0.05155630996342037</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2806550641741977</v>
+        <v>0.1402491200044287</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07760325059080098</v>
+        <v>0.08110375493355582</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2794496532416942</v>
+        <v>0.140262161166508</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02374855040276188</v>
+        <v>0.004537003817786434</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2793112880287477</v>
+        <v>0.0614328749552893</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02005577593242872</v>
+        <v>0.02130280628850249</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.142614881863061</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04864534320795047</v>
+        <v>0.05133474095613466</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2823157450272994</v>
+        <v>0.1410789964541591</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07655167762180926</v>
+        <v>0.08136959392211146</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2811032014857279</v>
+        <v>0.1410921147828779</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02141171843645476</v>
+        <v>0.004460892170096376</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2809542956053873</v>
+        <v>0.06140223663608819</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01986489328319679</v>
+        <v>0.02139378479480473</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1434537929328437</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04793874174858564</v>
+        <v>0.05141336992960399</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2839764258804012</v>
+        <v>0.1419088729038894</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07514421335879751</v>
+        <v>0.08133574647816433</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2827567497297616</v>
+        <v>0.1419220683992478</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02209701546405556</v>
+        <v>0.004402693681892514</v>
       </c>
       <c r="G237" t="n">
-        <v>0.282597303182027</v>
+        <v>0.06137159831688708</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01959200916231975</v>
+        <v>0.02148484864482574</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1442927040026264</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04727373689629413</v>
+        <v>0.05119220061147481</v>
       </c>
       <c r="M237" t="n">
-        <v>0.285637106733503</v>
+        <v>0.1427387493536197</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07470496962501866</v>
+        <v>0.08140221850651463</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2844102979737952</v>
+        <v>0.1427520220156176</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02080891566118716</v>
+        <v>0.004363156718446781</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2842403107586667</v>
+        <v>0.06134095999768598</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01924257002117558</v>
+        <v>0.02127599944195198</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1451316150724091</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04666525197625854</v>
+        <v>0.05157123672939362</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2872977875866047</v>
+        <v>0.1435686258033501</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07385500066418327</v>
+        <v>0.08096901591196271</v>
       </c>
       <c r="O238" t="n">
-        <v>0.286063846217829</v>
+        <v>0.1435819756319875</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02252581668716975</v>
+        <v>0.004343029645031117</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2858833183353064</v>
+        <v>0.06131032167848487</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01910041636050792</v>
+        <v>0.02126723878956996</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1459705261421918</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04578119936600952</v>
+        <v>0.05145048201100685</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2889584684397065</v>
+        <v>0.1443985022530804</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07273367419169408</v>
+        <v>0.08153614459930875</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2877173944618627</v>
+        <v>0.1444119292483574</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02024163710671733</v>
+        <v>0.004340484287070755</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2875263259119461</v>
+        <v>0.06127968335928377</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01895733454857569</v>
+        <v>0.02125856829106613</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1468094372119745</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04509490079400025</v>
+        <v>0.05142994018396096</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2906191492928082</v>
+        <v>0.1452283787028108</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07180881530935718</v>
+        <v>0.08090361047335304</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2893709427058964</v>
+        <v>0.1452418828647273</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02195635960160753</v>
+        <v>0.004340630038877302</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2891693334885858</v>
+        <v>0.06124904504008266</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01861330958554383</v>
+        <v>0.02134998954982702</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1476483482817572</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04500631972090888</v>
+        <v>0.05130961497590242</v>
       </c>
       <c r="M241" t="n">
-        <v>0.29227983014591</v>
+        <v>0.1460582551525411</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07078036689536904</v>
+        <v>0.08117141943889578</v>
       </c>
       <c r="O241" t="n">
-        <v>0.29102449094993</v>
+        <v>0.1460718364810971</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02166996685361799</v>
+        <v>0.004341179411071192</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2908123410652255</v>
+        <v>0.06121840672088155</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01836832647157725</v>
+        <v>0.02134150416923908</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1484872593515399</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04421541960741346</v>
+        <v>0.05138951011447773</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2939405109990118</v>
+        <v>0.1468881316022715</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06994827182792618</v>
+        <v>0.08143957740073737</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2926780391939637</v>
+        <v>0.146901790097467</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02038244154452636</v>
+        <v>0.004342401483910664</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2924553486418652</v>
+        <v>0.06118776840168044</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01822237020684092</v>
+        <v>0.02143311375268878</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1493261704213227</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04352216391419217</v>
+        <v>0.05126962932733331</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2956011918521135</v>
+        <v>0.1477180080520018</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06861247298522521</v>
+        <v>0.08140809026367796</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2943315874379974</v>
+        <v>0.1477317437138369</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02109376635611023</v>
+        <v>0.004344565337653955</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2940983562185049</v>
+        <v>0.06115713008247934</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01797542579149976</v>
+        <v>0.02142481990356263</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1501650814911054</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04292651610192313</v>
+        <v>0.05134997634211566</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2972618727052153</v>
+        <v>0.1485478845017321</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06787291324546268</v>
+        <v>0.0810769639325179</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2959851356820311</v>
+        <v>0.1485616973302067</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02080392397014725</v>
+        <v>0.004347940052559306</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2957413637951445</v>
+        <v>0.06112649176327824</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01762747822571872</v>
+        <v>0.0212166242252471</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.1510039925608881</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04262843963128449</v>
+        <v>0.05123055488647119</v>
       </c>
       <c r="M245" t="n">
-        <v>0.298922553558317</v>
+        <v>0.1493777609514625</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06712953548683503</v>
+        <v>0.08114620431205738</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2976386839260648</v>
+        <v>0.1493916509465766</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01851289706841506</v>
+        <v>0.00435279470888493</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2973843713717843</v>
+        <v>0.06109585344407713</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01727851250966274</v>
+        <v>0.02140852832112868</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1518429036306708</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04202789796295431</v>
+        <v>0.05141136868804647</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3005832344114188</v>
+        <v>0.1502076374011929</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06578228258753915</v>
+        <v>0.08141581730709674</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2992922321700985</v>
+        <v>0.1502216045629465</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01922066833269127</v>
+        <v>0.004359398386889063</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2990273789484239</v>
+        <v>0.06106521512487603</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01712851364349675</v>
+        <v>0.02130053379459383</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1526818147004535</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04132485455761079</v>
+        <v>0.05109242147448784</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3022439152645205</v>
+        <v>0.1510375138509232</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06553109742577123</v>
+        <v>0.08128580882243625</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3009457804141322</v>
+        <v>0.1510515581793163</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01992722044475353</v>
+        <v>0.004368020166829939</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3006703865250636</v>
+        <v>0.06103457680567492</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01687746662738569</v>
+        <v>0.02129264224902903</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1535207257702362</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04051927287593202</v>
+        <v>0.0509737169734418</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3039045961176223</v>
+        <v>0.1518673903006535</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06437592287972815</v>
+        <v>0.08075618476287605</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3025993286581659</v>
+        <v>0.1518815117956862</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01863253608637946</v>
+        <v>0.004378929128965807</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3023133941017033</v>
+        <v>0.06100393848647381</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01652535646149453</v>
+        <v>0.02138485528782082</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1543596368400189</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03991111637859612</v>
+        <v>0.05135525891255494</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3055652769707241</v>
+        <v>0.1526972667503839</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0636167018276062</v>
+        <v>0.08092695103321657</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3042528769021995</v>
+        <v>0.1527114654120561</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01933659793934669</v>
+        <v>0.004392394353554888</v>
       </c>
       <c r="G250" t="n">
-        <v>0.303956401678343</v>
+        <v>0.0609733001672727</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01637216814598817</v>
+        <v>0.02127717451435561</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1551985479098016</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03920034852628124</v>
+        <v>0.05123705101947354</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3072259578238258</v>
+        <v>0.1535271432001143</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06225337714760204</v>
+        <v>0.08079811353825794</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3059064251462333</v>
+        <v>0.153541419028426</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01803938868543286</v>
+        <v>0.004408684920855416</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3055994092549827</v>
+        <v>0.0609426618480716</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01601788668103156</v>
+        <v>0.02116960153201994</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1560374589795843</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0389869327796655</v>
+        <v>0.0513190970218442</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3088866386769276</v>
+        <v>0.1543570196498446</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06118589171791233</v>
+        <v>0.08126967818280056</v>
       </c>
       <c r="O251" t="n">
-        <v>0.307559973390267</v>
+        <v>0.1543713726447958</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01874089100641559</v>
+        <v>0.004428069911125626</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3072424168316224</v>
+        <v>0.0609120235288705</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01576249706678964</v>
+        <v>0.02116213794420024</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1568763700493671</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03827083259942707</v>
+        <v>0.05080140064731328</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3105473195300293</v>
+        <v>0.155186896099575</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06021418841673359</v>
+        <v>0.08074165087164459</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3092135216343007</v>
+        <v>0.1552013262611657</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0164410875840725</v>
+        <v>0.004450818404623746</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3088854244082621</v>
+        <v>0.06088138520966939</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01550598430342735</v>
+        <v>0.02125478535428305</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1577152811191498</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03745201144624402</v>
+        <v>0.05128396562352733</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3122080003831311</v>
+        <v>0.1560167725493053</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05953821012226235</v>
+        <v>0.08091403750959025</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3108670698783344</v>
+        <v>0.1560312798775356</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01613996110018125</v>
+        <v>0.004477199481608012</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3105284319849018</v>
+        <v>0.06085074689046828</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01524833339110965</v>
+        <v>0.02114754536565479</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1585541921889325</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03713043278079445</v>
+        <v>0.05086679567813279</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3138686812362328</v>
+        <v>0.1568466489990356</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05815789971269519</v>
+        <v>0.08108684400143801</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3125206181223681</v>
+        <v>0.1568612334939054</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01583749423651945</v>
+        <v>0.004507482222336663</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3121714395615415</v>
+        <v>0.06082010857126717</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01508952933000145</v>
+        <v>0.02124041958170197</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1593931032587152</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0364060600637566</v>
+        <v>0.05084989453877611</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3155293620893347</v>
+        <v>0.157676525448766</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05697320006622864</v>
+        <v>0.08046007625198798</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3141741663664018</v>
+        <v>0.1576911871102753</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01553366967486473</v>
+        <v>0.004541935707067908</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3138144471381812</v>
+        <v>0.06078947025206607</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01482955712026769</v>
+        <v>0.02133340960581109</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1602320143284979</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03567885675580848</v>
+        <v>0.05123326593310376</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3171900429424364</v>
+        <v>0.1585064018984964</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05658405406105937</v>
+        <v>0.08033374016604045</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3158277146104355</v>
+        <v>0.1585211407266452</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01522847009699473</v>
+        <v>0.004580829016060016</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3154574547148209</v>
+        <v>0.06075883193286497</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01446840176207334</v>
+        <v>0.02112651704136861</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1610709253982806</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03504878631762828</v>
+        <v>0.05101691358876223</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3188507237955382</v>
+        <v>0.1593362783482267</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0553904045753838</v>
+        <v>0.08050784164839569</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3174812628544691</v>
+        <v>0.1593510943430151</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01592187818468706</v>
+        <v>0.004624431229571201</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3171004622914605</v>
+        <v>0.06072819361366386</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0142060482555833</v>
+        <v>0.02131974349176102</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1619098364680633</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03431581220989413</v>
+        <v>0.0510008412333979</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3205114046486399</v>
+        <v>0.160166154797957</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05419219448739859</v>
+        <v>0.08058238660385392</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3191348110985028</v>
+        <v>0.1601810479593849</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01461387661971937</v>
+        <v>0.004673011427859697</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3187434698681003</v>
+        <v>0.06069755529446275</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01414248160096253</v>
+        <v>0.02131309056037481</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.162748747537846</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03367989789328416</v>
+        <v>0.05088505259465739</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3221720855017416</v>
+        <v>0.1609960312476874</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05318936667530022</v>
+        <v>0.08105738093721554</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3207883593425365</v>
+        <v>0.1610110015757548</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01430444808386929</v>
+        <v>0.004726838691183739</v>
       </c>
       <c r="G260" t="n">
-        <v>0.32038647744474</v>
+        <v>0.06066691697526164</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01377768679837596</v>
+        <v>0.02110655985059644</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1635876586076287</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03314100682847643</v>
+        <v>0.051169551400187</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3238327663548435</v>
+        <v>0.1618259076974177</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05228186401728535</v>
+        <v>0.0810328305532807</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3224419075865702</v>
+        <v>0.1618409551921247</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01499357525891445</v>
+        <v>0.004786182099801563</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3220294850213796</v>
+        <v>0.06063627865606053</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01341164884798854</v>
+        <v>0.02130015296581241</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1644265696774115</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03259910247614919</v>
+        <v>0.05075434137763329</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3254934472079452</v>
+        <v>0.1626557841471481</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05116962939155051</v>
+        <v>0.08020874135684969</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3240954558306039</v>
+        <v>0.1626709088084945</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01568124082663248</v>
+        <v>0.004851310733971367</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3236724925980193</v>
+        <v>0.06060564033685944</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01314435274996521</v>
+        <v>0.02119387150940918</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1652654807471942</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03195414829698043</v>
+        <v>0.05113942625464274</v>
       </c>
       <c r="M262" t="n">
-        <v>0.327154128061047</v>
+        <v>0.1634856605968784</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05005260567629227</v>
+        <v>0.08088511925272285</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3257490040746376</v>
+        <v>0.1635008624248644</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01336742746880098</v>
+        <v>0.004922493673951443</v>
       </c>
       <c r="G263" t="n">
-        <v>0.325315500174659</v>
+        <v>0.06057500201765833</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01307578350447092</v>
+        <v>0.02118771708477327</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1661043918169769</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03120610775164837</v>
+        <v>0.05102480975886178</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3288148089141487</v>
+        <v>0.1643155370466088</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04973073574970716</v>
+        <v>0.08026197014570041</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3274025523186713</v>
+        <v>0.1643308160412343</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01305211786719762</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3269585077512987</v>
+        <v>0.06054436369845723</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01260592611167057</v>
+        <v>0.02108169129529112</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1669433028867596</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03075494430083114</v>
+        <v>0.0508104956179368</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3304754897672504</v>
+        <v>0.1651454134963391</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0487039624899917</v>
+        <v>0.08093929994058247</v>
       </c>
       <c r="O264" t="n">
-        <v>0.329056100562705</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1651607696576042</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06053120580372038</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005324616080003043</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06053147433218439</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005646223822801937</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06053174286064841</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005964742036717985</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06053201138911243</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006280089530030966</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06053227991757645</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006592185111062333</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06053254844604046</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00690094758811962</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06053281697450447</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007206295769523544</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0605330855029685</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007508148463555048</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06053335403143251</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007806424478535016</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06053362255989653</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008101042622770956</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06053389108836055</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008391921704582979</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06053415961682457</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008678980532253265</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06053442814528859</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008962137914102088</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0605346966737526</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009241312658436966</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06053496520221661</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009516423573577293</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06053523373068064</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009787389467806648</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06053550225914466</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0100541291494446</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06053577078760867</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01031656142679867</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06053603931607268</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01057460510818752</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06053630784453671</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01082817900189619</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06053657637300072</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01107720191624354</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06053684490146474</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01132159265953708</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06053711342992876</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01156127004009466</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06053738195839278</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01179615286620293</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0605376504868568</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01202649147892423</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06053791901532081</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01225419388303187</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06053818754378482</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01247951041958748</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06053845607224885</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01270235989687896</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06053872460071286</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01292266112322366</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06053899312917688</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01314033290692913</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06053926165764089</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01335529405631217</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06053953018610492</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0135674633796616</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06053979871456893</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01377675968529432</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06054006724303294</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01398310178151788</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06054033577149696</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01418640847664857</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06054060429996098</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0143865985789762</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.060540872828425</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01458359089681721</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06054114135688902</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01477730423847912</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06054140988535303</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01496765741227765</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06054167841381706</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01515456922650376</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06054194694228107</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01533795848947332</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06054221547074509</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01551774400949385</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0605424839992091</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01569384459488044</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06054275252767313</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01586617905392528</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06054302105613714</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01603466619494366</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06054328958460115</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01619922482624307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06054355811306517</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01635977375613792</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06054382664152919</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01651623179292177</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06054409516999321</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01666851774490922</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06054436369845723</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01666851774490922</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06053120580372038</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01680073249971408</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06056238117984952</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01693135199352248</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06059355655597867</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01706003585433048</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0606247319321078</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01718644371013432</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06065590730823694</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01731023518893023</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06068708268436609</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01743106991871426</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06071825806049522</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01754860752748267</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06074943343662436</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01766250764323161</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0607806088127535</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01777242989395732</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06081178418888265</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01787803390765588</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06084295956501178</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01797897931232351</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06087413494114092</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01807492573595642</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06090531031727007</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01816553280655073</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0609364856933992</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01825046015210263</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06096766106952834</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01832936740060834</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06099883644565749</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01840191418006398</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06103001182178663</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01846776011846574</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06106118719791576</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01852656484380984</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06109236257404491</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0185779879840924</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06112353795017405</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01862168916730963</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06115471332630319</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01865732802145768</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06118588870243232</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01868456417453276</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06121706407856147</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01870305725453103</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06124823945469061</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01871246688944866</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06127941483081974</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01871365584750361</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06131059020694889</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01871357261507042</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06134176558307803</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01871325889282225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06137294095920717</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01871256102088244</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06140411633533632</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01871132533937432</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06143529171146545</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01870939818842126</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06146646708759459</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01870662590814658</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06149764246372372</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01870285483867364</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06152881783985287</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01869793132012577</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06155999321598201</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01869170169262632</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06159116859211115</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01868401229629862</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0616223439682403</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01867470947126604</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06165351934436943</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01866363955765191</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06168469472049857</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01865064889557957</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06171587009662772</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01863558382517237</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06174704547275685</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01861829068655366</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06177822084888599</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01859861581984675</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06180939622501514</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01857640556517502</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06184057160114428</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0185515062626618</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06187174697727341</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01852376425243044</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06190292235340255</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01849302587460427</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0619340977295317</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01845913746930665</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06196527310566084</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01842194537666091</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06199644848178997</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01838129593679038</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06202762385791912</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01833703548981844</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06205879923404826</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01833703548981844</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06205879923404826</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01876461990030685</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06364114373528586</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01918388369994388</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06522348823652346</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01959463382165624</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06680583273776106</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01999667719837061</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06838817723899866</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02038982076301372</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06997052174023626</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02077387144851228</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07155286624147386</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02114863618779297</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07313521074271145</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02151392191378251</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07471755524394906</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02186953555940759</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07629989974518665</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02221528405759494</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07788224424642426</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02255097434127126</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07946458874766187</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02287641334336322</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08104693324889946</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02319140799679758</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08262927775013706</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02349576523450098</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08421162225137466</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0237892919894002</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08579396675261226</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02407179519442191</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08737631125384987</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02434308178249277</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08895865575508746</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02460295868653956</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09054100025632505</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02485123283948894</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09212334475756266</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02508771117426763</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09370568925880025</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02531220062380234</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09528803376003787</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02552450812101974</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09687037826127547</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02572444059884658</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09845272276251306</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02591180499020956</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1000350672637507</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02608640822803534</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1016174117649883</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02624805724525067</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1031997562662259</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02639655897478223</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1047821007674635</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02653172034955676</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.106364445268701</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02665334830250093</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1079467897699387</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02676124976654144</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1095291342711763</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02685523167460501</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1111114787724139</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02693510095961835</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1126938232736515</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02700066455450816</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1142761677748891</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02705172939220116</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1158585122761267</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02708810240562403</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1174408567773643</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02711604731975793</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1190232012786019</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02711602832483335</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1206055457798395</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02711251863755849</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1221878902810771</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02710325212645257</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1237702347823147</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02708866601368786</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1253525792835523</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02706919752143658</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1269349237847898</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02704528387187102</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1285172682860275</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0270173622871634</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1300996127872651</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.026985869989486</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1316819572885027</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02695124420101106</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1332643017897403</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02691392214391081</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1348466462909779</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02687434104035754</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1364289907922155</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02683293811252348</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1380113352934531</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02679015058258089</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1395936797946907</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02674641567270202</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1411760242959283</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02670187573838569</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1427583687971659</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02664342845404358</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1443407132984035</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02656712164829509</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1459230577996411</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02647750321337918</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1475054023008787</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02637912104153477</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1490877468021163</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02627652302500081</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02617425705601625</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1522524358045915</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02607687102682001</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1538347803058291</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02598891282965105</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1554171248070667</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02591493035674831</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1569994693083043</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02585947150035071</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1585818138095419</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02581800942661935</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1601641583107795</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0257790811041849</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1617465028120171</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02574243832231671</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1633288473132547</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02570793534884479</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1649111918144923</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02567542645159909</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1664935363157299</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02564476589840958</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1680758808169674</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02561580795710627</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1696582253182051</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02558840689551912</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1712405698194427</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02556241698147809</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1728229143206803</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0255376924828132</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1744052588219179</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02551408766735441</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1759876033231555</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02549145680293167</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1775699478243931</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.025469654157375</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1791522923256307</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02544853399851436</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1807346368268683</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02542795059417972</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1823169813281059</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02540775821220109</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1838993258293435</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02538781112040841</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1854816703305811</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02536796358663167</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1870640148318187</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02534806987870087</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1886463593330563</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02532798426444597</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1902287038342939</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02530756101169693</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1918110483355315</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0252870812352659</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.193393392836769</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02526694371108486</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1949757373380067</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02524716110860096</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1965580818392443</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.0252277460746007</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1981404263404819</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0252087112558706</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1997227708417195</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02519006929919721</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2013051153429571</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.025171832851367</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2028874598441947</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02515401455916656</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2044698043454323</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02513662706938235</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2060521488466699</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02511968302880094</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2076344933479075</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02510319508420882</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.209216837849145</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02508717588239253</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2107991823503827</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02507163807013858</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2123815268516203</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02505659429423349</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2139638713528579</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0250420572014638</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2155462158540955</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02502803943861603</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2171285603553331</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0250145536524767</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2187109048565707</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
